--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="256">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -565,6 +565,15 @@
     <t>['90']</t>
   </si>
   <si>
+    <t>['87', '90+3']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['48', '74']</t>
+  </si>
+  <si>
     <t>['83']</t>
   </si>
   <si>
@@ -623,9 +632,6 @@
   </si>
   <si>
     <t>['39', '43', '84']</t>
-  </si>
-  <si>
-    <t>['90+1']</t>
   </si>
   <si>
     <t>['61', '90+2']</t>
@@ -773,6 +779,9 @@
   </si>
   <si>
     <t>['79', '85']</t>
+  </si>
+  <si>
+    <t>['30', '59']</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP149"/>
+  <dimension ref="A1:BP152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1471,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AQ2">
         <v>0.93</v>
@@ -1886,7 +1895,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ4">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2011,7 +2020,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -2092,7 +2101,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ5">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2298,7 +2307,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ6">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2629,7 +2638,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2913,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ9">
         <v>2.07</v>
@@ -3328,7 +3337,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ11">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR11">
         <v>1.27</v>
@@ -3453,7 +3462,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3531,7 +3540,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ12">
         <v>1.73</v>
@@ -3946,7 +3955,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ14">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR14">
         <v>1.88</v>
@@ -4149,10 +4158,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AQ15">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AR15">
         <v>1.3</v>
@@ -4277,7 +4286,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4689,7 +4698,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -5307,7 +5316,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5385,10 +5394,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ21">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR21">
         <v>1.05</v>
@@ -5513,7 +5522,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5594,7 +5603,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ22">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR22">
         <v>1.24</v>
@@ -5797,10 +5806,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ23">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AR23">
         <v>0.7</v>
@@ -5925,7 +5934,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -6131,7 +6140,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6209,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AQ25">
         <v>1.46</v>
@@ -6543,7 +6552,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6955,7 +6964,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -7242,7 +7251,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ30">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AR30">
         <v>1.03</v>
@@ -7367,7 +7376,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7448,7 +7457,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ31">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR31">
         <v>1.26</v>
@@ -7654,7 +7663,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ32">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR32">
         <v>1.34</v>
@@ -8063,7 +8072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ34">
         <v>1.46</v>
@@ -8269,7 +8278,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AQ35">
         <v>0.73</v>
@@ -8603,7 +8612,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -8890,7 +8899,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ38">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR38">
         <v>1.19</v>
@@ -9015,7 +9024,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -9096,7 +9105,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ39">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AR39">
         <v>2.18</v>
@@ -9633,7 +9642,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q42">
         <v>1.95</v>
@@ -9711,10 +9720,10 @@
         <v>1.25</v>
       </c>
       <c r="AP42">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AQ42">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR42">
         <v>2.18</v>
@@ -9917,7 +9926,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ43">
         <v>0.73</v>
@@ -10045,7 +10054,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10251,7 +10260,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10663,7 +10672,7 @@
         <v>81</v>
       </c>
       <c r="P47" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -10741,7 +10750,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ47">
         <v>2.07</v>
@@ -10869,7 +10878,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11153,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ49">
         <v>0.73</v>
@@ -11281,7 +11290,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q50">
         <v>6.1</v>
@@ -11568,7 +11577,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ51">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AR51">
         <v>1.32</v>
@@ -11693,7 +11702,7 @@
         <v>81</v>
       </c>
       <c r="P52" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="Q52">
         <v>2.31</v>
@@ -11774,7 +11783,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ52">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR52">
         <v>1.58</v>
@@ -11977,10 +11986,10 @@
         <v>1.2</v>
       </c>
       <c r="AP53">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ53">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR53">
         <v>1.07</v>
@@ -12105,7 +12114,7 @@
         <v>111</v>
       </c>
       <c r="P54" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12311,7 +12320,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q55">
         <v>2.1</v>
@@ -12389,7 +12398,7 @@
         <v>1.8</v>
       </c>
       <c r="AP55">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AQ55">
         <v>1.73</v>
@@ -12517,7 +12526,7 @@
         <v>81</v>
       </c>
       <c r="P56" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12595,7 +12604,7 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ56">
         <v>0.73</v>
@@ -12723,7 +12732,7 @@
         <v>115</v>
       </c>
       <c r="P57" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q57">
         <v>1.95</v>
@@ -12929,7 +12938,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -13135,7 +13144,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13213,7 +13222,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ59">
         <v>0.93</v>
@@ -13341,7 +13350,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q60">
         <v>3.6</v>
@@ -13547,7 +13556,7 @@
         <v>89</v>
       </c>
       <c r="P61" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13753,7 +13762,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -13831,10 +13840,10 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ62">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AR62">
         <v>1.13</v>
@@ -13959,7 +13968,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q63">
         <v>4.3</v>
@@ -14165,7 +14174,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14243,10 +14252,10 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ64">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR64">
         <v>1.37</v>
@@ -14371,7 +14380,7 @@
         <v>120</v>
       </c>
       <c r="P65" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14655,10 +14664,10 @@
         <v>0.67</v>
       </c>
       <c r="AP66">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AQ66">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR66">
         <v>1.87</v>
@@ -15195,7 +15204,7 @@
         <v>123</v>
       </c>
       <c r="P69" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15401,7 +15410,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q70">
         <v>3.2</v>
@@ -15607,7 +15616,7 @@
         <v>114</v>
       </c>
       <c r="P71" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q71">
         <v>4.75</v>
@@ -15891,10 +15900,10 @@
         <v>0.57</v>
       </c>
       <c r="AP72">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ72">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR72">
         <v>1.36</v>
@@ -16100,7 +16109,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ73">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR73">
         <v>1.53</v>
@@ -16303,7 +16312,7 @@
         <v>1.83</v>
       </c>
       <c r="AP74">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AQ74">
         <v>1.4</v>
@@ -16431,7 +16440,7 @@
         <v>125</v>
       </c>
       <c r="P75" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q75">
         <v>2.91</v>
@@ -16637,7 +16646,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -16715,7 +16724,7 @@
         <v>1.14</v>
       </c>
       <c r="AP76">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ76">
         <v>1.46</v>
@@ -17049,7 +17058,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -17130,7 +17139,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ78">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AR78">
         <v>1.13</v>
@@ -17255,7 +17264,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -17539,7 +17548,7 @@
         <v>1.71</v>
       </c>
       <c r="AP80">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ80">
         <v>1.4</v>
@@ -17667,7 +17676,7 @@
         <v>130</v>
       </c>
       <c r="P81" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17748,7 +17757,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ81">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR81">
         <v>1.21</v>
@@ -17873,7 +17882,7 @@
         <v>131</v>
       </c>
       <c r="P82" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q82">
         <v>3.5</v>
@@ -17951,7 +17960,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ82">
         <v>1.4</v>
@@ -18157,7 +18166,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ83">
         <v>0.73</v>
@@ -18569,7 +18578,7 @@
         <v>0.86</v>
       </c>
       <c r="AP85">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AQ85">
         <v>0.73</v>
@@ -18903,7 +18912,7 @@
         <v>134</v>
       </c>
       <c r="P87" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q87">
         <v>1.69</v>
@@ -18984,7 +18993,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ87">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR87">
         <v>1.97</v>
@@ -19109,7 +19118,7 @@
         <v>135</v>
       </c>
       <c r="P88" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19315,7 +19324,7 @@
         <v>101</v>
       </c>
       <c r="P89" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -19602,7 +19611,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ90">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AR90">
         <v>1.64</v>
@@ -19727,7 +19736,7 @@
         <v>137</v>
       </c>
       <c r="P91" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19933,7 +19942,7 @@
         <v>138</v>
       </c>
       <c r="P92" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q92">
         <v>2.4</v>
@@ -20014,7 +20023,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ92">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR92">
         <v>2.06</v>
@@ -20220,7 +20229,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ93">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR93">
         <v>1.71</v>
@@ -20423,7 +20432,7 @@
         <v>1.22</v>
       </c>
       <c r="AP94">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AQ94">
         <v>0.93</v>
@@ -20632,7 +20641,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ95">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AR95">
         <v>1.41</v>
@@ -20757,7 +20766,7 @@
         <v>141</v>
       </c>
       <c r="P96" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21169,7 +21178,7 @@
         <v>143</v>
       </c>
       <c r="P98" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q98">
         <v>3.25</v>
@@ -21375,7 +21384,7 @@
         <v>81</v>
       </c>
       <c r="P99" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q99">
         <v>3.55</v>
@@ -21581,7 +21590,7 @@
         <v>144</v>
       </c>
       <c r="P100" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q100">
         <v>2.65</v>
@@ -21787,7 +21796,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -21865,7 +21874,7 @@
         <v>2.33</v>
       </c>
       <c r="AP101">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ101">
         <v>2.07</v>
@@ -21993,7 +22002,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q102">
         <v>2.34</v>
@@ -22074,7 +22083,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ102">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR102">
         <v>1.84</v>
@@ -22483,10 +22492,10 @@
         <v>0.2</v>
       </c>
       <c r="AP104">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AQ104">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AR104">
         <v>1.82</v>
@@ -22692,7 +22701,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ105">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR105">
         <v>1.39</v>
@@ -22817,7 +22826,7 @@
         <v>149</v>
       </c>
       <c r="P106" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -23023,7 +23032,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q107">
         <v>2.82</v>
@@ -23435,7 +23444,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23719,10 +23728,10 @@
         <v>0.45</v>
       </c>
       <c r="AP110">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ110">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR110">
         <v>1.09</v>
@@ -23847,7 +23856,7 @@
         <v>81</v>
       </c>
       <c r="P111" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q111">
         <v>5.2</v>
@@ -24131,10 +24140,10 @@
         <v>0.18</v>
       </c>
       <c r="AP112">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ112">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AR112">
         <v>1.41</v>
@@ -24337,7 +24346,7 @@
         <v>1.3</v>
       </c>
       <c r="AP113">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AQ113">
         <v>1.46</v>
@@ -24465,7 +24474,7 @@
         <v>154</v>
       </c>
       <c r="P114" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q114">
         <v>3.8</v>
@@ -24546,7 +24555,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ114">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR114">
         <v>1.48</v>
@@ -24671,7 +24680,7 @@
         <v>155</v>
       </c>
       <c r="P115" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -24749,7 +24758,7 @@
         <v>1.91</v>
       </c>
       <c r="AP115">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ115">
         <v>1.73</v>
@@ -24877,7 +24886,7 @@
         <v>156</v>
       </c>
       <c r="P116" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q116">
         <v>5.5</v>
@@ -25083,7 +25092,7 @@
         <v>157</v>
       </c>
       <c r="P117" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q117">
         <v>2.12</v>
@@ -25164,7 +25173,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ117">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AR117">
         <v>1.5</v>
@@ -25495,7 +25504,7 @@
         <v>159</v>
       </c>
       <c r="P119" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q119">
         <v>3.75</v>
@@ -25907,7 +25916,7 @@
         <v>160</v>
       </c>
       <c r="P121" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q121">
         <v>0</v>
@@ -26194,7 +26203,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ122">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR122">
         <v>1.32</v>
@@ -26397,7 +26406,7 @@
         <v>1.73</v>
       </c>
       <c r="AP123">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ123">
         <v>1.4</v>
@@ -26603,7 +26612,7 @@
         <v>1</v>
       </c>
       <c r="AP124">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AQ124">
         <v>0.73</v>
@@ -26731,7 +26740,7 @@
         <v>164</v>
       </c>
       <c r="P125" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q125">
         <v>2.85</v>
@@ -26812,7 +26821,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ125">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR125">
         <v>1.44</v>
@@ -27143,7 +27152,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q127">
         <v>6.5</v>
@@ -27349,7 +27358,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27430,7 +27439,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ128">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR128">
         <v>1.54</v>
@@ -27555,7 +27564,7 @@
         <v>167</v>
       </c>
       <c r="P129" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -27761,7 +27770,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q130">
         <v>1.8</v>
@@ -27842,7 +27851,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ130">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AR130">
         <v>2.1</v>
@@ -28045,7 +28054,7 @@
         <v>0.92</v>
       </c>
       <c r="AP131">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ131">
         <v>0.73</v>
@@ -28457,7 +28466,7 @@
         <v>0.58</v>
       </c>
       <c r="AP133">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ133">
         <v>0.73</v>
@@ -28663,10 +28672,10 @@
         <v>1.46</v>
       </c>
       <c r="AP134">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AQ134">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR134">
         <v>1.81</v>
@@ -28791,7 +28800,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -28997,7 +29006,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29075,7 +29084,7 @@
         <v>0.62</v>
       </c>
       <c r="AP136">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ136">
         <v>0.73</v>
@@ -29203,7 +29212,7 @@
         <v>81</v>
       </c>
       <c r="P137" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q137">
         <v>0</v>
@@ -29281,7 +29290,7 @@
         <v>2.08</v>
       </c>
       <c r="AP137">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ137">
         <v>2.07</v>
@@ -29409,7 +29418,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q138">
         <v>3.4</v>
@@ -29902,7 +29911,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ140">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AR140">
         <v>1.3</v>
@@ -30027,7 +30036,7 @@
         <v>170</v>
       </c>
       <c r="P141" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q141">
         <v>2</v>
@@ -30105,7 +30114,7 @@
         <v>1.79</v>
       </c>
       <c r="AP141">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AQ141">
         <v>1.73</v>
@@ -30311,10 +30320,10 @@
         <v>1.36</v>
       </c>
       <c r="AP142">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ142">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AR142">
         <v>1.23</v>
@@ -30439,7 +30448,7 @@
         <v>81</v>
       </c>
       <c r="P143" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q143">
         <v>2.45</v>
@@ -30520,7 +30529,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ143">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AR143">
         <v>1.51</v>
@@ -30645,7 +30654,7 @@
         <v>178</v>
       </c>
       <c r="P144" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q144">
         <v>9.5</v>
@@ -30929,7 +30938,7 @@
         <v>0.93</v>
       </c>
       <c r="AP145">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ145">
         <v>0.93</v>
@@ -31263,7 +31272,7 @@
         <v>181</v>
       </c>
       <c r="P147" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q147">
         <v>3.6</v>
@@ -31469,7 +31478,7 @@
         <v>94</v>
       </c>
       <c r="P148" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31675,7 +31684,7 @@
         <v>182</v>
       </c>
       <c r="P149" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -31831,6 +31840,624 @@
         <v>0</v>
       </c>
       <c r="BP149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7483823</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45766.41666666666</v>
+      </c>
+      <c r="F150">
+        <v>31</v>
+      </c>
+      <c r="G150" t="s">
+        <v>79</v>
+      </c>
+      <c r="H150" t="s">
+        <v>75</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>2</v>
+      </c>
+      <c r="M150">
+        <v>2</v>
+      </c>
+      <c r="N150">
+        <v>4</v>
+      </c>
+      <c r="O150" t="s">
+        <v>183</v>
+      </c>
+      <c r="P150" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q150">
+        <v>0</v>
+      </c>
+      <c r="R150">
+        <v>0</v>
+      </c>
+      <c r="S150">
+        <v>0</v>
+      </c>
+      <c r="T150">
+        <v>0</v>
+      </c>
+      <c r="U150">
+        <v>0</v>
+      </c>
+      <c r="V150">
+        <v>0</v>
+      </c>
+      <c r="W150">
+        <v>0</v>
+      </c>
+      <c r="X150">
+        <v>0</v>
+      </c>
+      <c r="Y150">
+        <v>0</v>
+      </c>
+      <c r="Z150">
+        <v>2.03</v>
+      </c>
+      <c r="AA150">
+        <v>3.58</v>
+      </c>
+      <c r="AB150">
+        <v>3.36</v>
+      </c>
+      <c r="AC150">
+        <v>0</v>
+      </c>
+      <c r="AD150">
+        <v>0</v>
+      </c>
+      <c r="AE150">
+        <v>0</v>
+      </c>
+      <c r="AF150">
+        <v>0</v>
+      </c>
+      <c r="AG150">
+        <v>1.87</v>
+      </c>
+      <c r="AH150">
+        <v>1.87</v>
+      </c>
+      <c r="AI150">
+        <v>0</v>
+      </c>
+      <c r="AJ150">
+        <v>0</v>
+      </c>
+      <c r="AK150">
+        <v>0</v>
+      </c>
+      <c r="AL150">
+        <v>0</v>
+      </c>
+      <c r="AM150">
+        <v>0</v>
+      </c>
+      <c r="AN150">
+        <v>1.4</v>
+      </c>
+      <c r="AO150">
+        <v>0.27</v>
+      </c>
+      <c r="AP150">
+        <v>1.38</v>
+      </c>
+      <c r="AQ150">
+        <v>0.31</v>
+      </c>
+      <c r="AR150">
+        <v>1.31</v>
+      </c>
+      <c r="AS150">
+        <v>1.24</v>
+      </c>
+      <c r="AT150">
+        <v>2.55</v>
+      </c>
+      <c r="AU150">
+        <v>-1</v>
+      </c>
+      <c r="AV150">
+        <v>-1</v>
+      </c>
+      <c r="AW150">
+        <v>-1</v>
+      </c>
+      <c r="AX150">
+        <v>-1</v>
+      </c>
+      <c r="AY150">
+        <v>-1</v>
+      </c>
+      <c r="AZ150">
+        <v>-1</v>
+      </c>
+      <c r="BA150">
+        <v>-1</v>
+      </c>
+      <c r="BB150">
+        <v>-1</v>
+      </c>
+      <c r="BC150">
+        <v>-1</v>
+      </c>
+      <c r="BD150">
+        <v>0</v>
+      </c>
+      <c r="BE150">
+        <v>0</v>
+      </c>
+      <c r="BF150">
+        <v>0</v>
+      </c>
+      <c r="BG150">
+        <v>0</v>
+      </c>
+      <c r="BH150">
+        <v>0</v>
+      </c>
+      <c r="BI150">
+        <v>0</v>
+      </c>
+      <c r="BJ150">
+        <v>0</v>
+      </c>
+      <c r="BK150">
+        <v>0</v>
+      </c>
+      <c r="BL150">
+        <v>0</v>
+      </c>
+      <c r="BM150">
+        <v>0</v>
+      </c>
+      <c r="BN150">
+        <v>0</v>
+      </c>
+      <c r="BO150">
+        <v>0</v>
+      </c>
+      <c r="BP150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7483822</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45766.52083333334</v>
+      </c>
+      <c r="F151">
+        <v>31</v>
+      </c>
+      <c r="G151" t="s">
+        <v>77</v>
+      </c>
+      <c r="H151" t="s">
+        <v>78</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>1</v>
+      </c>
+      <c r="O151" t="s">
+        <v>184</v>
+      </c>
+      <c r="P151" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q151">
+        <v>3</v>
+      </c>
+      <c r="R151">
+        <v>2.05</v>
+      </c>
+      <c r="S151">
+        <v>3.6</v>
+      </c>
+      <c r="T151">
+        <v>1.44</v>
+      </c>
+      <c r="U151">
+        <v>2.63</v>
+      </c>
+      <c r="V151">
+        <v>3.25</v>
+      </c>
+      <c r="W151">
+        <v>1.33</v>
+      </c>
+      <c r="X151">
+        <v>7.5</v>
+      </c>
+      <c r="Y151">
+        <v>1.07</v>
+      </c>
+      <c r="Z151">
+        <v>2.34</v>
+      </c>
+      <c r="AA151">
+        <v>3.23</v>
+      </c>
+      <c r="AB151">
+        <v>2.99</v>
+      </c>
+      <c r="AC151">
+        <v>2.11</v>
+      </c>
+      <c r="AD151">
+        <v>1.7</v>
+      </c>
+      <c r="AE151">
+        <v>0</v>
+      </c>
+      <c r="AF151">
+        <v>0</v>
+      </c>
+      <c r="AG151">
+        <v>2</v>
+      </c>
+      <c r="AH151">
+        <v>1.67</v>
+      </c>
+      <c r="AI151">
+        <v>1.83</v>
+      </c>
+      <c r="AJ151">
+        <v>1.83</v>
+      </c>
+      <c r="AK151">
+        <v>0</v>
+      </c>
+      <c r="AL151">
+        <v>0</v>
+      </c>
+      <c r="AM151">
+        <v>0</v>
+      </c>
+      <c r="AN151">
+        <v>1.64</v>
+      </c>
+      <c r="AO151">
+        <v>1.27</v>
+      </c>
+      <c r="AP151">
+        <v>1.73</v>
+      </c>
+      <c r="AQ151">
+        <v>1.19</v>
+      </c>
+      <c r="AR151">
+        <v>1.63</v>
+      </c>
+      <c r="AS151">
+        <v>1.5</v>
+      </c>
+      <c r="AT151">
+        <v>3.13</v>
+      </c>
+      <c r="AU151">
+        <v>5</v>
+      </c>
+      <c r="AV151">
+        <v>3</v>
+      </c>
+      <c r="AW151">
+        <v>11</v>
+      </c>
+      <c r="AX151">
+        <v>4</v>
+      </c>
+      <c r="AY151">
+        <v>16</v>
+      </c>
+      <c r="AZ151">
+        <v>7</v>
+      </c>
+      <c r="BA151">
+        <v>10</v>
+      </c>
+      <c r="BB151">
+        <v>2</v>
+      </c>
+      <c r="BC151">
+        <v>12</v>
+      </c>
+      <c r="BD151">
+        <v>0</v>
+      </c>
+      <c r="BE151">
+        <v>0</v>
+      </c>
+      <c r="BF151">
+        <v>0</v>
+      </c>
+      <c r="BG151">
+        <v>0</v>
+      </c>
+      <c r="BH151">
+        <v>0</v>
+      </c>
+      <c r="BI151">
+        <v>0</v>
+      </c>
+      <c r="BJ151">
+        <v>0</v>
+      </c>
+      <c r="BK151">
+        <v>0</v>
+      </c>
+      <c r="BL151">
+        <v>0</v>
+      </c>
+      <c r="BM151">
+        <v>0</v>
+      </c>
+      <c r="BN151">
+        <v>0</v>
+      </c>
+      <c r="BO151">
+        <v>0</v>
+      </c>
+      <c r="BP151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7483824</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45766.63541666666</v>
+      </c>
+      <c r="F152">
+        <v>31</v>
+      </c>
+      <c r="G152" t="s">
+        <v>70</v>
+      </c>
+      <c r="H152" t="s">
+        <v>76</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>2</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>2</v>
+      </c>
+      <c r="O152" t="s">
+        <v>185</v>
+      </c>
+      <c r="P152" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q152">
+        <v>1.62</v>
+      </c>
+      <c r="R152">
+        <v>2.6</v>
+      </c>
+      <c r="S152">
+        <v>9.5</v>
+      </c>
+      <c r="T152">
+        <v>1.3</v>
+      </c>
+      <c r="U152">
+        <v>3.4</v>
+      </c>
+      <c r="V152">
+        <v>2.38</v>
+      </c>
+      <c r="W152">
+        <v>1.53</v>
+      </c>
+      <c r="X152">
+        <v>5</v>
+      </c>
+      <c r="Y152">
+        <v>1.14</v>
+      </c>
+      <c r="Z152">
+        <v>1.2</v>
+      </c>
+      <c r="AA152">
+        <v>6</v>
+      </c>
+      <c r="AB152">
+        <v>14</v>
+      </c>
+      <c r="AC152">
+        <v>1.02</v>
+      </c>
+      <c r="AD152">
+        <v>12</v>
+      </c>
+      <c r="AE152">
+        <v>1.19</v>
+      </c>
+      <c r="AF152">
+        <v>4.33</v>
+      </c>
+      <c r="AG152">
+        <v>1.55</v>
+      </c>
+      <c r="AH152">
+        <v>2.2</v>
+      </c>
+      <c r="AI152">
+        <v>2.38</v>
+      </c>
+      <c r="AJ152">
+        <v>1.53</v>
+      </c>
+      <c r="AK152">
+        <v>1.04</v>
+      </c>
+      <c r="AL152">
+        <v>1.17</v>
+      </c>
+      <c r="AM152">
+        <v>3.8</v>
+      </c>
+      <c r="AN152">
+        <v>2.27</v>
+      </c>
+      <c r="AO152">
+        <v>0.8</v>
+      </c>
+      <c r="AP152">
+        <v>2.31</v>
+      </c>
+      <c r="AQ152">
+        <v>0.75</v>
+      </c>
+      <c r="AR152">
+        <v>1.81</v>
+      </c>
+      <c r="AS152">
+        <v>1.25</v>
+      </c>
+      <c r="AT152">
+        <v>3.06</v>
+      </c>
+      <c r="AU152">
+        <v>8</v>
+      </c>
+      <c r="AV152">
+        <v>0</v>
+      </c>
+      <c r="AW152">
+        <v>4</v>
+      </c>
+      <c r="AX152">
+        <v>2</v>
+      </c>
+      <c r="AY152">
+        <v>12</v>
+      </c>
+      <c r="AZ152">
+        <v>2</v>
+      </c>
+      <c r="BA152">
+        <v>8</v>
+      </c>
+      <c r="BB152">
+        <v>1</v>
+      </c>
+      <c r="BC152">
+        <v>9</v>
+      </c>
+      <c r="BD152">
+        <v>0</v>
+      </c>
+      <c r="BE152">
+        <v>0</v>
+      </c>
+      <c r="BF152">
+        <v>0</v>
+      </c>
+      <c r="BG152">
+        <v>0</v>
+      </c>
+      <c r="BH152">
+        <v>0</v>
+      </c>
+      <c r="BI152">
+        <v>0</v>
+      </c>
+      <c r="BJ152">
+        <v>0</v>
+      </c>
+      <c r="BK152">
+        <v>0</v>
+      </c>
+      <c r="BL152">
+        <v>0</v>
+      </c>
+      <c r="BM152">
+        <v>0</v>
+      </c>
+      <c r="BN152">
+        <v>0</v>
+      </c>
+      <c r="BO152">
+        <v>0</v>
+      </c>
+      <c r="BP152">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
@@ -31983,31 +31983,31 @@
         <v>2.55</v>
       </c>
       <c r="AU150">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AV150">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW150">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AX150">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY150">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="AZ150">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA150">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB150">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC150">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD150">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="260">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -574,6 +574,12 @@
     <t>['48', '74']</t>
   </si>
   <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
     <t>['83']</t>
   </si>
   <si>
@@ -782,6 +788,12 @@
   </si>
   <si>
     <t>['30', '59']</t>
+  </si>
+  <si>
+    <t>['48', '79', '84']</t>
+  </si>
+  <si>
+    <t>['82', '84']</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP152"/>
+  <dimension ref="A1:BP154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1686,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ3">
         <v>1.73</v>
@@ -1892,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ4">
         <v>0.31</v>
@@ -2020,7 +2032,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -2638,7 +2650,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -3334,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ11">
         <v>0.75</v>
@@ -3462,7 +3474,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3746,10 +3758,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ13">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR13">
         <v>1.72</v>
@@ -4286,7 +4298,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4698,7 +4710,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -5316,7 +5328,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5522,7 +5534,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5600,7 +5612,7 @@
         <v>0.5</v>
       </c>
       <c r="AP22">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ22">
         <v>1.19</v>
@@ -5934,7 +5946,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -6012,10 +6024,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ24">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR24">
         <v>1.24</v>
@@ -6140,7 +6152,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6221,7 +6233,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ25">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR25">
         <v>1.83</v>
@@ -6424,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ26">
         <v>0.73</v>
@@ -6552,7 +6564,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6964,7 +6976,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -7376,7 +7388,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7660,7 +7672,7 @@
         <v>1.33</v>
       </c>
       <c r="AP32">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ32">
         <v>1.19</v>
@@ -8075,7 +8087,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ34">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR34">
         <v>1.21</v>
@@ -8484,7 +8496,7 @@
         <v>1.2</v>
       </c>
       <c r="AP36">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ36">
         <v>0.93</v>
@@ -8612,7 +8624,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -8690,7 +8702,7 @@
         <v>1.67</v>
       </c>
       <c r="AP37">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ37">
         <v>2.07</v>
@@ -9024,7 +9036,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -9517,7 +9529,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ41">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR41">
         <v>2.19</v>
@@ -9642,7 +9654,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q42">
         <v>1.95</v>
@@ -10054,7 +10066,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10135,7 +10147,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ44">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR44">
         <v>1.49</v>
@@ -10260,7 +10272,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10341,7 +10353,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ45">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR45">
         <v>1.07</v>
@@ -10672,7 +10684,7 @@
         <v>81</v>
       </c>
       <c r="P47" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -10878,7 +10890,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10959,7 +10971,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ48">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR48">
         <v>1.28</v>
@@ -11290,7 +11302,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q50">
         <v>6.1</v>
@@ -11371,7 +11383,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ50">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR50">
         <v>1.16</v>
@@ -11574,7 +11586,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ51">
         <v>0.31</v>
@@ -11780,7 +11792,7 @@
         <v>0.2</v>
       </c>
       <c r="AP52">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ52">
         <v>0.75</v>
@@ -12114,7 +12126,7 @@
         <v>111</v>
       </c>
       <c r="P54" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12195,7 +12207,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ54">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR54">
         <v>1.59</v>
@@ -12320,7 +12332,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q55">
         <v>2.1</v>
@@ -12526,7 +12538,7 @@
         <v>81</v>
       </c>
       <c r="P56" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12732,7 +12744,7 @@
         <v>115</v>
       </c>
       <c r="P57" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q57">
         <v>1.95</v>
@@ -12938,7 +12950,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -13144,7 +13156,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13350,7 +13362,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q60">
         <v>3.6</v>
@@ -13431,7 +13443,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ60">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR60">
         <v>1.4</v>
@@ -13556,7 +13568,7 @@
         <v>89</v>
       </c>
       <c r="P61" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13762,7 +13774,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -13968,7 +13980,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q63">
         <v>4.3</v>
@@ -14046,10 +14058,10 @@
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ63">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR63">
         <v>1.5</v>
@@ -14174,7 +14186,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14380,7 +14392,7 @@
         <v>120</v>
       </c>
       <c r="P65" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14458,10 +14470,10 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ65">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR65">
         <v>1.42</v>
@@ -15410,7 +15422,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q70">
         <v>3.2</v>
@@ -15616,7 +15628,7 @@
         <v>114</v>
       </c>
       <c r="P71" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q71">
         <v>4.75</v>
@@ -16315,7 +16327,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ74">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR74">
         <v>1.87</v>
@@ -16440,7 +16452,7 @@
         <v>125</v>
       </c>
       <c r="P75" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q75">
         <v>2.91</v>
@@ -16518,7 +16530,7 @@
         <v>0.71</v>
       </c>
       <c r="AP75">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ75">
         <v>0.73</v>
@@ -16646,7 +16658,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -16727,7 +16739,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ76">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR76">
         <v>1.07</v>
@@ -17058,7 +17070,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -17264,7 +17276,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -17342,7 +17354,7 @@
         <v>2.43</v>
       </c>
       <c r="AP79">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ79">
         <v>2.07</v>
@@ -17551,7 +17563,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ80">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR80">
         <v>1.04</v>
@@ -17676,7 +17688,7 @@
         <v>130</v>
       </c>
       <c r="P81" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17882,7 +17894,7 @@
         <v>131</v>
       </c>
       <c r="P82" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q82">
         <v>3.5</v>
@@ -17963,7 +17975,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ82">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR82">
         <v>1.46</v>
@@ -18375,7 +18387,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ84">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR84">
         <v>1.41</v>
@@ -18912,7 +18924,7 @@
         <v>134</v>
       </c>
       <c r="P87" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q87">
         <v>1.69</v>
@@ -19118,7 +19130,7 @@
         <v>135</v>
       </c>
       <c r="P88" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19324,7 +19336,7 @@
         <v>101</v>
       </c>
       <c r="P89" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -19402,7 +19414,7 @@
         <v>1.25</v>
       </c>
       <c r="AP89">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ89">
         <v>0.93</v>
@@ -19736,7 +19748,7 @@
         <v>137</v>
       </c>
       <c r="P91" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19814,7 +19826,7 @@
         <v>1.88</v>
       </c>
       <c r="AP91">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ91">
         <v>1.73</v>
@@ -19942,7 +19954,7 @@
         <v>138</v>
       </c>
       <c r="P92" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q92">
         <v>2.4</v>
@@ -20638,7 +20650,7 @@
         <v>0.11</v>
       </c>
       <c r="AP95">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ95">
         <v>0.31</v>
@@ -20766,7 +20778,7 @@
         <v>141</v>
       </c>
       <c r="P96" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -20844,7 +20856,7 @@
         <v>2</v>
       </c>
       <c r="AP96">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ96">
         <v>1.73</v>
@@ -21178,7 +21190,7 @@
         <v>143</v>
       </c>
       <c r="P98" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q98">
         <v>3.25</v>
@@ -21384,7 +21396,7 @@
         <v>81</v>
       </c>
       <c r="P99" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q99">
         <v>3.55</v>
@@ -21590,7 +21602,7 @@
         <v>144</v>
       </c>
       <c r="P100" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q100">
         <v>2.65</v>
@@ -21671,7 +21683,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ100">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR100">
         <v>2.09</v>
@@ -21796,7 +21808,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -22002,7 +22014,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q102">
         <v>2.34</v>
@@ -22286,10 +22298,10 @@
         <v>1.33</v>
       </c>
       <c r="AP103">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ103">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR103">
         <v>1.45</v>
@@ -22698,7 +22710,7 @@
         <v>0.5</v>
       </c>
       <c r="AP105">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ105">
         <v>0.75</v>
@@ -22826,7 +22838,7 @@
         <v>149</v>
       </c>
       <c r="P106" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -23032,7 +23044,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q107">
         <v>2.82</v>
@@ -23444,7 +23456,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23856,7 +23868,7 @@
         <v>81</v>
       </c>
       <c r="P111" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q111">
         <v>5.2</v>
@@ -23934,10 +23946,10 @@
         <v>1.6</v>
       </c>
       <c r="AP111">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ111">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR111">
         <v>1.34</v>
@@ -24349,7 +24361,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ113">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR113">
         <v>1.82</v>
@@ -24474,7 +24486,7 @@
         <v>154</v>
       </c>
       <c r="P114" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q114">
         <v>3.8</v>
@@ -24552,7 +24564,7 @@
         <v>1.64</v>
       </c>
       <c r="AP114">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ114">
         <v>1.19</v>
@@ -24680,7 +24692,7 @@
         <v>155</v>
       </c>
       <c r="P115" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -24886,7 +24898,7 @@
         <v>156</v>
       </c>
       <c r="P116" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q116">
         <v>5.5</v>
@@ -25092,7 +25104,7 @@
         <v>157</v>
       </c>
       <c r="P117" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q117">
         <v>2.12</v>
@@ -25376,7 +25388,7 @@
         <v>0.64</v>
       </c>
       <c r="AP118">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ118">
         <v>0.73</v>
@@ -25504,7 +25516,7 @@
         <v>159</v>
       </c>
       <c r="P119" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q119">
         <v>3.75</v>
@@ -25916,7 +25928,7 @@
         <v>160</v>
       </c>
       <c r="P121" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q121">
         <v>0</v>
@@ -26200,7 +26212,7 @@
         <v>1.58</v>
       </c>
       <c r="AP122">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ122">
         <v>1.19</v>
@@ -26409,7 +26421,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ123">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR123">
         <v>1.1</v>
@@ -26740,7 +26752,7 @@
         <v>164</v>
       </c>
       <c r="P125" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q125">
         <v>2.85</v>
@@ -27024,7 +27036,7 @@
         <v>1</v>
       </c>
       <c r="AP126">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ126">
         <v>0.93</v>
@@ -27152,7 +27164,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q127">
         <v>6.5</v>
@@ -27230,7 +27242,7 @@
         <v>2</v>
       </c>
       <c r="AP127">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ127">
         <v>2.07</v>
@@ -27358,7 +27370,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27564,7 +27576,7 @@
         <v>167</v>
       </c>
       <c r="P129" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -27770,7 +27782,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q130">
         <v>1.8</v>
@@ -28263,7 +28275,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ132">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR132">
         <v>1.42</v>
@@ -28800,7 +28812,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -29006,7 +29018,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29212,7 +29224,7 @@
         <v>81</v>
       </c>
       <c r="P137" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q137">
         <v>0</v>
@@ -29418,7 +29430,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q138">
         <v>3.4</v>
@@ -29499,7 +29511,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ138">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR138">
         <v>1.64</v>
@@ -29705,7 +29717,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ139">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR139">
         <v>1.37</v>
@@ -29908,7 +29920,7 @@
         <v>0.29</v>
       </c>
       <c r="AP140">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ140">
         <v>0.31</v>
@@ -30036,7 +30048,7 @@
         <v>170</v>
       </c>
       <c r="P141" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q141">
         <v>2</v>
@@ -30448,7 +30460,7 @@
         <v>81</v>
       </c>
       <c r="P143" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q143">
         <v>2.45</v>
@@ -30526,7 +30538,7 @@
         <v>0.64</v>
       </c>
       <c r="AP143">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AQ143">
         <v>0.75</v>
@@ -30654,7 +30666,7 @@
         <v>178</v>
       </c>
       <c r="P144" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q144">
         <v>9.5</v>
@@ -31272,7 +31284,7 @@
         <v>181</v>
       </c>
       <c r="P147" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q147">
         <v>3.6</v>
@@ -31353,7 +31365,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ147">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR147">
         <v>1.64</v>
@@ -31478,7 +31490,7 @@
         <v>94</v>
       </c>
       <c r="P148" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31684,7 +31696,7 @@
         <v>182</v>
       </c>
       <c r="P149" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -31765,7 +31777,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ149">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR149">
         <v>1.5</v>
@@ -31890,7 +31902,7 @@
         <v>183</v>
       </c>
       <c r="P150" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q150">
         <v>0</v>
@@ -32459,6 +32471,418 @@
       </c>
       <c r="BP152">
         <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7483825</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45768.41666666666</v>
+      </c>
+      <c r="F153">
+        <v>31</v>
+      </c>
+      <c r="G153" t="s">
+        <v>71</v>
+      </c>
+      <c r="H153" t="s">
+        <v>74</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>3</v>
+      </c>
+      <c r="N153">
+        <v>4</v>
+      </c>
+      <c r="O153" t="s">
+        <v>186</v>
+      </c>
+      <c r="P153" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q153">
+        <v>5.5</v>
+      </c>
+      <c r="R153">
+        <v>2.38</v>
+      </c>
+      <c r="S153">
+        <v>1.95</v>
+      </c>
+      <c r="T153">
+        <v>1.33</v>
+      </c>
+      <c r="U153">
+        <v>3.25</v>
+      </c>
+      <c r="V153">
+        <v>2.5</v>
+      </c>
+      <c r="W153">
+        <v>1.5</v>
+      </c>
+      <c r="X153">
+        <v>5.5</v>
+      </c>
+      <c r="Y153">
+        <v>1.13</v>
+      </c>
+      <c r="Z153">
+        <v>5.6</v>
+      </c>
+      <c r="AA153">
+        <v>4.4</v>
+      </c>
+      <c r="AB153">
+        <v>1.5</v>
+      </c>
+      <c r="AC153">
+        <v>1.03</v>
+      </c>
+      <c r="AD153">
+        <v>10</v>
+      </c>
+      <c r="AE153">
+        <v>1.18</v>
+      </c>
+      <c r="AF153">
+        <v>4.5</v>
+      </c>
+      <c r="AG153">
+        <v>1.61</v>
+      </c>
+      <c r="AH153">
+        <v>2.05</v>
+      </c>
+      <c r="AI153">
+        <v>1.83</v>
+      </c>
+      <c r="AJ153">
+        <v>1.83</v>
+      </c>
+      <c r="AK153">
+        <v>2.5</v>
+      </c>
+      <c r="AL153">
+        <v>1.17</v>
+      </c>
+      <c r="AM153">
+        <v>1.1</v>
+      </c>
+      <c r="AN153">
+        <v>1.4</v>
+      </c>
+      <c r="AO153">
+        <v>1.46</v>
+      </c>
+      <c r="AP153">
+        <v>1.31</v>
+      </c>
+      <c r="AQ153">
+        <v>1.57</v>
+      </c>
+      <c r="AR153">
+        <v>1.36</v>
+      </c>
+      <c r="AS153">
+        <v>1.7</v>
+      </c>
+      <c r="AT153">
+        <v>3.06</v>
+      </c>
+      <c r="AU153">
+        <v>3</v>
+      </c>
+      <c r="AV153">
+        <v>7</v>
+      </c>
+      <c r="AW153">
+        <v>3</v>
+      </c>
+      <c r="AX153">
+        <v>12</v>
+      </c>
+      <c r="AY153">
+        <v>6</v>
+      </c>
+      <c r="AZ153">
+        <v>19</v>
+      </c>
+      <c r="BA153">
+        <v>1</v>
+      </c>
+      <c r="BB153">
+        <v>8</v>
+      </c>
+      <c r="BC153">
+        <v>9</v>
+      </c>
+      <c r="BD153">
+        <v>4.1</v>
+      </c>
+      <c r="BE153">
+        <v>9.5</v>
+      </c>
+      <c r="BF153">
+        <v>1.3</v>
+      </c>
+      <c r="BG153">
+        <v>1.2</v>
+      </c>
+      <c r="BH153">
+        <v>3.72</v>
+      </c>
+      <c r="BI153">
+        <v>1.39</v>
+      </c>
+      <c r="BJ153">
+        <v>2.59</v>
+      </c>
+      <c r="BK153">
+        <v>1.71</v>
+      </c>
+      <c r="BL153">
+        <v>1.97</v>
+      </c>
+      <c r="BM153">
+        <v>2.14</v>
+      </c>
+      <c r="BN153">
+        <v>1.57</v>
+      </c>
+      <c r="BO153">
+        <v>2.83</v>
+      </c>
+      <c r="BP153">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7483826</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45768.52083333334</v>
+      </c>
+      <c r="F154">
+        <v>31</v>
+      </c>
+      <c r="G154" t="s">
+        <v>72</v>
+      </c>
+      <c r="H154" t="s">
+        <v>73</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>2</v>
+      </c>
+      <c r="N154">
+        <v>3</v>
+      </c>
+      <c r="O154" t="s">
+        <v>187</v>
+      </c>
+      <c r="P154" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q154">
+        <v>5</v>
+      </c>
+      <c r="R154">
+        <v>2.2</v>
+      </c>
+      <c r="S154">
+        <v>2.2</v>
+      </c>
+      <c r="T154">
+        <v>1.4</v>
+      </c>
+      <c r="U154">
+        <v>2.75</v>
+      </c>
+      <c r="V154">
+        <v>2.75</v>
+      </c>
+      <c r="W154">
+        <v>1.4</v>
+      </c>
+      <c r="X154">
+        <v>7</v>
+      </c>
+      <c r="Y154">
+        <v>1.08</v>
+      </c>
+      <c r="Z154">
+        <v>4.2</v>
+      </c>
+      <c r="AA154">
+        <v>3.76</v>
+      </c>
+      <c r="AB154">
+        <v>1.77</v>
+      </c>
+      <c r="AC154">
+        <v>1.05</v>
+      </c>
+      <c r="AD154">
+        <v>8.5</v>
+      </c>
+      <c r="AE154">
+        <v>1.28</v>
+      </c>
+      <c r="AF154">
+        <v>3.4</v>
+      </c>
+      <c r="AG154">
+        <v>1.91</v>
+      </c>
+      <c r="AH154">
+        <v>1.83</v>
+      </c>
+      <c r="AI154">
+        <v>1.91</v>
+      </c>
+      <c r="AJ154">
+        <v>1.8</v>
+      </c>
+      <c r="AK154">
+        <v>2</v>
+      </c>
+      <c r="AL154">
+        <v>1.22</v>
+      </c>
+      <c r="AM154">
+        <v>1.17</v>
+      </c>
+      <c r="AN154">
+        <v>1.47</v>
+      </c>
+      <c r="AO154">
+        <v>1.4</v>
+      </c>
+      <c r="AP154">
+        <v>1.38</v>
+      </c>
+      <c r="AQ154">
+        <v>1.5</v>
+      </c>
+      <c r="AR154">
+        <v>1.56</v>
+      </c>
+      <c r="AS154">
+        <v>1.7</v>
+      </c>
+      <c r="AT154">
+        <v>3.26</v>
+      </c>
+      <c r="AU154">
+        <v>4</v>
+      </c>
+      <c r="AV154">
+        <v>9</v>
+      </c>
+      <c r="AW154">
+        <v>6</v>
+      </c>
+      <c r="AX154">
+        <v>7</v>
+      </c>
+      <c r="AY154">
+        <v>10</v>
+      </c>
+      <c r="AZ154">
+        <v>16</v>
+      </c>
+      <c r="BA154">
+        <v>2</v>
+      </c>
+      <c r="BB154">
+        <v>7</v>
+      </c>
+      <c r="BC154">
+        <v>9</v>
+      </c>
+      <c r="BD154">
+        <v>2.66</v>
+      </c>
+      <c r="BE154">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF154">
+        <v>1.61</v>
+      </c>
+      <c r="BG154">
+        <v>1.22</v>
+      </c>
+      <c r="BH154">
+        <v>3.5</v>
+      </c>
+      <c r="BI154">
+        <v>1.42</v>
+      </c>
+      <c r="BJ154">
+        <v>2.49</v>
+      </c>
+      <c r="BK154">
+        <v>1.76</v>
+      </c>
+      <c r="BL154">
+        <v>1.91</v>
+      </c>
+      <c r="BM154">
+        <v>2.21</v>
+      </c>
+      <c r="BN154">
+        <v>1.53</v>
+      </c>
+      <c r="BO154">
+        <v>2.97</v>
+      </c>
+      <c r="BP154">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="260">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -580,6 +580,9 @@
     <t>['66']</t>
   </si>
   <si>
+    <t>['12']</t>
+  </si>
+  <si>
     <t>['83']</t>
   </si>
   <si>
@@ -692,9 +695,6 @@
   </si>
   <si>
     <t>['8', '53']</t>
-  </si>
-  <si>
-    <t>['12']</t>
   </si>
   <si>
     <t>['82']</t>
@@ -1155,7 +1155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP154"/>
+  <dimension ref="A1:BP155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1495,7 +1495,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ2">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2032,7 +2032,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -2650,7 +2650,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ8">
         <v>0.73</v>
@@ -3143,7 +3143,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ10">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -4298,7 +4298,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ16">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR16">
         <v>1.76</v>
@@ -4582,7 +4582,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ17">
         <v>2.07</v>
@@ -4710,7 +4710,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -5328,7 +5328,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5534,7 +5534,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5946,7 +5946,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -6152,7 +6152,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6564,7 +6564,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6642,7 +6642,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ27">
         <v>1.73</v>
@@ -6976,7 +6976,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -7057,7 +7057,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ29">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR29">
         <v>2.04</v>
@@ -7388,7 +7388,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7881,7 +7881,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ33">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR33">
         <v>1.63</v>
@@ -8499,7 +8499,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ36">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR36">
         <v>1.75</v>
@@ -8624,7 +8624,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -9036,7 +9036,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -9654,7 +9654,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q42">
         <v>1.95</v>
@@ -10066,7 +10066,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10272,7 +10272,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10350,7 +10350,7 @@
         <v>0.67</v>
       </c>
       <c r="AP45">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ45">
         <v>1.57</v>
@@ -10684,7 +10684,7 @@
         <v>81</v>
       </c>
       <c r="P47" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -10890,7 +10890,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11302,7 +11302,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q50">
         <v>6.1</v>
@@ -11380,7 +11380,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ50">
         <v>1.5</v>
@@ -12126,7 +12126,7 @@
         <v>111</v>
       </c>
       <c r="P54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12332,7 +12332,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q55">
         <v>2.1</v>
@@ -12538,7 +12538,7 @@
         <v>81</v>
       </c>
       <c r="P56" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12744,7 +12744,7 @@
         <v>115</v>
       </c>
       <c r="P57" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q57">
         <v>1.95</v>
@@ -12950,7 +12950,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -13156,7 +13156,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13237,7 +13237,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ59">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR59">
         <v>1.36</v>
@@ -13362,7 +13362,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q60">
         <v>3.6</v>
@@ -13568,7 +13568,7 @@
         <v>89</v>
       </c>
       <c r="P61" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13646,7 +13646,7 @@
         <v>0.6</v>
       </c>
       <c r="AP61">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ61">
         <v>0.73</v>
@@ -13774,7 +13774,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -13980,7 +13980,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q63">
         <v>4.3</v>
@@ -14186,7 +14186,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14392,7 +14392,7 @@
         <v>120</v>
       </c>
       <c r="P65" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14882,10 +14882,10 @@
         <v>1.29</v>
       </c>
       <c r="AP67">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ67">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR67">
         <v>1.12</v>
@@ -15422,7 +15422,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q70">
         <v>3.2</v>
@@ -15628,7 +15628,7 @@
         <v>114</v>
       </c>
       <c r="P71" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q71">
         <v>4.75</v>
@@ -16452,7 +16452,7 @@
         <v>125</v>
       </c>
       <c r="P75" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q75">
         <v>2.91</v>
@@ -16658,7 +16658,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -17070,7 +17070,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -17148,7 +17148,7 @@
         <v>0.14</v>
       </c>
       <c r="AP78">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ78">
         <v>0.31</v>
@@ -17276,7 +17276,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -17688,7 +17688,7 @@
         <v>130</v>
       </c>
       <c r="P81" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17766,7 +17766,7 @@
         <v>1.13</v>
       </c>
       <c r="AP81">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ81">
         <v>1.19</v>
@@ -17894,7 +17894,7 @@
         <v>131</v>
       </c>
       <c r="P82" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q82">
         <v>3.5</v>
@@ -18924,7 +18924,7 @@
         <v>134</v>
       </c>
       <c r="P87" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q87">
         <v>1.69</v>
@@ -19130,7 +19130,7 @@
         <v>135</v>
       </c>
       <c r="P88" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19417,7 +19417,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ89">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR89">
         <v>1.41</v>
@@ -20447,7 +20447,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ94">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR94">
         <v>1.81</v>
@@ -21065,7 +21065,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ97">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR97">
         <v>1.44</v>
@@ -21474,7 +21474,7 @@
         <v>0.89</v>
       </c>
       <c r="AP99">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ99">
         <v>0.73</v>
@@ -22919,7 +22919,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ106">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR106">
         <v>1.46</v>
@@ -24976,7 +24976,7 @@
         <v>2.4</v>
       </c>
       <c r="AP116">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ116">
         <v>2.07</v>
@@ -25104,7 +25104,7 @@
         <v>157</v>
       </c>
       <c r="P117" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="Q117">
         <v>2.12</v>
@@ -25594,7 +25594,7 @@
         <v>1.83</v>
       </c>
       <c r="AP119">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ119">
         <v>1.73</v>
@@ -26009,7 +26009,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ121">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR121">
         <v>2.13</v>
@@ -27039,7 +27039,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ126">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR126">
         <v>1.52</v>
@@ -28272,7 +28272,7 @@
         <v>1.18</v>
       </c>
       <c r="AP132">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ132">
         <v>1.57</v>
@@ -29714,7 +29714,7 @@
         <v>1.58</v>
       </c>
       <c r="AP139">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ139">
         <v>1.5</v>
@@ -30048,7 +30048,7 @@
         <v>170</v>
       </c>
       <c r="P141" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q141">
         <v>2</v>
@@ -30953,7 +30953,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ145">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR145">
         <v>1.54</v>
@@ -31568,7 +31568,7 @@
         <v>0.57</v>
       </c>
       <c r="AP148">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AQ148">
         <v>0.73</v>
@@ -31696,7 +31696,7 @@
         <v>182</v>
       </c>
       <c r="P149" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -32883,6 +32883,212 @@
       </c>
       <c r="BP154">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7483830</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45773.41666666666</v>
+      </c>
+      <c r="F155">
+        <v>32</v>
+      </c>
+      <c r="G155" t="s">
+        <v>76</v>
+      </c>
+      <c r="H155" t="s">
+        <v>79</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <v>2</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>2</v>
+      </c>
+      <c r="O155" t="s">
+        <v>188</v>
+      </c>
+      <c r="P155" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q155">
+        <v>0</v>
+      </c>
+      <c r="R155">
+        <v>0</v>
+      </c>
+      <c r="S155">
+        <v>0</v>
+      </c>
+      <c r="T155">
+        <v>0</v>
+      </c>
+      <c r="U155">
+        <v>0</v>
+      </c>
+      <c r="V155">
+        <v>0</v>
+      </c>
+      <c r="W155">
+        <v>0</v>
+      </c>
+      <c r="X155">
+        <v>0</v>
+      </c>
+      <c r="Y155">
+        <v>0</v>
+      </c>
+      <c r="Z155">
+        <v>2.2</v>
+      </c>
+      <c r="AA155">
+        <v>3.27</v>
+      </c>
+      <c r="AB155">
+        <v>3.23</v>
+      </c>
+      <c r="AC155">
+        <v>0</v>
+      </c>
+      <c r="AD155">
+        <v>0</v>
+      </c>
+      <c r="AE155">
+        <v>0</v>
+      </c>
+      <c r="AF155">
+        <v>0</v>
+      </c>
+      <c r="AG155">
+        <v>1.92</v>
+      </c>
+      <c r="AH155">
+        <v>1.82</v>
+      </c>
+      <c r="AI155">
+        <v>0</v>
+      </c>
+      <c r="AJ155">
+        <v>0</v>
+      </c>
+      <c r="AK155">
+        <v>0</v>
+      </c>
+      <c r="AL155">
+        <v>0</v>
+      </c>
+      <c r="AM155">
+        <v>0</v>
+      </c>
+      <c r="AN155">
+        <v>0.73</v>
+      </c>
+      <c r="AO155">
+        <v>0.93</v>
+      </c>
+      <c r="AP155">
+        <v>0.75</v>
+      </c>
+      <c r="AQ155">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR155">
+        <v>1.44</v>
+      </c>
+      <c r="AS155">
+        <v>1.28</v>
+      </c>
+      <c r="AT155">
+        <v>2.72</v>
+      </c>
+      <c r="AU155">
+        <v>-1</v>
+      </c>
+      <c r="AV155">
+        <v>-1</v>
+      </c>
+      <c r="AW155">
+        <v>-1</v>
+      </c>
+      <c r="AX155">
+        <v>-1</v>
+      </c>
+      <c r="AY155">
+        <v>-1</v>
+      </c>
+      <c r="AZ155">
+        <v>-1</v>
+      </c>
+      <c r="BA155">
+        <v>-1</v>
+      </c>
+      <c r="BB155">
+        <v>-1</v>
+      </c>
+      <c r="BC155">
+        <v>-1</v>
+      </c>
+      <c r="BD155">
+        <v>0</v>
+      </c>
+      <c r="BE155">
+        <v>0</v>
+      </c>
+      <c r="BF155">
+        <v>0</v>
+      </c>
+      <c r="BG155">
+        <v>0</v>
+      </c>
+      <c r="BH155">
+        <v>0</v>
+      </c>
+      <c r="BI155">
+        <v>0</v>
+      </c>
+      <c r="BJ155">
+        <v>0</v>
+      </c>
+      <c r="BK155">
+        <v>0</v>
+      </c>
+      <c r="BL155">
+        <v>0</v>
+      </c>
+      <c r="BM155">
+        <v>0</v>
+      </c>
+      <c r="BN155">
+        <v>0</v>
+      </c>
+      <c r="BO155">
+        <v>0</v>
+      </c>
+      <c r="BP155">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="261">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -581,6 +581,9 @@
   </si>
   <si>
     <t>['12']</t>
+  </si>
+  <si>
+    <t>['52', '55', '74', '86']</t>
   </si>
   <si>
     <t>['83']</t>
@@ -1155,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP155"/>
+  <dimension ref="A1:BP156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2032,7 +2035,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -2110,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ5">
         <v>0.75</v>
@@ -2525,7 +2528,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ7">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2650,7 +2653,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -3474,7 +3477,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3964,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ14">
         <v>1.19</v>
@@ -4298,7 +4301,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4710,7 +4713,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4791,7 +4794,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ18">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR18">
         <v>2.23</v>
@@ -4994,7 +4997,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ19">
         <v>0.73</v>
@@ -5328,7 +5331,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5534,7 +5537,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5946,7 +5949,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -6152,7 +6155,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6439,7 +6442,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ26">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR26">
         <v>1.62</v>
@@ -6564,7 +6567,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6848,7 +6851,7 @@
         <v>2</v>
       </c>
       <c r="AP28">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ28">
         <v>2.07</v>
@@ -6976,7 +6979,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -7388,7 +7391,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7878,7 +7881,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ33">
         <v>0.9399999999999999</v>
@@ -8624,7 +8627,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -9036,7 +9039,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -9320,7 +9323,7 @@
         <v>2.25</v>
       </c>
       <c r="AP40">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ40">
         <v>1.73</v>
@@ -9654,7 +9657,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q42">
         <v>1.95</v>
@@ -10066,7 +10069,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10272,7 +10275,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10684,7 +10687,7 @@
         <v>81</v>
       </c>
       <c r="P47" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -10890,7 +10893,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11177,7 +11180,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ49">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR49">
         <v>1.31</v>
@@ -11302,7 +11305,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q50">
         <v>6.1</v>
@@ -12126,7 +12129,7 @@
         <v>111</v>
       </c>
       <c r="P54" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12204,7 +12207,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ54">
         <v>1.57</v>
@@ -12332,7 +12335,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q55">
         <v>2.1</v>
@@ -12538,7 +12541,7 @@
         <v>81</v>
       </c>
       <c r="P56" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12619,7 +12622,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ56">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR56">
         <v>1.1</v>
@@ -12744,7 +12747,7 @@
         <v>115</v>
       </c>
       <c r="P57" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q57">
         <v>1.95</v>
@@ -12950,7 +12953,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -13156,7 +13159,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13362,7 +13365,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q60">
         <v>3.6</v>
@@ -13568,7 +13571,7 @@
         <v>89</v>
       </c>
       <c r="P61" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13649,7 +13652,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ61">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR61">
         <v>1.2</v>
@@ -13774,7 +13777,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -13980,7 +13983,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q63">
         <v>4.3</v>
@@ -14186,7 +14189,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14392,7 +14395,7 @@
         <v>120</v>
       </c>
       <c r="P65" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -15088,10 +15091,10 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ68">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR68">
         <v>1.5</v>
@@ -15422,7 +15425,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q70">
         <v>3.2</v>
@@ -15628,7 +15631,7 @@
         <v>114</v>
       </c>
       <c r="P71" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q71">
         <v>4.75</v>
@@ -16452,7 +16455,7 @@
         <v>125</v>
       </c>
       <c r="P75" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q75">
         <v>2.91</v>
@@ -16658,7 +16661,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -17070,7 +17073,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -17276,7 +17279,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -17688,7 +17691,7 @@
         <v>130</v>
       </c>
       <c r="P81" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17894,7 +17897,7 @@
         <v>131</v>
       </c>
       <c r="P82" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q82">
         <v>3.5</v>
@@ -18593,7 +18596,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ85">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR85">
         <v>1.72</v>
@@ -18799,7 +18802,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ86">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR86">
         <v>1.46</v>
@@ -18924,7 +18927,7 @@
         <v>134</v>
       </c>
       <c r="P87" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q87">
         <v>1.69</v>
@@ -19336,7 +19339,7 @@
         <v>101</v>
       </c>
       <c r="P89" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -19620,7 +19623,7 @@
         <v>0.13</v>
       </c>
       <c r="AP90">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ90">
         <v>0.31</v>
@@ -19748,7 +19751,7 @@
         <v>137</v>
       </c>
       <c r="P91" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19954,7 +19957,7 @@
         <v>138</v>
       </c>
       <c r="P92" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q92">
         <v>2.4</v>
@@ -20238,7 +20241,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP93">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ93">
         <v>0.75</v>
@@ -20778,7 +20781,7 @@
         <v>141</v>
       </c>
       <c r="P96" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21190,7 +21193,7 @@
         <v>143</v>
       </c>
       <c r="P98" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q98">
         <v>3.25</v>
@@ -21271,7 +21274,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ98">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR98">
         <v>1.44</v>
@@ -21396,7 +21399,7 @@
         <v>81</v>
       </c>
       <c r="P99" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q99">
         <v>3.55</v>
@@ -21602,7 +21605,7 @@
         <v>144</v>
       </c>
       <c r="P100" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q100">
         <v>2.65</v>
@@ -21808,7 +21811,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -22014,7 +22017,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q102">
         <v>2.34</v>
@@ -22092,7 +22095,7 @@
         <v>1.5</v>
       </c>
       <c r="AP102">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ102">
         <v>1.19</v>
@@ -22838,7 +22841,7 @@
         <v>149</v>
       </c>
       <c r="P106" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -23044,7 +23047,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q107">
         <v>2.82</v>
@@ -23328,7 +23331,7 @@
         <v>1.1</v>
       </c>
       <c r="AP108">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ108">
         <v>0.73</v>
@@ -23456,7 +23459,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23537,7 +23540,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ109">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR109">
         <v>2.1</v>
@@ -23868,7 +23871,7 @@
         <v>81</v>
       </c>
       <c r="P111" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q111">
         <v>5.2</v>
@@ -24486,7 +24489,7 @@
         <v>154</v>
       </c>
       <c r="P114" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q114">
         <v>3.8</v>
@@ -24692,7 +24695,7 @@
         <v>155</v>
       </c>
       <c r="P115" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -24898,7 +24901,7 @@
         <v>156</v>
       </c>
       <c r="P116" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q116">
         <v>5.5</v>
@@ -25391,7 +25394,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ118">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR118">
         <v>1.52</v>
@@ -25516,7 +25519,7 @@
         <v>159</v>
       </c>
       <c r="P119" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q119">
         <v>3.75</v>
@@ -25800,7 +25803,7 @@
         <v>2.18</v>
       </c>
       <c r="AP120">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ120">
         <v>2.07</v>
@@ -25928,7 +25931,7 @@
         <v>160</v>
       </c>
       <c r="P121" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q121">
         <v>0</v>
@@ -26752,7 +26755,7 @@
         <v>164</v>
       </c>
       <c r="P125" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q125">
         <v>2.85</v>
@@ -27164,7 +27167,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q127">
         <v>6.5</v>
@@ -27370,7 +27373,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27576,7 +27579,7 @@
         <v>167</v>
       </c>
       <c r="P129" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -27654,7 +27657,7 @@
         <v>1.92</v>
       </c>
       <c r="AP129">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ129">
         <v>1.73</v>
@@ -27782,7 +27785,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q130">
         <v>1.8</v>
@@ -28481,7 +28484,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ133">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR133">
         <v>1.12</v>
@@ -28812,7 +28815,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -29018,7 +29021,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29099,7 +29102,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ136">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR136">
         <v>1.53</v>
@@ -29224,7 +29227,7 @@
         <v>81</v>
       </c>
       <c r="P137" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q137">
         <v>0</v>
@@ -29430,7 +29433,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q138">
         <v>3.4</v>
@@ -30048,7 +30051,7 @@
         <v>170</v>
       </c>
       <c r="P141" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q141">
         <v>2</v>
@@ -30460,7 +30463,7 @@
         <v>81</v>
       </c>
       <c r="P143" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q143">
         <v>2.45</v>
@@ -30666,7 +30669,7 @@
         <v>178</v>
       </c>
       <c r="P144" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q144">
         <v>9.5</v>
@@ -31284,7 +31287,7 @@
         <v>181</v>
       </c>
       <c r="P147" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q147">
         <v>3.6</v>
@@ -31490,7 +31493,7 @@
         <v>94</v>
       </c>
       <c r="P148" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31571,7 +31574,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ148">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR148">
         <v>1.44</v>
@@ -31696,7 +31699,7 @@
         <v>182</v>
       </c>
       <c r="P149" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -31902,7 +31905,7 @@
         <v>183</v>
       </c>
       <c r="P150" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q150">
         <v>0</v>
@@ -32520,7 +32523,7 @@
         <v>186</v>
       </c>
       <c r="P153" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q153">
         <v>5.5</v>
@@ -32726,7 +32729,7 @@
         <v>187</v>
       </c>
       <c r="P154" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q154">
         <v>5</v>
@@ -32932,7 +32935,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q155">
         <v>0</v>
@@ -33088,6 +33091,212 @@
         <v>0</v>
       </c>
       <c r="BP155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7483828</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45773.52083333334</v>
+      </c>
+      <c r="F156">
+        <v>32</v>
+      </c>
+      <c r="G156" t="s">
+        <v>73</v>
+      </c>
+      <c r="H156" t="s">
+        <v>71</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>4</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>4</v>
+      </c>
+      <c r="O156" t="s">
+        <v>189</v>
+      </c>
+      <c r="P156" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q156">
+        <v>1.83</v>
+      </c>
+      <c r="R156">
+        <v>2.4</v>
+      </c>
+      <c r="S156">
+        <v>6</v>
+      </c>
+      <c r="T156">
+        <v>1.3</v>
+      </c>
+      <c r="U156">
+        <v>3.4</v>
+      </c>
+      <c r="V156">
+        <v>2.38</v>
+      </c>
+      <c r="W156">
+        <v>1.53</v>
+      </c>
+      <c r="X156">
+        <v>5</v>
+      </c>
+      <c r="Y156">
+        <v>1.14</v>
+      </c>
+      <c r="Z156">
+        <v>1.37</v>
+      </c>
+      <c r="AA156">
+        <v>4.9</v>
+      </c>
+      <c r="AB156">
+        <v>7.2</v>
+      </c>
+      <c r="AC156">
+        <v>0</v>
+      </c>
+      <c r="AD156">
+        <v>0</v>
+      </c>
+      <c r="AE156">
+        <v>0</v>
+      </c>
+      <c r="AF156">
+        <v>0</v>
+      </c>
+      <c r="AG156">
+        <v>1.57</v>
+      </c>
+      <c r="AH156">
+        <v>2.15</v>
+      </c>
+      <c r="AI156">
+        <v>1.83</v>
+      </c>
+      <c r="AJ156">
+        <v>1.83</v>
+      </c>
+      <c r="AK156">
+        <v>0</v>
+      </c>
+      <c r="AL156">
+        <v>0</v>
+      </c>
+      <c r="AM156">
+        <v>0</v>
+      </c>
+      <c r="AN156">
+        <v>2.29</v>
+      </c>
+      <c r="AO156">
+        <v>0.73</v>
+      </c>
+      <c r="AP156">
+        <v>2.33</v>
+      </c>
+      <c r="AQ156">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR156">
+        <v>1.89</v>
+      </c>
+      <c r="AS156">
+        <v>1.42</v>
+      </c>
+      <c r="AT156">
+        <v>3.31</v>
+      </c>
+      <c r="AU156">
+        <v>-1</v>
+      </c>
+      <c r="AV156">
+        <v>-1</v>
+      </c>
+      <c r="AW156">
+        <v>-1</v>
+      </c>
+      <c r="AX156">
+        <v>-1</v>
+      </c>
+      <c r="AY156">
+        <v>-1</v>
+      </c>
+      <c r="AZ156">
+        <v>-1</v>
+      </c>
+      <c r="BA156">
+        <v>-1</v>
+      </c>
+      <c r="BB156">
+        <v>-1</v>
+      </c>
+      <c r="BC156">
+        <v>-1</v>
+      </c>
+      <c r="BD156">
+        <v>0</v>
+      </c>
+      <c r="BE156">
+        <v>0</v>
+      </c>
+      <c r="BF156">
+        <v>0</v>
+      </c>
+      <c r="BG156">
+        <v>0</v>
+      </c>
+      <c r="BH156">
+        <v>0</v>
+      </c>
+      <c r="BI156">
+        <v>0</v>
+      </c>
+      <c r="BJ156">
+        <v>0</v>
+      </c>
+      <c r="BK156">
+        <v>0</v>
+      </c>
+      <c r="BL156">
+        <v>0</v>
+      </c>
+      <c r="BM156">
+        <v>0</v>
+      </c>
+      <c r="BN156">
+        <v>0</v>
+      </c>
+      <c r="BO156">
+        <v>0</v>
+      </c>
+      <c r="BP156">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
@@ -33234,31 +33234,31 @@
         <v>3.31</v>
       </c>
       <c r="AU156">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AV156">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW156">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AX156">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY156">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="AZ156">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA156">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BB156">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC156">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BD156">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="265">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -586,6 +586,12 @@
     <t>['52', '55', '74', '86']</t>
   </si>
   <si>
+    <t>['89']</t>
+  </si>
+  <si>
+    <t>['43', '70', '82']</t>
+  </si>
+  <si>
     <t>['83']</t>
   </si>
   <si>
@@ -797,6 +803,12 @@
   </si>
   <si>
     <t>['82', '84']</t>
+  </si>
+  <si>
+    <t>['37', '58', '72', '78', '87']</t>
+  </si>
+  <si>
+    <t>['6', '58', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP156"/>
+  <dimension ref="A1:BP158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1704,7 +1716,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ3">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2035,7 +2047,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -2319,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ6">
         <v>1.19</v>
@@ -2525,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ7">
         <v>0.6899999999999999</v>
@@ -2653,7 +2665,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2940,7 +2952,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ9">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3477,7 +3489,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3558,7 +3570,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ12">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4301,7 +4313,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4379,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ16">
         <v>0.9399999999999999</v>
@@ -4588,7 +4600,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ17">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AR17">
         <v>1.21</v>
@@ -4713,7 +4725,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4791,7 +4803,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ18">
         <v>0.6899999999999999</v>
@@ -5206,7 +5218,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ20">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR20">
         <v>0.95</v>
@@ -5331,7 +5343,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5537,7 +5549,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5949,7 +5961,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -6155,7 +6167,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6567,7 +6579,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6648,7 +6660,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ27">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR27">
         <v>0.98</v>
@@ -6854,7 +6866,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ28">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AR28">
         <v>1.74</v>
@@ -6979,7 +6991,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -7057,7 +7069,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ29">
         <v>0.9399999999999999</v>
@@ -7391,7 +7403,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7469,7 +7481,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ31">
         <v>0.75</v>
@@ -8627,7 +8639,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -8708,7 +8720,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ37">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AR37">
         <v>1.39</v>
@@ -9039,7 +9051,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -9117,7 +9129,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ39">
         <v>0.31</v>
@@ -9326,7 +9338,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ40">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR40">
         <v>1.6</v>
@@ -9529,7 +9541,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ41">
         <v>1.5</v>
@@ -9657,7 +9669,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q42">
         <v>1.95</v>
@@ -10069,7 +10081,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10147,7 +10159,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ44">
         <v>1.5</v>
@@ -10275,7 +10287,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10559,7 +10571,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ46">
         <v>0.73</v>
@@ -10687,7 +10699,7 @@
         <v>81</v>
       </c>
       <c r="P47" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -10768,7 +10780,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ47">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AR47">
         <v>1.05</v>
@@ -10893,7 +10905,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11305,7 +11317,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q50">
         <v>6.1</v>
@@ -12129,7 +12141,7 @@
         <v>111</v>
       </c>
       <c r="P54" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12335,7 +12347,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q55">
         <v>2.1</v>
@@ -12416,7 +12428,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ55">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR55">
         <v>1.92</v>
@@ -12541,7 +12553,7 @@
         <v>81</v>
       </c>
       <c r="P56" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12747,7 +12759,7 @@
         <v>115</v>
       </c>
       <c r="P57" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q57">
         <v>1.95</v>
@@ -12825,7 +12837,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ57">
         <v>0.73</v>
@@ -12953,7 +12965,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -13031,10 +13043,10 @@
         <v>2.2</v>
       </c>
       <c r="AP58">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ58">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AR58">
         <v>1.46</v>
@@ -13159,7 +13171,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13365,7 +13377,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q60">
         <v>3.6</v>
@@ -13571,7 +13583,7 @@
         <v>89</v>
       </c>
       <c r="P61" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13777,7 +13789,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -13983,7 +13995,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q63">
         <v>4.3</v>
@@ -14189,7 +14201,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14395,7 +14407,7 @@
         <v>120</v>
       </c>
       <c r="P65" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -15425,7 +15437,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q70">
         <v>3.2</v>
@@ -15503,10 +15515,10 @@
         <v>2.33</v>
       </c>
       <c r="AP70">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ70">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AR70">
         <v>1.99</v>
@@ -15631,7 +15643,7 @@
         <v>114</v>
       </c>
       <c r="P71" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q71">
         <v>4.75</v>
@@ -15709,10 +15721,10 @@
         <v>2</v>
       </c>
       <c r="AP71">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ71">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR71">
         <v>1.47</v>
@@ -16121,7 +16133,7 @@
         <v>0.86</v>
       </c>
       <c r="AP73">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ73">
         <v>1.19</v>
@@ -16455,7 +16467,7 @@
         <v>125</v>
       </c>
       <c r="P75" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q75">
         <v>2.91</v>
@@ -16661,7 +16673,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -16945,10 +16957,10 @@
         <v>2.14</v>
       </c>
       <c r="AP77">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ77">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR77">
         <v>2</v>
@@ -17073,7 +17085,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -17279,7 +17291,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -17360,7 +17372,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ79">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AR79">
         <v>1.42</v>
@@ -17691,7 +17703,7 @@
         <v>130</v>
       </c>
       <c r="P81" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17897,7 +17909,7 @@
         <v>131</v>
       </c>
       <c r="P82" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q82">
         <v>3.5</v>
@@ -18387,7 +18399,7 @@
         <v>1.38</v>
       </c>
       <c r="AP84">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ84">
         <v>1.57</v>
@@ -18927,7 +18939,7 @@
         <v>134</v>
       </c>
       <c r="P87" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q87">
         <v>1.69</v>
@@ -19005,7 +19017,7 @@
         <v>0.5</v>
       </c>
       <c r="AP87">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ87">
         <v>0.75</v>
@@ -19214,7 +19226,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ88">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AR88">
         <v>1.51</v>
@@ -19339,7 +19351,7 @@
         <v>101</v>
       </c>
       <c r="P89" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -19751,7 +19763,7 @@
         <v>137</v>
       </c>
       <c r="P91" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19832,7 +19844,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ91">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR91">
         <v>1.34</v>
@@ -19957,7 +19969,7 @@
         <v>138</v>
       </c>
       <c r="P92" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q92">
         <v>2.4</v>
@@ -20035,7 +20047,7 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ92">
         <v>1.19</v>
@@ -20781,7 +20793,7 @@
         <v>141</v>
       </c>
       <c r="P96" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -20862,7 +20874,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ96">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR96">
         <v>1.35</v>
@@ -21193,7 +21205,7 @@
         <v>143</v>
       </c>
       <c r="P98" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q98">
         <v>3.25</v>
@@ -21271,7 +21283,7 @@
         <v>0.78</v>
       </c>
       <c r="AP98">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ98">
         <v>0.6899999999999999</v>
@@ -21399,7 +21411,7 @@
         <v>81</v>
       </c>
       <c r="P99" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q99">
         <v>3.55</v>
@@ -21605,7 +21617,7 @@
         <v>144</v>
       </c>
       <c r="P100" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q100">
         <v>2.65</v>
@@ -21683,7 +21695,7 @@
         <v>1.44</v>
       </c>
       <c r="AP100">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ100">
         <v>1.5</v>
@@ -21811,7 +21823,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -21892,7 +21904,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ101">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AR101">
         <v>1.43</v>
@@ -22017,7 +22029,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q102">
         <v>2.34</v>
@@ -22841,7 +22853,7 @@
         <v>149</v>
       </c>
       <c r="P106" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -22919,7 +22931,7 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ106">
         <v>0.9399999999999999</v>
@@ -23047,7 +23059,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q107">
         <v>2.82</v>
@@ -23128,7 +23140,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ107">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR107">
         <v>1.54</v>
@@ -23459,7 +23471,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23537,7 +23549,7 @@
         <v>0.7</v>
       </c>
       <c r="AP109">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ109">
         <v>0.6899999999999999</v>
@@ -23871,7 +23883,7 @@
         <v>81</v>
       </c>
       <c r="P111" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q111">
         <v>5.2</v>
@@ -24489,7 +24501,7 @@
         <v>154</v>
       </c>
       <c r="P114" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q114">
         <v>3.8</v>
@@ -24695,7 +24707,7 @@
         <v>155</v>
       </c>
       <c r="P115" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -24776,7 +24788,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ115">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR115">
         <v>1.09</v>
@@ -24901,7 +24913,7 @@
         <v>156</v>
       </c>
       <c r="P116" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q116">
         <v>5.5</v>
@@ -24982,7 +24994,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ116">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AR116">
         <v>1.46</v>
@@ -25519,7 +25531,7 @@
         <v>159</v>
       </c>
       <c r="P119" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q119">
         <v>3.75</v>
@@ -25600,7 +25612,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ119">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR119">
         <v>1.44</v>
@@ -25806,7 +25818,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ120">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AR120">
         <v>1.91</v>
@@ -25931,7 +25943,7 @@
         <v>160</v>
       </c>
       <c r="P121" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q121">
         <v>0</v>
@@ -26009,7 +26021,7 @@
         <v>1</v>
       </c>
       <c r="AP121">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ121">
         <v>0.9399999999999999</v>
@@ -26755,7 +26767,7 @@
         <v>164</v>
       </c>
       <c r="P125" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q125">
         <v>2.85</v>
@@ -26833,7 +26845,7 @@
         <v>0.67</v>
       </c>
       <c r="AP125">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ125">
         <v>0.75</v>
@@ -27167,7 +27179,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q127">
         <v>6.5</v>
@@ -27248,7 +27260,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ127">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AR127">
         <v>1.33</v>
@@ -27373,7 +27385,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27579,7 +27591,7 @@
         <v>167</v>
       </c>
       <c r="P129" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -27660,7 +27672,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ129">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR129">
         <v>1.87</v>
@@ -27785,7 +27797,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q130">
         <v>1.8</v>
@@ -27863,7 +27875,7 @@
         <v>0.31</v>
       </c>
       <c r="AP130">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ130">
         <v>0.31</v>
@@ -28815,7 +28827,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -28893,7 +28905,7 @@
         <v>0.85</v>
       </c>
       <c r="AP135">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ135">
         <v>0.73</v>
@@ -29021,7 +29033,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29227,7 +29239,7 @@
         <v>81</v>
       </c>
       <c r="P137" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q137">
         <v>0</v>
@@ -29308,7 +29320,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ137">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AR137">
         <v>1.25</v>
@@ -29433,7 +29445,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q138">
         <v>3.4</v>
@@ -30051,7 +30063,7 @@
         <v>170</v>
       </c>
       <c r="P141" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q141">
         <v>2</v>
@@ -30132,7 +30144,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ141">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR141">
         <v>1.82</v>
@@ -30463,7 +30475,7 @@
         <v>81</v>
       </c>
       <c r="P143" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q143">
         <v>2.45</v>
@@ -30669,7 +30681,7 @@
         <v>178</v>
       </c>
       <c r="P144" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q144">
         <v>9.5</v>
@@ -30747,10 +30759,10 @@
         <v>2.14</v>
       </c>
       <c r="AP144">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ144">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AR144">
         <v>1.54</v>
@@ -31159,7 +31171,7 @@
         <v>0.79</v>
       </c>
       <c r="AP146">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AQ146">
         <v>0.73</v>
@@ -31287,7 +31299,7 @@
         <v>181</v>
       </c>
       <c r="P147" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q147">
         <v>3.6</v>
@@ -31493,7 +31505,7 @@
         <v>94</v>
       </c>
       <c r="P148" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31699,7 +31711,7 @@
         <v>182</v>
       </c>
       <c r="P149" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -31777,7 +31789,7 @@
         <v>1.43</v>
       </c>
       <c r="AP149">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ149">
         <v>1.5</v>
@@ -31905,7 +31917,7 @@
         <v>183</v>
       </c>
       <c r="P150" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q150">
         <v>0</v>
@@ -32523,7 +32535,7 @@
         <v>186</v>
       </c>
       <c r="P153" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q153">
         <v>5.5</v>
@@ -32729,7 +32741,7 @@
         <v>187</v>
       </c>
       <c r="P154" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q154">
         <v>5</v>
@@ -32935,7 +32947,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q155">
         <v>0</v>
@@ -33297,6 +33309,418 @@
         <v>0</v>
       </c>
       <c r="BP156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7483831</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45774.41666666666</v>
+      </c>
+      <c r="F157">
+        <v>32</v>
+      </c>
+      <c r="G157" t="s">
+        <v>75</v>
+      </c>
+      <c r="H157" t="s">
+        <v>77</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>5</v>
+      </c>
+      <c r="N157">
+        <v>6</v>
+      </c>
+      <c r="O157" t="s">
+        <v>190</v>
+      </c>
+      <c r="P157" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q157">
+        <v>4</v>
+      </c>
+      <c r="R157">
+        <v>2.1</v>
+      </c>
+      <c r="S157">
+        <v>2.5</v>
+      </c>
+      <c r="T157">
+        <v>1.4</v>
+      </c>
+      <c r="U157">
+        <v>2.75</v>
+      </c>
+      <c r="V157">
+        <v>3</v>
+      </c>
+      <c r="W157">
+        <v>1.36</v>
+      </c>
+      <c r="X157">
+        <v>7</v>
+      </c>
+      <c r="Y157">
+        <v>1.08</v>
+      </c>
+      <c r="Z157">
+        <v>3.96</v>
+      </c>
+      <c r="AA157">
+        <v>3.55</v>
+      </c>
+      <c r="AB157">
+        <v>1.87</v>
+      </c>
+      <c r="AC157">
+        <v>0</v>
+      </c>
+      <c r="AD157">
+        <v>0</v>
+      </c>
+      <c r="AE157">
+        <v>0</v>
+      </c>
+      <c r="AF157">
+        <v>0</v>
+      </c>
+      <c r="AG157">
+        <v>1.89</v>
+      </c>
+      <c r="AH157">
+        <v>1.85</v>
+      </c>
+      <c r="AI157">
+        <v>1.8</v>
+      </c>
+      <c r="AJ157">
+        <v>1.91</v>
+      </c>
+      <c r="AK157">
+        <v>0</v>
+      </c>
+      <c r="AL157">
+        <v>0</v>
+      </c>
+      <c r="AM157">
+        <v>0</v>
+      </c>
+      <c r="AN157">
+        <v>1.33</v>
+      </c>
+      <c r="AO157">
+        <v>1.73</v>
+      </c>
+      <c r="AP157">
+        <v>1.25</v>
+      </c>
+      <c r="AQ157">
+        <v>1.81</v>
+      </c>
+      <c r="AR157">
+        <v>1.57</v>
+      </c>
+      <c r="AS157">
+        <v>1.51</v>
+      </c>
+      <c r="AT157">
+        <v>3.08</v>
+      </c>
+      <c r="AU157">
+        <v>2</v>
+      </c>
+      <c r="AV157">
+        <v>10</v>
+      </c>
+      <c r="AW157">
+        <v>3</v>
+      </c>
+      <c r="AX157">
+        <v>4</v>
+      </c>
+      <c r="AY157">
+        <v>5</v>
+      </c>
+      <c r="AZ157">
+        <v>14</v>
+      </c>
+      <c r="BA157">
+        <v>2</v>
+      </c>
+      <c r="BB157">
+        <v>4</v>
+      </c>
+      <c r="BC157">
+        <v>6</v>
+      </c>
+      <c r="BD157">
+        <v>0</v>
+      </c>
+      <c r="BE157">
+        <v>0</v>
+      </c>
+      <c r="BF157">
+        <v>0</v>
+      </c>
+      <c r="BG157">
+        <v>0</v>
+      </c>
+      <c r="BH157">
+        <v>0</v>
+      </c>
+      <c r="BI157">
+        <v>0</v>
+      </c>
+      <c r="BJ157">
+        <v>0</v>
+      </c>
+      <c r="BK157">
+        <v>0</v>
+      </c>
+      <c r="BL157">
+        <v>0</v>
+      </c>
+      <c r="BM157">
+        <v>0</v>
+      </c>
+      <c r="BN157">
+        <v>0</v>
+      </c>
+      <c r="BO157">
+        <v>0</v>
+      </c>
+      <c r="BP157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7483829</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45774.52083333334</v>
+      </c>
+      <c r="F158">
+        <v>32</v>
+      </c>
+      <c r="G158" t="s">
+        <v>74</v>
+      </c>
+      <c r="H158" t="s">
+        <v>70</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+      <c r="K158">
+        <v>2</v>
+      </c>
+      <c r="L158">
+        <v>3</v>
+      </c>
+      <c r="M158">
+        <v>3</v>
+      </c>
+      <c r="N158">
+        <v>6</v>
+      </c>
+      <c r="O158" t="s">
+        <v>191</v>
+      </c>
+      <c r="P158" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q158">
+        <v>3.25</v>
+      </c>
+      <c r="R158">
+        <v>2.1</v>
+      </c>
+      <c r="S158">
+        <v>3</v>
+      </c>
+      <c r="T158">
+        <v>1.4</v>
+      </c>
+      <c r="U158">
+        <v>2.75</v>
+      </c>
+      <c r="V158">
+        <v>3</v>
+      </c>
+      <c r="W158">
+        <v>1.36</v>
+      </c>
+      <c r="X158">
+        <v>7</v>
+      </c>
+      <c r="Y158">
+        <v>1.08</v>
+      </c>
+      <c r="Z158">
+        <v>2.78</v>
+      </c>
+      <c r="AA158">
+        <v>3.26</v>
+      </c>
+      <c r="AB158">
+        <v>2.48</v>
+      </c>
+      <c r="AC158">
+        <v>0</v>
+      </c>
+      <c r="AD158">
+        <v>0</v>
+      </c>
+      <c r="AE158">
+        <v>0</v>
+      </c>
+      <c r="AF158">
+        <v>0</v>
+      </c>
+      <c r="AG158">
+        <v>1.92</v>
+      </c>
+      <c r="AH158">
+        <v>1.82</v>
+      </c>
+      <c r="AI158">
+        <v>1.8</v>
+      </c>
+      <c r="AJ158">
+        <v>1.91</v>
+      </c>
+      <c r="AK158">
+        <v>0</v>
+      </c>
+      <c r="AL158">
+        <v>0</v>
+      </c>
+      <c r="AM158">
+        <v>0</v>
+      </c>
+      <c r="AN158">
+        <v>1.93</v>
+      </c>
+      <c r="AO158">
+        <v>2.07</v>
+      </c>
+      <c r="AP158">
+        <v>1.88</v>
+      </c>
+      <c r="AQ158">
+        <v>2</v>
+      </c>
+      <c r="AR158">
+        <v>2.13</v>
+      </c>
+      <c r="AS158">
+        <v>1.89</v>
+      </c>
+      <c r="AT158">
+        <v>4.02</v>
+      </c>
+      <c r="AU158">
+        <v>9</v>
+      </c>
+      <c r="AV158">
+        <v>5</v>
+      </c>
+      <c r="AW158">
+        <v>9</v>
+      </c>
+      <c r="AX158">
+        <v>3</v>
+      </c>
+      <c r="AY158">
+        <v>18</v>
+      </c>
+      <c r="AZ158">
+        <v>8</v>
+      </c>
+      <c r="BA158">
+        <v>6</v>
+      </c>
+      <c r="BB158">
+        <v>6</v>
+      </c>
+      <c r="BC158">
+        <v>12</v>
+      </c>
+      <c r="BD158">
+        <v>0</v>
+      </c>
+      <c r="BE158">
+        <v>0</v>
+      </c>
+      <c r="BF158">
+        <v>0</v>
+      </c>
+      <c r="BG158">
+        <v>0</v>
+      </c>
+      <c r="BH158">
+        <v>0</v>
+      </c>
+      <c r="BI158">
+        <v>0</v>
+      </c>
+      <c r="BJ158">
+        <v>0</v>
+      </c>
+      <c r="BK158">
+        <v>0</v>
+      </c>
+      <c r="BL158">
+        <v>0</v>
+      </c>
+      <c r="BM158">
+        <v>0</v>
+      </c>
+      <c r="BN158">
+        <v>0</v>
+      </c>
+      <c r="BO158">
+        <v>0</v>
+      </c>
+      <c r="BP158">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="267">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -592,6 +592,9 @@
     <t>['43', '70', '82']</t>
   </si>
   <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
     <t>['83']</t>
   </si>
   <si>
@@ -809,6 +812,9 @@
   </si>
   <si>
     <t>['6', '58', '90+5']</t>
+  </si>
+  <si>
+    <t>['2']</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP158"/>
+  <dimension ref="A1:BP159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2047,7 +2053,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -2665,7 +2671,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2746,7 +2752,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ8">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3155,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ10">
         <v>0.9399999999999999</v>
@@ -3489,7 +3495,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -4313,7 +4319,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4725,7 +4731,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -5012,7 +5018,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ19">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR19">
         <v>1.75</v>
@@ -5215,7 +5221,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ20">
         <v>1.81</v>
@@ -5343,7 +5349,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5549,7 +5555,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5961,7 +5967,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -6167,7 +6173,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6579,7 +6585,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6991,7 +6997,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -7275,7 +7281,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ30">
         <v>0.31</v>
@@ -7403,7 +7409,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -8308,7 +8314,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ35">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR35">
         <v>2.01</v>
@@ -8639,7 +8645,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -8923,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ38">
         <v>0.75</v>
@@ -9051,7 +9057,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -9669,7 +9675,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q42">
         <v>1.95</v>
@@ -9956,7 +9962,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ43">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR43">
         <v>1.26</v>
@@ -10081,7 +10087,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10287,7 +10293,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10574,7 +10580,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ46">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR46">
         <v>1.5</v>
@@ -10699,7 +10705,7 @@
         <v>81</v>
       </c>
       <c r="P47" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -10905,7 +10911,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10983,7 +10989,7 @@
         <v>1.25</v>
       </c>
       <c r="AP48">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ48">
         <v>1.57</v>
@@ -11317,7 +11323,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q50">
         <v>6.1</v>
@@ -12141,7 +12147,7 @@
         <v>111</v>
       </c>
       <c r="P54" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12347,7 +12353,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q55">
         <v>2.1</v>
@@ -12553,7 +12559,7 @@
         <v>81</v>
       </c>
       <c r="P56" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12759,7 +12765,7 @@
         <v>115</v>
       </c>
       <c r="P57" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q57">
         <v>1.95</v>
@@ -12840,7 +12846,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ57">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR57">
         <v>2.09</v>
@@ -12965,7 +12971,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -13171,7 +13177,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13377,7 +13383,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q60">
         <v>3.6</v>
@@ -13455,7 +13461,7 @@
         <v>1.75</v>
       </c>
       <c r="AP60">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ60">
         <v>1.5</v>
@@ -13583,7 +13589,7 @@
         <v>89</v>
       </c>
       <c r="P61" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13789,7 +13795,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -13995,7 +14001,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q63">
         <v>4.3</v>
@@ -14201,7 +14207,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14407,7 +14413,7 @@
         <v>120</v>
       </c>
       <c r="P65" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -15309,10 +15315,10 @@
         <v>0.83</v>
       </c>
       <c r="AP69">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ69">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR69">
         <v>1.38</v>
@@ -15437,7 +15443,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q70">
         <v>3.2</v>
@@ -15643,7 +15649,7 @@
         <v>114</v>
       </c>
       <c r="P71" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q71">
         <v>4.75</v>
@@ -16467,7 +16473,7 @@
         <v>125</v>
       </c>
       <c r="P75" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q75">
         <v>2.91</v>
@@ -16548,7 +16554,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ75">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR75">
         <v>1.44</v>
@@ -16673,7 +16679,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -17085,7 +17091,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -17291,7 +17297,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -17703,7 +17709,7 @@
         <v>130</v>
       </c>
       <c r="P81" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17909,7 +17915,7 @@
         <v>131</v>
       </c>
       <c r="P82" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q82">
         <v>3.5</v>
@@ -18196,7 +18202,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ83">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR83">
         <v>1.05</v>
@@ -18811,7 +18817,7 @@
         <v>0.75</v>
       </c>
       <c r="AP86">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ86">
         <v>0.6899999999999999</v>
@@ -18939,7 +18945,7 @@
         <v>134</v>
       </c>
       <c r="P87" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q87">
         <v>1.69</v>
@@ -19223,7 +19229,7 @@
         <v>2.5</v>
       </c>
       <c r="AP88">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ88">
         <v>2</v>
@@ -19351,7 +19357,7 @@
         <v>101</v>
       </c>
       <c r="P89" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -19763,7 +19769,7 @@
         <v>137</v>
       </c>
       <c r="P91" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19969,7 +19975,7 @@
         <v>138</v>
       </c>
       <c r="P92" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q92">
         <v>2.4</v>
@@ -20793,7 +20799,7 @@
         <v>141</v>
       </c>
       <c r="P96" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21077,7 +21083,7 @@
         <v>1.1</v>
       </c>
       <c r="AP97">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ97">
         <v>0.9399999999999999</v>
@@ -21205,7 +21211,7 @@
         <v>143</v>
       </c>
       <c r="P98" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q98">
         <v>3.25</v>
@@ -21411,7 +21417,7 @@
         <v>81</v>
       </c>
       <c r="P99" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q99">
         <v>3.55</v>
@@ -21492,7 +21498,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ99">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR99">
         <v>1.34</v>
@@ -21617,7 +21623,7 @@
         <v>144</v>
       </c>
       <c r="P100" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q100">
         <v>2.65</v>
@@ -21823,7 +21829,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -22029,7 +22035,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q102">
         <v>2.34</v>
@@ -22853,7 +22859,7 @@
         <v>149</v>
       </c>
       <c r="P106" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -23059,7 +23065,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q107">
         <v>2.82</v>
@@ -23137,7 +23143,7 @@
         <v>2.1</v>
       </c>
       <c r="AP107">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ107">
         <v>1.81</v>
@@ -23346,7 +23352,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ108">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR108">
         <v>1.88</v>
@@ -23471,7 +23477,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23883,7 +23889,7 @@
         <v>81</v>
       </c>
       <c r="P111" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q111">
         <v>5.2</v>
@@ -24501,7 +24507,7 @@
         <v>154</v>
       </c>
       <c r="P114" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q114">
         <v>3.8</v>
@@ -24707,7 +24713,7 @@
         <v>155</v>
       </c>
       <c r="P115" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -24913,7 +24919,7 @@
         <v>156</v>
       </c>
       <c r="P116" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q116">
         <v>5.5</v>
@@ -25197,7 +25203,7 @@
         <v>0.25</v>
       </c>
       <c r="AP117">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ117">
         <v>0.31</v>
@@ -25531,7 +25537,7 @@
         <v>159</v>
       </c>
       <c r="P119" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q119">
         <v>3.75</v>
@@ -25943,7 +25949,7 @@
         <v>160</v>
       </c>
       <c r="P121" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q121">
         <v>0</v>
@@ -26642,7 +26648,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ124">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR124">
         <v>1.8</v>
@@ -26767,7 +26773,7 @@
         <v>164</v>
       </c>
       <c r="P125" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q125">
         <v>2.85</v>
@@ -27179,7 +27185,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q127">
         <v>6.5</v>
@@ -27385,7 +27391,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27463,7 +27469,7 @@
         <v>0.62</v>
       </c>
       <c r="AP128">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ128">
         <v>0.75</v>
@@ -27591,7 +27597,7 @@
         <v>167</v>
       </c>
       <c r="P129" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -27797,7 +27803,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q130">
         <v>1.8</v>
@@ -28084,7 +28090,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ131">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR131">
         <v>1.5</v>
@@ -28827,7 +28833,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -28908,7 +28914,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ135">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR135">
         <v>1.51</v>
@@ -29033,7 +29039,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29239,7 +29245,7 @@
         <v>81</v>
       </c>
       <c r="P137" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q137">
         <v>0</v>
@@ -29445,7 +29451,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q138">
         <v>3.4</v>
@@ -29523,7 +29529,7 @@
         <v>1.33</v>
       </c>
       <c r="AP138">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ138">
         <v>1.57</v>
@@ -30063,7 +30069,7 @@
         <v>170</v>
       </c>
       <c r="P141" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q141">
         <v>2</v>
@@ -30475,7 +30481,7 @@
         <v>81</v>
       </c>
       <c r="P143" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q143">
         <v>2.45</v>
@@ -30681,7 +30687,7 @@
         <v>178</v>
       </c>
       <c r="P144" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q144">
         <v>9.5</v>
@@ -31174,7 +31180,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ146">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AR146">
         <v>2.09</v>
@@ -31299,7 +31305,7 @@
         <v>181</v>
       </c>
       <c r="P147" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q147">
         <v>3.6</v>
@@ -31377,7 +31383,7 @@
         <v>1.46</v>
       </c>
       <c r="AP147">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ147">
         <v>1.5</v>
@@ -31505,7 +31511,7 @@
         <v>94</v>
       </c>
       <c r="P148" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31711,7 +31717,7 @@
         <v>182</v>
       </c>
       <c r="P149" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -31917,7 +31923,7 @@
         <v>183</v>
       </c>
       <c r="P150" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q150">
         <v>0</v>
@@ -32535,7 +32541,7 @@
         <v>186</v>
       </c>
       <c r="P153" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q153">
         <v>5.5</v>
@@ -32741,7 +32747,7 @@
         <v>187</v>
       </c>
       <c r="P154" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q154">
         <v>5</v>
@@ -32947,7 +32953,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q155">
         <v>0</v>
@@ -33040,31 +33046,31 @@
         <v>2.72</v>
       </c>
       <c r="AU155">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV155">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW155">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX155">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY155">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ155">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA155">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB155">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC155">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BD155">
         <v>0</v>
@@ -33359,7 +33365,7 @@
         <v>190</v>
       </c>
       <c r="P157" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33565,7 +33571,7 @@
         <v>191</v>
       </c>
       <c r="P158" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q158">
         <v>3.25</v>
@@ -33721,6 +33727,212 @@
         <v>0</v>
       </c>
       <c r="BP158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7483827</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45775.52083333334</v>
+      </c>
+      <c r="F159">
+        <v>32</v>
+      </c>
+      <c r="G159" t="s">
+        <v>78</v>
+      </c>
+      <c r="H159" t="s">
+        <v>72</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+      <c r="N159">
+        <v>2</v>
+      </c>
+      <c r="O159" t="s">
+        <v>192</v>
+      </c>
+      <c r="P159" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q159">
+        <v>2.5</v>
+      </c>
+      <c r="R159">
+        <v>2.1</v>
+      </c>
+      <c r="S159">
+        <v>4.33</v>
+      </c>
+      <c r="T159">
+        <v>1.44</v>
+      </c>
+      <c r="U159">
+        <v>2.63</v>
+      </c>
+      <c r="V159">
+        <v>3</v>
+      </c>
+      <c r="W159">
+        <v>1.36</v>
+      </c>
+      <c r="X159">
+        <v>7.5</v>
+      </c>
+      <c r="Y159">
+        <v>1.07</v>
+      </c>
+      <c r="Z159">
+        <v>1.9</v>
+      </c>
+      <c r="AA159">
+        <v>3.55</v>
+      </c>
+      <c r="AB159">
+        <v>3.83</v>
+      </c>
+      <c r="AC159">
+        <v>0</v>
+      </c>
+      <c r="AD159">
+        <v>0</v>
+      </c>
+      <c r="AE159">
+        <v>3.37</v>
+      </c>
+      <c r="AF159">
+        <v>1.29</v>
+      </c>
+      <c r="AG159">
+        <v>1.98</v>
+      </c>
+      <c r="AH159">
+        <v>1.77</v>
+      </c>
+      <c r="AI159">
+        <v>1.83</v>
+      </c>
+      <c r="AJ159">
+        <v>1.83</v>
+      </c>
+      <c r="AK159">
+        <v>0</v>
+      </c>
+      <c r="AL159">
+        <v>0</v>
+      </c>
+      <c r="AM159">
+        <v>0</v>
+      </c>
+      <c r="AN159">
+        <v>1.8</v>
+      </c>
+      <c r="AO159">
+        <v>0.73</v>
+      </c>
+      <c r="AP159">
+        <v>1.75</v>
+      </c>
+      <c r="AQ159">
+        <v>0.75</v>
+      </c>
+      <c r="AR159">
+        <v>1.63</v>
+      </c>
+      <c r="AS159">
+        <v>1.28</v>
+      </c>
+      <c r="AT159">
+        <v>2.91</v>
+      </c>
+      <c r="AU159">
+        <v>7</v>
+      </c>
+      <c r="AV159">
+        <v>2</v>
+      </c>
+      <c r="AW159">
+        <v>7</v>
+      </c>
+      <c r="AX159">
+        <v>4</v>
+      </c>
+      <c r="AY159">
+        <v>14</v>
+      </c>
+      <c r="AZ159">
+        <v>6</v>
+      </c>
+      <c r="BA159">
+        <v>5</v>
+      </c>
+      <c r="BB159">
+        <v>3</v>
+      </c>
+      <c r="BC159">
+        <v>8</v>
+      </c>
+      <c r="BD159">
+        <v>0</v>
+      </c>
+      <c r="BE159">
+        <v>0</v>
+      </c>
+      <c r="BF159">
+        <v>0</v>
+      </c>
+      <c r="BG159">
+        <v>0</v>
+      </c>
+      <c r="BH159">
+        <v>0</v>
+      </c>
+      <c r="BI159">
+        <v>0</v>
+      </c>
+      <c r="BJ159">
+        <v>0</v>
+      </c>
+      <c r="BK159">
+        <v>0</v>
+      </c>
+      <c r="BL159">
+        <v>0</v>
+      </c>
+      <c r="BM159">
+        <v>0</v>
+      </c>
+      <c r="BN159">
+        <v>0</v>
+      </c>
+      <c r="BO159">
+        <v>0</v>
+      </c>
+      <c r="BP159">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="267">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1176,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP159"/>
+  <dimension ref="A1:BP160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ9">
         <v>2</v>
@@ -3782,7 +3782,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ13">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR13">
         <v>1.72</v>
@@ -5839,7 +5839,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ23">
         <v>0.31</v>
@@ -6254,7 +6254,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ25">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR25">
         <v>1.83</v>
@@ -8105,10 +8105,10 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ34">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR34">
         <v>1.21</v>
@@ -9959,7 +9959,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ43">
         <v>0.75</v>
@@ -10374,7 +10374,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ45">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR45">
         <v>1.07</v>
@@ -10992,7 +10992,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ48">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR48">
         <v>1.28</v>
@@ -11195,7 +11195,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ49">
         <v>0.6899999999999999</v>
@@ -12228,7 +12228,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ54">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR54">
         <v>1.59</v>
@@ -13255,7 +13255,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ59">
         <v>0.9399999999999999</v>
@@ -14285,7 +14285,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ64">
         <v>1.19</v>
@@ -14494,7 +14494,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ65">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR65">
         <v>1.42</v>
@@ -15933,7 +15933,7 @@
         <v>0.57</v>
       </c>
       <c r="AP72">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ72">
         <v>0.75</v>
@@ -16760,7 +16760,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ76">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR76">
         <v>1.07</v>
@@ -17993,7 +17993,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ82">
         <v>1.5</v>
@@ -18408,7 +18408,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ84">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR84">
         <v>1.41</v>
@@ -21907,7 +21907,7 @@
         <v>2.33</v>
       </c>
       <c r="AP101">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ101">
         <v>2</v>
@@ -22322,7 +22322,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ103">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR103">
         <v>1.45</v>
@@ -24173,7 +24173,7 @@
         <v>0.18</v>
       </c>
       <c r="AP112">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ112">
         <v>0.31</v>
@@ -24382,7 +24382,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ113">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR113">
         <v>1.82</v>
@@ -28087,7 +28087,7 @@
         <v>0.92</v>
       </c>
       <c r="AP131">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ131">
         <v>0.75</v>
@@ -28296,7 +28296,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ132">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR132">
         <v>1.42</v>
@@ -29117,7 +29117,7 @@
         <v>0.62</v>
       </c>
       <c r="AP136">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ136">
         <v>0.6899999999999999</v>
@@ -29532,7 +29532,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ138">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR138">
         <v>1.64</v>
@@ -30971,7 +30971,7 @@
         <v>0.93</v>
       </c>
       <c r="AP145">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ145">
         <v>0.9399999999999999</v>
@@ -32207,7 +32207,7 @@
         <v>1.27</v>
       </c>
       <c r="AP151">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AQ151">
         <v>1.19</v>
@@ -32622,7 +32622,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ153">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AR153">
         <v>1.36</v>
@@ -33933,6 +33933,212 @@
         <v>0</v>
       </c>
       <c r="BP159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7483796</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45777.57291666666</v>
+      </c>
+      <c r="F160">
+        <v>25</v>
+      </c>
+      <c r="G160" t="s">
+        <v>77</v>
+      </c>
+      <c r="H160" t="s">
+        <v>74</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="N160">
+        <v>2</v>
+      </c>
+      <c r="O160" t="s">
+        <v>88</v>
+      </c>
+      <c r="P160" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q160">
+        <v>3.5</v>
+      </c>
+      <c r="R160">
+        <v>2.2</v>
+      </c>
+      <c r="S160">
+        <v>2.75</v>
+      </c>
+      <c r="T160">
+        <v>1.36</v>
+      </c>
+      <c r="U160">
+        <v>3</v>
+      </c>
+      <c r="V160">
+        <v>2.63</v>
+      </c>
+      <c r="W160">
+        <v>1.44</v>
+      </c>
+      <c r="X160">
+        <v>6.5</v>
+      </c>
+      <c r="Y160">
+        <v>1.1</v>
+      </c>
+      <c r="Z160">
+        <v>3.45</v>
+      </c>
+      <c r="AA160">
+        <v>3.5</v>
+      </c>
+      <c r="AB160">
+        <v>2.03</v>
+      </c>
+      <c r="AC160">
+        <v>0</v>
+      </c>
+      <c r="AD160">
+        <v>0</v>
+      </c>
+      <c r="AE160">
+        <v>0</v>
+      </c>
+      <c r="AF160">
+        <v>0</v>
+      </c>
+      <c r="AG160">
+        <v>1.77</v>
+      </c>
+      <c r="AH160">
+        <v>1.98</v>
+      </c>
+      <c r="AI160">
+        <v>1.67</v>
+      </c>
+      <c r="AJ160">
+        <v>2.1</v>
+      </c>
+      <c r="AK160">
+        <v>0</v>
+      </c>
+      <c r="AL160">
+        <v>0</v>
+      </c>
+      <c r="AM160">
+        <v>0</v>
+      </c>
+      <c r="AN160">
+        <v>1.73</v>
+      </c>
+      <c r="AO160">
+        <v>1.57</v>
+      </c>
+      <c r="AP160">
+        <v>1.69</v>
+      </c>
+      <c r="AQ160">
+        <v>1.53</v>
+      </c>
+      <c r="AR160">
+        <v>1.65</v>
+      </c>
+      <c r="AS160">
+        <v>1.74</v>
+      </c>
+      <c r="AT160">
+        <v>3.39</v>
+      </c>
+      <c r="AU160">
+        <v>3</v>
+      </c>
+      <c r="AV160">
+        <v>6</v>
+      </c>
+      <c r="AW160">
+        <v>4</v>
+      </c>
+      <c r="AX160">
+        <v>5</v>
+      </c>
+      <c r="AY160">
+        <v>7</v>
+      </c>
+      <c r="AZ160">
+        <v>11</v>
+      </c>
+      <c r="BA160">
+        <v>3</v>
+      </c>
+      <c r="BB160">
+        <v>5</v>
+      </c>
+      <c r="BC160">
+        <v>8</v>
+      </c>
+      <c r="BD160">
+        <v>0</v>
+      </c>
+      <c r="BE160">
+        <v>0</v>
+      </c>
+      <c r="BF160">
+        <v>0</v>
+      </c>
+      <c r="BG160">
+        <v>0</v>
+      </c>
+      <c r="BH160">
+        <v>0</v>
+      </c>
+      <c r="BI160">
+        <v>0</v>
+      </c>
+      <c r="BJ160">
+        <v>0</v>
+      </c>
+      <c r="BK160">
+        <v>0</v>
+      </c>
+      <c r="BL160">
+        <v>0</v>
+      </c>
+      <c r="BM160">
+        <v>0</v>
+      </c>
+      <c r="BN160">
+        <v>0</v>
+      </c>
+      <c r="BO160">
+        <v>0</v>
+      </c>
+      <c r="BP160">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="267">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1176,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP160"/>
+  <dimension ref="A1:BP161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2340,7 +2340,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ6">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2543,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ7">
         <v>0.6899999999999999</v>
@@ -3988,7 +3988,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ14">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR14">
         <v>1.88</v>
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ16">
         <v>0.9399999999999999</v>
@@ -5636,7 +5636,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ22">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR22">
         <v>1.24</v>
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ31">
         <v>0.75</v>
@@ -7696,7 +7696,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ32">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR32">
         <v>1.34</v>
@@ -9756,7 +9756,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ42">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR42">
         <v>2.18</v>
@@ -10165,7 +10165,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ44">
         <v>1.5</v>
@@ -10577,7 +10577,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ46">
         <v>0.75</v>
@@ -12022,7 +12022,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ53">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR53">
         <v>1.07</v>
@@ -13049,7 +13049,7 @@
         <v>2.2</v>
       </c>
       <c r="AP58">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ58">
         <v>2</v>
@@ -14288,7 +14288,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ64">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR64">
         <v>1.37</v>
@@ -15727,7 +15727,7 @@
         <v>2</v>
       </c>
       <c r="AP71">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ71">
         <v>1.81</v>
@@ -16139,10 +16139,10 @@
         <v>0.86</v>
       </c>
       <c r="AP73">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ73">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR73">
         <v>1.53</v>
@@ -17790,7 +17790,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ81">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR81">
         <v>1.21</v>
@@ -18405,7 +18405,7 @@
         <v>1.38</v>
       </c>
       <c r="AP84">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ84">
         <v>1.53</v>
@@ -20056,7 +20056,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ92">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR92">
         <v>2.06</v>
@@ -21289,7 +21289,7 @@
         <v>0.78</v>
       </c>
       <c r="AP98">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ98">
         <v>0.6899999999999999</v>
@@ -22116,7 +22116,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ102">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR102">
         <v>1.84</v>
@@ -22937,7 +22937,7 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ106">
         <v>0.9399999999999999</v>
@@ -24588,7 +24588,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ114">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR114">
         <v>1.48</v>
@@ -26236,7 +26236,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ122">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR122">
         <v>1.32</v>
@@ -26851,7 +26851,7 @@
         <v>0.67</v>
       </c>
       <c r="AP125">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ125">
         <v>0.75</v>
@@ -28708,7 +28708,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ134">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR134">
         <v>1.81</v>
@@ -28911,7 +28911,7 @@
         <v>0.85</v>
       </c>
       <c r="AP135">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ135">
         <v>0.75</v>
@@ -30356,7 +30356,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ142">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR142">
         <v>1.23</v>
@@ -30765,7 +30765,7 @@
         <v>2.14</v>
       </c>
       <c r="AP144">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ144">
         <v>2</v>
@@ -31795,7 +31795,7 @@
         <v>1.43</v>
       </c>
       <c r="AP149">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ149">
         <v>1.5</v>
@@ -32210,7 +32210,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ151">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AR151">
         <v>1.63</v>
@@ -33443,7 +33443,7 @@
         <v>1.73</v>
       </c>
       <c r="AP157">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ157">
         <v>1.81</v>
@@ -34139,6 +34139,212 @@
         <v>0</v>
       </c>
       <c r="BP160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7483832</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45779.63541666666</v>
+      </c>
+      <c r="F161">
+        <v>33</v>
+      </c>
+      <c r="G161" t="s">
+        <v>75</v>
+      </c>
+      <c r="H161" t="s">
+        <v>78</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+      <c r="N161">
+        <v>1</v>
+      </c>
+      <c r="O161" t="s">
+        <v>81</v>
+      </c>
+      <c r="P161" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q161">
+        <v>3.75</v>
+      </c>
+      <c r="R161">
+        <v>2.1</v>
+      </c>
+      <c r="S161">
+        <v>2.75</v>
+      </c>
+      <c r="T161">
+        <v>1.4</v>
+      </c>
+      <c r="U161">
+        <v>2.75</v>
+      </c>
+      <c r="V161">
+        <v>3</v>
+      </c>
+      <c r="W161">
+        <v>1.36</v>
+      </c>
+      <c r="X161">
+        <v>7</v>
+      </c>
+      <c r="Y161">
+        <v>1.08</v>
+      </c>
+      <c r="Z161">
+        <v>3.12</v>
+      </c>
+      <c r="AA161">
+        <v>3.55</v>
+      </c>
+      <c r="AB161">
+        <v>2.14</v>
+      </c>
+      <c r="AC161">
+        <v>0</v>
+      </c>
+      <c r="AD161">
+        <v>0</v>
+      </c>
+      <c r="AE161">
+        <v>1.87</v>
+      </c>
+      <c r="AF161">
+        <v>1.92</v>
+      </c>
+      <c r="AG161">
+        <v>1.98</v>
+      </c>
+      <c r="AH161">
+        <v>1.77</v>
+      </c>
+      <c r="AI161">
+        <v>1.83</v>
+      </c>
+      <c r="AJ161">
+        <v>1.83</v>
+      </c>
+      <c r="AK161">
+        <v>0</v>
+      </c>
+      <c r="AL161">
+        <v>0</v>
+      </c>
+      <c r="AM161">
+        <v>0</v>
+      </c>
+      <c r="AN161">
+        <v>1.25</v>
+      </c>
+      <c r="AO161">
+        <v>1.19</v>
+      </c>
+      <c r="AP161">
+        <v>1.18</v>
+      </c>
+      <c r="AQ161">
+        <v>1.29</v>
+      </c>
+      <c r="AR161">
+        <v>1.52</v>
+      </c>
+      <c r="AS161">
+        <v>1.48</v>
+      </c>
+      <c r="AT161">
+        <v>3</v>
+      </c>
+      <c r="AU161">
+        <v>7</v>
+      </c>
+      <c r="AV161">
+        <v>7</v>
+      </c>
+      <c r="AW161">
+        <v>6</v>
+      </c>
+      <c r="AX161">
+        <v>10</v>
+      </c>
+      <c r="AY161">
+        <v>13</v>
+      </c>
+      <c r="AZ161">
+        <v>17</v>
+      </c>
+      <c r="BA161">
+        <v>4</v>
+      </c>
+      <c r="BB161">
+        <v>4</v>
+      </c>
+      <c r="BC161">
+        <v>8</v>
+      </c>
+      <c r="BD161">
+        <v>0</v>
+      </c>
+      <c r="BE161">
+        <v>0</v>
+      </c>
+      <c r="BF161">
+        <v>0</v>
+      </c>
+      <c r="BG161">
+        <v>0</v>
+      </c>
+      <c r="BH161">
+        <v>0</v>
+      </c>
+      <c r="BI161">
+        <v>0</v>
+      </c>
+      <c r="BJ161">
+        <v>0</v>
+      </c>
+      <c r="BK161">
+        <v>0</v>
+      </c>
+      <c r="BL161">
+        <v>0</v>
+      </c>
+      <c r="BM161">
+        <v>0</v>
+      </c>
+      <c r="BN161">
+        <v>0</v>
+      </c>
+      <c r="BO161">
+        <v>0</v>
+      </c>
+      <c r="BP161">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="269">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -595,6 +595,12 @@
     <t>['90+5']</t>
   </si>
   <si>
+    <t>['62', '72']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
     <t>['83']</t>
   </si>
   <si>
@@ -608,9 +614,6 @@
   </si>
   <si>
     <t>['53', '64']</t>
-  </si>
-  <si>
-    <t>['8']</t>
   </si>
   <si>
     <t>['13', '21', '26']</t>
@@ -815,6 +818,9 @@
   </si>
   <si>
     <t>['2']</t>
+  </si>
+  <si>
+    <t>['15', '53']</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP161"/>
+  <dimension ref="A1:BP163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1513,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ2">
         <v>0.9399999999999999</v>
@@ -1719,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ3">
         <v>1.81</v>
@@ -2053,7 +2059,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -2671,7 +2677,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2752,7 +2758,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ8">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3367,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ11">
         <v>0.75</v>
@@ -3495,7 +3501,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -4191,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ15">
         <v>0.31</v>
@@ -4319,7 +4325,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4731,7 +4737,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -5018,7 +5024,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ19">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR19">
         <v>1.75</v>
@@ -5349,7 +5355,7 @@
         <v>95</v>
       </c>
       <c r="P21" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5555,7 +5561,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5967,7 +5973,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -6045,10 +6051,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR24">
         <v>1.24</v>
@@ -6173,7 +6179,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6251,7 +6257,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ25">
         <v>1.53</v>
@@ -6585,7 +6591,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6997,7 +7003,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -7409,7 +7415,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7693,7 +7699,7 @@
         <v>1.33</v>
       </c>
       <c r="AP32">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ32">
         <v>1.29</v>
@@ -8311,10 +8317,10 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ35">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR35">
         <v>2.01</v>
@@ -8645,7 +8651,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -8723,7 +8729,7 @@
         <v>1.67</v>
       </c>
       <c r="AP37">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ37">
         <v>2</v>
@@ -9057,7 +9063,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -9550,7 +9556,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR41">
         <v>2.19</v>
@@ -9675,7 +9681,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q42">
         <v>1.95</v>
@@ -9753,7 +9759,7 @@
         <v>1.25</v>
       </c>
       <c r="AP42">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ42">
         <v>1.29</v>
@@ -9962,7 +9968,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ43">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR43">
         <v>1.26</v>
@@ -10087,7 +10093,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10168,7 +10174,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ44">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR44">
         <v>1.49</v>
@@ -10293,7 +10299,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10580,7 +10586,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ46">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR46">
         <v>1.5</v>
@@ -10705,7 +10711,7 @@
         <v>81</v>
       </c>
       <c r="P47" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -10911,7 +10917,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11323,7 +11329,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q50">
         <v>6.1</v>
@@ -11404,7 +11410,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ50">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR50">
         <v>1.16</v>
@@ -11607,7 +11613,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ51">
         <v>0.31</v>
@@ -12147,7 +12153,7 @@
         <v>111</v>
       </c>
       <c r="P54" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12353,7 +12359,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q55">
         <v>2.1</v>
@@ -12431,7 +12437,7 @@
         <v>1.8</v>
       </c>
       <c r="AP55">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ55">
         <v>1.81</v>
@@ -12559,7 +12565,7 @@
         <v>81</v>
       </c>
       <c r="P56" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12765,7 +12771,7 @@
         <v>115</v>
       </c>
       <c r="P57" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q57">
         <v>1.95</v>
@@ -12846,7 +12852,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ57">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR57">
         <v>2.09</v>
@@ -12971,7 +12977,7 @@
         <v>81</v>
       </c>
       <c r="P58" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -13177,7 +13183,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13383,7 +13389,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q60">
         <v>3.6</v>
@@ -13464,7 +13470,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ60">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR60">
         <v>1.4</v>
@@ -13589,7 +13595,7 @@
         <v>89</v>
       </c>
       <c r="P61" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13795,7 +13801,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -14001,7 +14007,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q63">
         <v>4.3</v>
@@ -14082,7 +14088,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ63">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR63">
         <v>1.5</v>
@@ -14207,7 +14213,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14413,7 +14419,7 @@
         <v>120</v>
       </c>
       <c r="P65" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14491,7 +14497,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ65">
         <v>1.53</v>
@@ -14697,7 +14703,7 @@
         <v>0.67</v>
       </c>
       <c r="AP66">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ66">
         <v>0.75</v>
@@ -15318,7 +15324,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ69">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR69">
         <v>1.38</v>
@@ -15443,7 +15449,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q70">
         <v>3.2</v>
@@ -15649,7 +15655,7 @@
         <v>114</v>
       </c>
       <c r="P71" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q71">
         <v>4.75</v>
@@ -16345,10 +16351,10 @@
         <v>1.83</v>
       </c>
       <c r="AP74">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ74">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR74">
         <v>1.87</v>
@@ -16473,7 +16479,7 @@
         <v>125</v>
       </c>
       <c r="P75" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q75">
         <v>2.91</v>
@@ -16551,10 +16557,10 @@
         <v>0.71</v>
       </c>
       <c r="AP75">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ75">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR75">
         <v>1.44</v>
@@ -16679,7 +16685,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -17091,7 +17097,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -17297,7 +17303,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -17584,7 +17590,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ80">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR80">
         <v>1.04</v>
@@ -17709,7 +17715,7 @@
         <v>130</v>
       </c>
       <c r="P81" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17915,7 +17921,7 @@
         <v>131</v>
       </c>
       <c r="P82" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q82">
         <v>3.5</v>
@@ -17996,7 +18002,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ82">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR82">
         <v>1.46</v>
@@ -18202,7 +18208,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ83">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR83">
         <v>1.05</v>
@@ -18611,7 +18617,7 @@
         <v>0.86</v>
       </c>
       <c r="AP85">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ85">
         <v>0.6899999999999999</v>
@@ -18945,7 +18951,7 @@
         <v>134</v>
       </c>
       <c r="P87" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q87">
         <v>1.69</v>
@@ -19357,7 +19363,7 @@
         <v>101</v>
       </c>
       <c r="P89" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -19435,7 +19441,7 @@
         <v>1.25</v>
       </c>
       <c r="AP89">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ89">
         <v>0.9399999999999999</v>
@@ -19769,7 +19775,7 @@
         <v>137</v>
       </c>
       <c r="P91" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19975,7 +19981,7 @@
         <v>138</v>
       </c>
       <c r="P92" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q92">
         <v>2.4</v>
@@ -20465,7 +20471,7 @@
         <v>1.22</v>
       </c>
       <c r="AP94">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ94">
         <v>0.9399999999999999</v>
@@ -20799,7 +20805,7 @@
         <v>141</v>
       </c>
       <c r="P96" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -20877,7 +20883,7 @@
         <v>2</v>
       </c>
       <c r="AP96">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ96">
         <v>1.81</v>
@@ -21211,7 +21217,7 @@
         <v>143</v>
       </c>
       <c r="P98" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q98">
         <v>3.25</v>
@@ -21417,7 +21423,7 @@
         <v>81</v>
       </c>
       <c r="P99" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q99">
         <v>3.55</v>
@@ -21498,7 +21504,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ99">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR99">
         <v>1.34</v>
@@ -21623,7 +21629,7 @@
         <v>144</v>
       </c>
       <c r="P100" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q100">
         <v>2.65</v>
@@ -21704,7 +21710,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ100">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR100">
         <v>2.09</v>
@@ -21829,7 +21835,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -22035,7 +22041,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q102">
         <v>2.34</v>
@@ -22525,7 +22531,7 @@
         <v>0.2</v>
       </c>
       <c r="AP104">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ104">
         <v>0.31</v>
@@ -22731,7 +22737,7 @@
         <v>0.5</v>
       </c>
       <c r="AP105">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ105">
         <v>0.75</v>
@@ -22859,7 +22865,7 @@
         <v>149</v>
       </c>
       <c r="P106" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -23065,7 +23071,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q107">
         <v>2.82</v>
@@ -23352,7 +23358,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ108">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR108">
         <v>1.88</v>
@@ -23477,7 +23483,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23889,7 +23895,7 @@
         <v>81</v>
       </c>
       <c r="P111" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q111">
         <v>5.2</v>
@@ -23967,10 +23973,10 @@
         <v>1.6</v>
       </c>
       <c r="AP111">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ111">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR111">
         <v>1.34</v>
@@ -24379,7 +24385,7 @@
         <v>1.3</v>
       </c>
       <c r="AP113">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ113">
         <v>1.53</v>
@@ -24507,7 +24513,7 @@
         <v>154</v>
       </c>
       <c r="P114" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q114">
         <v>3.8</v>
@@ -24713,7 +24719,7 @@
         <v>155</v>
       </c>
       <c r="P115" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -24919,7 +24925,7 @@
         <v>156</v>
       </c>
       <c r="P116" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q116">
         <v>5.5</v>
@@ -25537,7 +25543,7 @@
         <v>159</v>
       </c>
       <c r="P119" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q119">
         <v>3.75</v>
@@ -25949,7 +25955,7 @@
         <v>160</v>
       </c>
       <c r="P121" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q121">
         <v>0</v>
@@ -26233,7 +26239,7 @@
         <v>1.58</v>
       </c>
       <c r="AP122">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ122">
         <v>1.29</v>
@@ -26442,7 +26448,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ123">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR123">
         <v>1.1</v>
@@ -26645,10 +26651,10 @@
         <v>1</v>
       </c>
       <c r="AP124">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ124">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR124">
         <v>1.8</v>
@@ -26773,7 +26779,7 @@
         <v>164</v>
       </c>
       <c r="P125" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q125">
         <v>2.85</v>
@@ -27185,7 +27191,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q127">
         <v>6.5</v>
@@ -27263,7 +27269,7 @@
         <v>2</v>
       </c>
       <c r="AP127">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ127">
         <v>2</v>
@@ -27391,7 +27397,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27597,7 +27603,7 @@
         <v>167</v>
       </c>
       <c r="P129" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -27803,7 +27809,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q130">
         <v>1.8</v>
@@ -28090,7 +28096,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ131">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR131">
         <v>1.5</v>
@@ -28705,7 +28711,7 @@
         <v>1.46</v>
       </c>
       <c r="AP134">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ134">
         <v>1.29</v>
@@ -28833,7 +28839,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -28914,7 +28920,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ135">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR135">
         <v>1.51</v>
@@ -29039,7 +29045,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29245,7 +29251,7 @@
         <v>81</v>
       </c>
       <c r="P137" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q137">
         <v>0</v>
@@ -29451,7 +29457,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q138">
         <v>3.4</v>
@@ -29738,7 +29744,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ139">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR139">
         <v>1.37</v>
@@ -29941,7 +29947,7 @@
         <v>0.29</v>
       </c>
       <c r="AP140">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ140">
         <v>0.31</v>
@@ -30069,7 +30075,7 @@
         <v>170</v>
       </c>
       <c r="P141" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q141">
         <v>2</v>
@@ -30147,7 +30153,7 @@
         <v>1.79</v>
       </c>
       <c r="AP141">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ141">
         <v>1.81</v>
@@ -30481,7 +30487,7 @@
         <v>81</v>
       </c>
       <c r="P143" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q143">
         <v>2.45</v>
@@ -30687,7 +30693,7 @@
         <v>178</v>
       </c>
       <c r="P144" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q144">
         <v>9.5</v>
@@ -31180,7 +31186,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ146">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR146">
         <v>2.09</v>
@@ -31305,7 +31311,7 @@
         <v>181</v>
       </c>
       <c r="P147" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q147">
         <v>3.6</v>
@@ -31386,7 +31392,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ147">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR147">
         <v>1.64</v>
@@ -31511,7 +31517,7 @@
         <v>94</v>
       </c>
       <c r="P148" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31717,7 +31723,7 @@
         <v>182</v>
       </c>
       <c r="P149" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -31798,7 +31804,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ149">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR149">
         <v>1.5</v>
@@ -31923,7 +31929,7 @@
         <v>183</v>
       </c>
       <c r="P150" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q150">
         <v>0</v>
@@ -32413,7 +32419,7 @@
         <v>0.8</v>
       </c>
       <c r="AP152">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AQ152">
         <v>0.75</v>
@@ -32541,7 +32547,7 @@
         <v>186</v>
       </c>
       <c r="P153" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q153">
         <v>5.5</v>
@@ -32619,7 +32625,7 @@
         <v>1.46</v>
       </c>
       <c r="AP153">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ153">
         <v>1.53</v>
@@ -32747,7 +32753,7 @@
         <v>187</v>
       </c>
       <c r="P154" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q154">
         <v>5</v>
@@ -32828,7 +32834,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ154">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AR154">
         <v>1.56</v>
@@ -32953,7 +32959,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q155">
         <v>0</v>
@@ -33365,7 +33371,7 @@
         <v>190</v>
       </c>
       <c r="P157" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33571,7 +33577,7 @@
         <v>191</v>
       </c>
       <c r="P158" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q158">
         <v>3.25</v>
@@ -33777,7 +33783,7 @@
         <v>192</v>
       </c>
       <c r="P159" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q159">
         <v>2.5</v>
@@ -33858,7 +33864,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ159">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR159">
         <v>1.63</v>
@@ -34189,7 +34195,7 @@
         <v>81</v>
       </c>
       <c r="P161" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Q161">
         <v>3.75</v>
@@ -34345,6 +34351,418 @@
         <v>0</v>
       </c>
       <c r="BP161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7483836</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45780.52083333334</v>
+      </c>
+      <c r="F162">
+        <v>33</v>
+      </c>
+      <c r="G162" t="s">
+        <v>71</v>
+      </c>
+      <c r="H162" t="s">
+        <v>72</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>2</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>2</v>
+      </c>
+      <c r="O162" t="s">
+        <v>193</v>
+      </c>
+      <c r="P162" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q162">
+        <v>3.6</v>
+      </c>
+      <c r="R162">
+        <v>2.1</v>
+      </c>
+      <c r="S162">
+        <v>2.88</v>
+      </c>
+      <c r="T162">
+        <v>1.4</v>
+      </c>
+      <c r="U162">
+        <v>2.75</v>
+      </c>
+      <c r="V162">
+        <v>3</v>
+      </c>
+      <c r="W162">
+        <v>1.36</v>
+      </c>
+      <c r="X162">
+        <v>7</v>
+      </c>
+      <c r="Y162">
+        <v>1.08</v>
+      </c>
+      <c r="Z162">
+        <v>2.97</v>
+      </c>
+      <c r="AA162">
+        <v>3.11</v>
+      </c>
+      <c r="AB162">
+        <v>2.17</v>
+      </c>
+      <c r="AC162">
+        <v>0</v>
+      </c>
+      <c r="AD162">
+        <v>0</v>
+      </c>
+      <c r="AE162">
+        <v>0</v>
+      </c>
+      <c r="AF162">
+        <v>0</v>
+      </c>
+      <c r="AG162">
+        <v>1.95</v>
+      </c>
+      <c r="AH162">
+        <v>1.7</v>
+      </c>
+      <c r="AI162">
+        <v>1.83</v>
+      </c>
+      <c r="AJ162">
+        <v>1.83</v>
+      </c>
+      <c r="AK162">
+        <v>0</v>
+      </c>
+      <c r="AL162">
+        <v>0</v>
+      </c>
+      <c r="AM162">
+        <v>0</v>
+      </c>
+      <c r="AN162">
+        <v>1.31</v>
+      </c>
+      <c r="AO162">
+        <v>0.75</v>
+      </c>
+      <c r="AP162">
+        <v>1.41</v>
+      </c>
+      <c r="AQ162">
+        <v>0.71</v>
+      </c>
+      <c r="AR162">
+        <v>1.32</v>
+      </c>
+      <c r="AS162">
+        <v>1.27</v>
+      </c>
+      <c r="AT162">
+        <v>2.59</v>
+      </c>
+      <c r="AU162">
+        <v>5</v>
+      </c>
+      <c r="AV162">
+        <v>3</v>
+      </c>
+      <c r="AW162">
+        <v>5</v>
+      </c>
+      <c r="AX162">
+        <v>7</v>
+      </c>
+      <c r="AY162">
+        <v>10</v>
+      </c>
+      <c r="AZ162">
+        <v>10</v>
+      </c>
+      <c r="BA162">
+        <v>6</v>
+      </c>
+      <c r="BB162">
+        <v>4</v>
+      </c>
+      <c r="BC162">
+        <v>10</v>
+      </c>
+      <c r="BD162">
+        <v>0</v>
+      </c>
+      <c r="BE162">
+        <v>0</v>
+      </c>
+      <c r="BF162">
+        <v>0</v>
+      </c>
+      <c r="BG162">
+        <v>0</v>
+      </c>
+      <c r="BH162">
+        <v>0</v>
+      </c>
+      <c r="BI162">
+        <v>0</v>
+      </c>
+      <c r="BJ162">
+        <v>0</v>
+      </c>
+      <c r="BK162">
+        <v>0</v>
+      </c>
+      <c r="BL162">
+        <v>0</v>
+      </c>
+      <c r="BM162">
+        <v>0</v>
+      </c>
+      <c r="BN162">
+        <v>0</v>
+      </c>
+      <c r="BO162">
+        <v>0</v>
+      </c>
+      <c r="BP162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7483835</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45780.63541666666</v>
+      </c>
+      <c r="F163">
+        <v>33</v>
+      </c>
+      <c r="G163" t="s">
+        <v>70</v>
+      </c>
+      <c r="H163" t="s">
+        <v>73</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>2</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+      <c r="M163">
+        <v>2</v>
+      </c>
+      <c r="N163">
+        <v>3</v>
+      </c>
+      <c r="O163" t="s">
+        <v>194</v>
+      </c>
+      <c r="P163" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q163">
+        <v>2.4</v>
+      </c>
+      <c r="R163">
+        <v>2.1</v>
+      </c>
+      <c r="S163">
+        <v>4.33</v>
+      </c>
+      <c r="T163">
+        <v>1.4</v>
+      </c>
+      <c r="U163">
+        <v>2.75</v>
+      </c>
+      <c r="V163">
+        <v>3</v>
+      </c>
+      <c r="W163">
+        <v>1.36</v>
+      </c>
+      <c r="X163">
+        <v>7</v>
+      </c>
+      <c r="Y163">
+        <v>1.08</v>
+      </c>
+      <c r="Z163">
+        <v>1.81</v>
+      </c>
+      <c r="AA163">
+        <v>3.11</v>
+      </c>
+      <c r="AB163">
+        <v>4.1</v>
+      </c>
+      <c r="AC163">
+        <v>0</v>
+      </c>
+      <c r="AD163">
+        <v>0</v>
+      </c>
+      <c r="AE163">
+        <v>0</v>
+      </c>
+      <c r="AF163">
+        <v>0</v>
+      </c>
+      <c r="AG163">
+        <v>1.95</v>
+      </c>
+      <c r="AH163">
+        <v>1.75</v>
+      </c>
+      <c r="AI163">
+        <v>1.83</v>
+      </c>
+      <c r="AJ163">
+        <v>1.83</v>
+      </c>
+      <c r="AK163">
+        <v>0</v>
+      </c>
+      <c r="AL163">
+        <v>0</v>
+      </c>
+      <c r="AM163">
+        <v>0</v>
+      </c>
+      <c r="AN163">
+        <v>2.31</v>
+      </c>
+      <c r="AO163">
+        <v>1.5</v>
+      </c>
+      <c r="AP163">
+        <v>2.18</v>
+      </c>
+      <c r="AQ163">
+        <v>1.59</v>
+      </c>
+      <c r="AR163">
+        <v>1.84</v>
+      </c>
+      <c r="AS163">
+        <v>1.74</v>
+      </c>
+      <c r="AT163">
+        <v>3.58</v>
+      </c>
+      <c r="AU163">
+        <v>3</v>
+      </c>
+      <c r="AV163">
+        <v>6</v>
+      </c>
+      <c r="AW163">
+        <v>10</v>
+      </c>
+      <c r="AX163">
+        <v>7</v>
+      </c>
+      <c r="AY163">
+        <v>13</v>
+      </c>
+      <c r="AZ163">
+        <v>13</v>
+      </c>
+      <c r="BA163">
+        <v>8</v>
+      </c>
+      <c r="BB163">
+        <v>1</v>
+      </c>
+      <c r="BC163">
+        <v>9</v>
+      </c>
+      <c r="BD163">
+        <v>0</v>
+      </c>
+      <c r="BE163">
+        <v>0</v>
+      </c>
+      <c r="BF163">
+        <v>0</v>
+      </c>
+      <c r="BG163">
+        <v>0</v>
+      </c>
+      <c r="BH163">
+        <v>0</v>
+      </c>
+      <c r="BI163">
+        <v>0</v>
+      </c>
+      <c r="BJ163">
+        <v>0</v>
+      </c>
+      <c r="BK163">
+        <v>0</v>
+      </c>
+      <c r="BL163">
+        <v>0</v>
+      </c>
+      <c r="BM163">
+        <v>0</v>
+      </c>
+      <c r="BN163">
+        <v>0</v>
+      </c>
+      <c r="BO163">
+        <v>0</v>
+      </c>
+      <c r="BP163">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="271">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -601,6 +601,9 @@
     <t>['8']</t>
   </si>
   <si>
+    <t>['47', '54', '71']</t>
+  </si>
+  <si>
     <t>['83']</t>
   </si>
   <si>
@@ -821,6 +824,9 @@
   </si>
   <si>
     <t>['15', '53']</t>
+  </si>
+  <si>
+    <t>['5', '6', '25', '43', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP163"/>
+  <dimension ref="A1:BP165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2059,7 +2065,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -2140,7 +2146,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ5">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2677,7 +2683,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2961,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ9">
         <v>2</v>
@@ -3376,7 +3382,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ11">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR11">
         <v>1.27</v>
@@ -3501,7 +3507,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3579,7 +3585,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ12">
         <v>1.81</v>
@@ -3788,7 +3794,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ13">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR13">
         <v>1.72</v>
@@ -4325,7 +4331,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4737,7 +4743,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -5433,10 +5439,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ21">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR21">
         <v>1.05</v>
@@ -5561,7 +5567,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5845,7 +5851,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ23">
         <v>0.31</v>
@@ -5973,7 +5979,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -6179,7 +6185,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6260,7 +6266,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ25">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR25">
         <v>1.83</v>
@@ -6591,7 +6597,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -7003,7 +7009,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -7415,7 +7421,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7496,7 +7502,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ31">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR31">
         <v>1.26</v>
@@ -8111,10 +8117,10 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ34">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR34">
         <v>1.21</v>
@@ -8651,7 +8657,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -8938,7 +8944,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ38">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR38">
         <v>1.19</v>
@@ -9063,7 +9069,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -9681,7 +9687,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q42">
         <v>1.95</v>
@@ -9965,7 +9971,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ43">
         <v>0.71</v>
@@ -10093,7 +10099,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10299,7 +10305,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10380,7 +10386,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ45">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR45">
         <v>1.07</v>
@@ -10711,7 +10717,7 @@
         <v>81</v>
       </c>
       <c r="P47" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -10789,7 +10795,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ47">
         <v>2</v>
@@ -10917,7 +10923,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -10998,7 +11004,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ48">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR48">
         <v>1.28</v>
@@ -11201,7 +11207,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ49">
         <v>0.6899999999999999</v>
@@ -11329,7 +11335,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q50">
         <v>6.1</v>
@@ -11822,7 +11828,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ52">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR52">
         <v>1.58</v>
@@ -12025,7 +12031,7 @@
         <v>1.2</v>
       </c>
       <c r="AP53">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ53">
         <v>1.29</v>
@@ -12153,7 +12159,7 @@
         <v>111</v>
       </c>
       <c r="P54" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12234,7 +12240,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ54">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR54">
         <v>1.59</v>
@@ -12359,7 +12365,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q55">
         <v>2.1</v>
@@ -12565,7 +12571,7 @@
         <v>81</v>
       </c>
       <c r="P56" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12643,7 +12649,7 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ56">
         <v>0.6899999999999999</v>
@@ -12771,7 +12777,7 @@
         <v>115</v>
       </c>
       <c r="P57" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q57">
         <v>1.95</v>
@@ -13183,7 +13189,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13261,7 +13267,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ59">
         <v>0.9399999999999999</v>
@@ -13389,7 +13395,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q60">
         <v>3.6</v>
@@ -13595,7 +13601,7 @@
         <v>89</v>
       </c>
       <c r="P61" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13801,7 +13807,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -13879,7 +13885,7 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ62">
         <v>0.31</v>
@@ -14007,7 +14013,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q63">
         <v>4.3</v>
@@ -14213,7 +14219,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14291,7 +14297,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ64">
         <v>1.29</v>
@@ -14419,7 +14425,7 @@
         <v>120</v>
       </c>
       <c r="P65" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14500,7 +14506,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ65">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR65">
         <v>1.42</v>
@@ -14706,7 +14712,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ66">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR66">
         <v>1.87</v>
@@ -15449,7 +15455,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q70">
         <v>3.2</v>
@@ -15655,7 +15661,7 @@
         <v>114</v>
       </c>
       <c r="P71" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q71">
         <v>4.75</v>
@@ -15939,10 +15945,10 @@
         <v>0.57</v>
       </c>
       <c r="AP72">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ72">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR72">
         <v>1.36</v>
@@ -16479,7 +16485,7 @@
         <v>125</v>
       </c>
       <c r="P75" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q75">
         <v>2.91</v>
@@ -16685,7 +16691,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -16763,10 +16769,10 @@
         <v>1.14</v>
       </c>
       <c r="AP76">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ76">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR76">
         <v>1.07</v>
@@ -17097,7 +17103,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -17303,7 +17309,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -17587,7 +17593,7 @@
         <v>1.71</v>
       </c>
       <c r="AP80">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ80">
         <v>1.59</v>
@@ -17715,7 +17721,7 @@
         <v>130</v>
       </c>
       <c r="P81" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17921,7 +17927,7 @@
         <v>131</v>
       </c>
       <c r="P82" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q82">
         <v>3.5</v>
@@ -17999,7 +18005,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ82">
         <v>1.59</v>
@@ -18205,7 +18211,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ83">
         <v>0.71</v>
@@ -18414,7 +18420,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ84">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR84">
         <v>1.41</v>
@@ -18951,7 +18957,7 @@
         <v>134</v>
       </c>
       <c r="P87" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q87">
         <v>1.69</v>
@@ -19032,7 +19038,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ87">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR87">
         <v>1.97</v>
@@ -19363,7 +19369,7 @@
         <v>101</v>
       </c>
       <c r="P89" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -19775,7 +19781,7 @@
         <v>137</v>
       </c>
       <c r="P91" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19981,7 +19987,7 @@
         <v>138</v>
       </c>
       <c r="P92" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q92">
         <v>2.4</v>
@@ -20268,7 +20274,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ93">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR93">
         <v>1.71</v>
@@ -20805,7 +20811,7 @@
         <v>141</v>
       </c>
       <c r="P96" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21217,7 +21223,7 @@
         <v>143</v>
       </c>
       <c r="P98" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q98">
         <v>3.25</v>
@@ -21423,7 +21429,7 @@
         <v>81</v>
       </c>
       <c r="P99" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q99">
         <v>3.55</v>
@@ -21629,7 +21635,7 @@
         <v>144</v>
       </c>
       <c r="P100" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q100">
         <v>2.65</v>
@@ -21835,7 +21841,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -21913,7 +21919,7 @@
         <v>2.33</v>
       </c>
       <c r="AP101">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ101">
         <v>2</v>
@@ -22041,7 +22047,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q102">
         <v>2.34</v>
@@ -22328,7 +22334,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ103">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR103">
         <v>1.45</v>
@@ -22740,7 +22746,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ105">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR105">
         <v>1.39</v>
@@ -22865,7 +22871,7 @@
         <v>149</v>
       </c>
       <c r="P106" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -23071,7 +23077,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q107">
         <v>2.82</v>
@@ -23483,7 +23489,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23767,10 +23773,10 @@
         <v>0.45</v>
       </c>
       <c r="AP110">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ110">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR110">
         <v>1.09</v>
@@ -23895,7 +23901,7 @@
         <v>81</v>
       </c>
       <c r="P111" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q111">
         <v>5.2</v>
@@ -24179,7 +24185,7 @@
         <v>0.18</v>
       </c>
       <c r="AP112">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ112">
         <v>0.31</v>
@@ -24388,7 +24394,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ113">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR113">
         <v>1.82</v>
@@ -24513,7 +24519,7 @@
         <v>154</v>
       </c>
       <c r="P114" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q114">
         <v>3.8</v>
@@ -24719,7 +24725,7 @@
         <v>155</v>
       </c>
       <c r="P115" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -24797,7 +24803,7 @@
         <v>1.91</v>
       </c>
       <c r="AP115">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ115">
         <v>1.81</v>
@@ -24925,7 +24931,7 @@
         <v>156</v>
       </c>
       <c r="P116" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q116">
         <v>5.5</v>
@@ -25543,7 +25549,7 @@
         <v>159</v>
       </c>
       <c r="P119" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q119">
         <v>3.75</v>
@@ -25955,7 +25961,7 @@
         <v>160</v>
       </c>
       <c r="P121" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q121">
         <v>0</v>
@@ -26445,7 +26451,7 @@
         <v>1.73</v>
       </c>
       <c r="AP123">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ123">
         <v>1.59</v>
@@ -26779,7 +26785,7 @@
         <v>164</v>
       </c>
       <c r="P125" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q125">
         <v>2.85</v>
@@ -26860,7 +26866,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ125">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR125">
         <v>1.44</v>
@@ -27191,7 +27197,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q127">
         <v>6.5</v>
@@ -27397,7 +27403,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27478,7 +27484,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ128">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR128">
         <v>1.54</v>
@@ -27603,7 +27609,7 @@
         <v>167</v>
       </c>
       <c r="P129" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -27809,7 +27815,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q130">
         <v>1.8</v>
@@ -28093,7 +28099,7 @@
         <v>0.92</v>
       </c>
       <c r="AP131">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ131">
         <v>0.71</v>
@@ -28302,7 +28308,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ132">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR132">
         <v>1.42</v>
@@ -28505,7 +28511,7 @@
         <v>0.58</v>
       </c>
       <c r="AP133">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ133">
         <v>0.6899999999999999</v>
@@ -28839,7 +28845,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -29045,7 +29051,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29123,7 +29129,7 @@
         <v>0.62</v>
       </c>
       <c r="AP136">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ136">
         <v>0.6899999999999999</v>
@@ -29251,7 +29257,7 @@
         <v>81</v>
       </c>
       <c r="P137" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q137">
         <v>0</v>
@@ -29329,7 +29335,7 @@
         <v>2.08</v>
       </c>
       <c r="AP137">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ137">
         <v>2</v>
@@ -29457,7 +29463,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q138">
         <v>3.4</v>
@@ -29538,7 +29544,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ138">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR138">
         <v>1.64</v>
@@ -30075,7 +30081,7 @@
         <v>170</v>
       </c>
       <c r="P141" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q141">
         <v>2</v>
@@ -30359,7 +30365,7 @@
         <v>1.36</v>
       </c>
       <c r="AP142">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ142">
         <v>1.29</v>
@@ -30487,7 +30493,7 @@
         <v>81</v>
       </c>
       <c r="P143" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q143">
         <v>2.45</v>
@@ -30568,7 +30574,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ143">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR143">
         <v>1.51</v>
@@ -30693,7 +30699,7 @@
         <v>178</v>
       </c>
       <c r="P144" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q144">
         <v>9.5</v>
@@ -30977,7 +30983,7 @@
         <v>0.93</v>
       </c>
       <c r="AP145">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ145">
         <v>0.9399999999999999</v>
@@ -31311,7 +31317,7 @@
         <v>181</v>
       </c>
       <c r="P147" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q147">
         <v>3.6</v>
@@ -31517,7 +31523,7 @@
         <v>94</v>
       </c>
       <c r="P148" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31929,7 +31935,7 @@
         <v>183</v>
       </c>
       <c r="P150" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q150">
         <v>0</v>
@@ -32007,7 +32013,7 @@
         <v>0.27</v>
       </c>
       <c r="AP150">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ150">
         <v>0.31</v>
@@ -32213,7 +32219,7 @@
         <v>1.27</v>
       </c>
       <c r="AP151">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ151">
         <v>1.29</v>
@@ -32422,7 +32428,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ152">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AR152">
         <v>1.81</v>
@@ -32547,7 +32553,7 @@
         <v>186</v>
       </c>
       <c r="P153" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q153">
         <v>5.5</v>
@@ -32628,7 +32634,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ153">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR153">
         <v>1.36</v>
@@ -32753,7 +32759,7 @@
         <v>187</v>
       </c>
       <c r="P154" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q154">
         <v>5</v>
@@ -32959,7 +32965,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q155">
         <v>0</v>
@@ -33371,7 +33377,7 @@
         <v>190</v>
       </c>
       <c r="P157" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33577,7 +33583,7 @@
         <v>191</v>
       </c>
       <c r="P158" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q158">
         <v>3.25</v>
@@ -33783,7 +33789,7 @@
         <v>192</v>
       </c>
       <c r="P159" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q159">
         <v>2.5</v>
@@ -34067,10 +34073,10 @@
         <v>1.57</v>
       </c>
       <c r="AP160">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AQ160">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR160">
         <v>1.65</v>
@@ -34607,7 +34613,7 @@
         <v>194</v>
       </c>
       <c r="P163" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q163">
         <v>2.4</v>
@@ -34763,6 +34769,418 @@
         <v>0</v>
       </c>
       <c r="BP163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7483834</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45781.52083333334</v>
+      </c>
+      <c r="F164">
+        <v>33</v>
+      </c>
+      <c r="G164" t="s">
+        <v>79</v>
+      </c>
+      <c r="H164" t="s">
+        <v>74</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>4</v>
+      </c>
+      <c r="K164">
+        <v>4</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>5</v>
+      </c>
+      <c r="N164">
+        <v>5</v>
+      </c>
+      <c r="O164" t="s">
+        <v>81</v>
+      </c>
+      <c r="P164" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q164">
+        <v>0</v>
+      </c>
+      <c r="R164">
+        <v>0</v>
+      </c>
+      <c r="S164">
+        <v>0</v>
+      </c>
+      <c r="T164">
+        <v>0</v>
+      </c>
+      <c r="U164">
+        <v>0</v>
+      </c>
+      <c r="V164">
+        <v>0</v>
+      </c>
+      <c r="W164">
+        <v>0</v>
+      </c>
+      <c r="X164">
+        <v>0</v>
+      </c>
+      <c r="Y164">
+        <v>0</v>
+      </c>
+      <c r="Z164">
+        <v>5.2</v>
+      </c>
+      <c r="AA164">
+        <v>3.96</v>
+      </c>
+      <c r="AB164">
+        <v>1.48</v>
+      </c>
+      <c r="AC164">
+        <v>0</v>
+      </c>
+      <c r="AD164">
+        <v>0</v>
+      </c>
+      <c r="AE164">
+        <v>0</v>
+      </c>
+      <c r="AF164">
+        <v>0</v>
+      </c>
+      <c r="AG164">
+        <v>1.6</v>
+      </c>
+      <c r="AH164">
+        <v>2.1</v>
+      </c>
+      <c r="AI164">
+        <v>0</v>
+      </c>
+      <c r="AJ164">
+        <v>0</v>
+      </c>
+      <c r="AK164">
+        <v>0</v>
+      </c>
+      <c r="AL164">
+        <v>0</v>
+      </c>
+      <c r="AM164">
+        <v>0</v>
+      </c>
+      <c r="AN164">
+        <v>1.38</v>
+      </c>
+      <c r="AO164">
+        <v>1.53</v>
+      </c>
+      <c r="AP164">
+        <v>1.29</v>
+      </c>
+      <c r="AQ164">
+        <v>1.63</v>
+      </c>
+      <c r="AR164">
+        <v>1.42</v>
+      </c>
+      <c r="AS164">
+        <v>1.74</v>
+      </c>
+      <c r="AT164">
+        <v>3.16</v>
+      </c>
+      <c r="AU164">
+        <v>-1</v>
+      </c>
+      <c r="AV164">
+        <v>-1</v>
+      </c>
+      <c r="AW164">
+        <v>-1</v>
+      </c>
+      <c r="AX164">
+        <v>-1</v>
+      </c>
+      <c r="AY164">
+        <v>-1</v>
+      </c>
+      <c r="AZ164">
+        <v>-1</v>
+      </c>
+      <c r="BA164">
+        <v>-1</v>
+      </c>
+      <c r="BB164">
+        <v>-1</v>
+      </c>
+      <c r="BC164">
+        <v>-1</v>
+      </c>
+      <c r="BD164">
+        <v>0</v>
+      </c>
+      <c r="BE164">
+        <v>0</v>
+      </c>
+      <c r="BF164">
+        <v>0</v>
+      </c>
+      <c r="BG164">
+        <v>0</v>
+      </c>
+      <c r="BH164">
+        <v>0</v>
+      </c>
+      <c r="BI164">
+        <v>0</v>
+      </c>
+      <c r="BJ164">
+        <v>0</v>
+      </c>
+      <c r="BK164">
+        <v>0</v>
+      </c>
+      <c r="BL164">
+        <v>0</v>
+      </c>
+      <c r="BM164">
+        <v>0</v>
+      </c>
+      <c r="BN164">
+        <v>0</v>
+      </c>
+      <c r="BO164">
+        <v>0</v>
+      </c>
+      <c r="BP164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7483833</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45781.63541666666</v>
+      </c>
+      <c r="F165">
+        <v>33</v>
+      </c>
+      <c r="G165" t="s">
+        <v>77</v>
+      </c>
+      <c r="H165" t="s">
+        <v>76</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>3</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>3</v>
+      </c>
+      <c r="O165" t="s">
+        <v>195</v>
+      </c>
+      <c r="P165" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q165">
+        <v>2.1</v>
+      </c>
+      <c r="R165">
+        <v>2.3</v>
+      </c>
+      <c r="S165">
+        <v>5</v>
+      </c>
+      <c r="T165">
+        <v>1.33</v>
+      </c>
+      <c r="U165">
+        <v>3.25</v>
+      </c>
+      <c r="V165">
+        <v>2.63</v>
+      </c>
+      <c r="W165">
+        <v>1.44</v>
+      </c>
+      <c r="X165">
+        <v>6</v>
+      </c>
+      <c r="Y165">
+        <v>1.11</v>
+      </c>
+      <c r="Z165">
+        <v>1.49</v>
+      </c>
+      <c r="AA165">
+        <v>3.84</v>
+      </c>
+      <c r="AB165">
+        <v>5.3</v>
+      </c>
+      <c r="AC165">
+        <v>0</v>
+      </c>
+      <c r="AD165">
+        <v>0</v>
+      </c>
+      <c r="AE165">
+        <v>0</v>
+      </c>
+      <c r="AF165">
+        <v>0</v>
+      </c>
+      <c r="AG165">
+        <v>1.76</v>
+      </c>
+      <c r="AH165">
+        <v>1.94</v>
+      </c>
+      <c r="AI165">
+        <v>1.83</v>
+      </c>
+      <c r="AJ165">
+        <v>1.83</v>
+      </c>
+      <c r="AK165">
+        <v>0</v>
+      </c>
+      <c r="AL165">
+        <v>0</v>
+      </c>
+      <c r="AM165">
+        <v>0</v>
+      </c>
+      <c r="AN165">
+        <v>1.69</v>
+      </c>
+      <c r="AO165">
+        <v>0.75</v>
+      </c>
+      <c r="AP165">
+        <v>1.76</v>
+      </c>
+      <c r="AQ165">
+        <v>0.71</v>
+      </c>
+      <c r="AR165">
+        <v>1.61</v>
+      </c>
+      <c r="AS165">
+        <v>1.21</v>
+      </c>
+      <c r="AT165">
+        <v>2.82</v>
+      </c>
+      <c r="AU165">
+        <v>8</v>
+      </c>
+      <c r="AV165">
+        <v>5</v>
+      </c>
+      <c r="AW165">
+        <v>10</v>
+      </c>
+      <c r="AX165">
+        <v>2</v>
+      </c>
+      <c r="AY165">
+        <v>18</v>
+      </c>
+      <c r="AZ165">
+        <v>7</v>
+      </c>
+      <c r="BA165">
+        <v>7</v>
+      </c>
+      <c r="BB165">
+        <v>4</v>
+      </c>
+      <c r="BC165">
+        <v>11</v>
+      </c>
+      <c r="BD165">
+        <v>0</v>
+      </c>
+      <c r="BE165">
+        <v>0</v>
+      </c>
+      <c r="BF165">
+        <v>0</v>
+      </c>
+      <c r="BG165">
+        <v>0</v>
+      </c>
+      <c r="BH165">
+        <v>0</v>
+      </c>
+      <c r="BI165">
+        <v>0</v>
+      </c>
+      <c r="BJ165">
+        <v>0</v>
+      </c>
+      <c r="BK165">
+        <v>0</v>
+      </c>
+      <c r="BL165">
+        <v>0</v>
+      </c>
+      <c r="BM165">
+        <v>0</v>
+      </c>
+      <c r="BN165">
+        <v>0</v>
+      </c>
+      <c r="BO165">
+        <v>0</v>
+      </c>
+      <c r="BP165">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
@@ -34912,31 +34912,31 @@
         <v>3.16</v>
       </c>
       <c r="AU164">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV164">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AW164">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX164">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY164">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AZ164">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="BA164">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB164">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BC164">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD164">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="273">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -604,6 +604,9 @@
     <t>['47', '54', '71']</t>
   </si>
   <si>
+    <t>['30']</t>
+  </si>
+  <si>
     <t>['83']</t>
   </si>
   <si>
@@ -827,6 +830,9 @@
   </si>
   <si>
     <t>['5', '6', '25', '43', '90+3']</t>
+  </si>
+  <si>
+    <t>['43']</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP165"/>
+  <dimension ref="A1:BP166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2065,7 +2071,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -2143,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ5">
         <v>0.71</v>
@@ -2683,7 +2689,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -3507,7 +3513,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3794,7 +3800,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ13">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AR13">
         <v>1.72</v>
@@ -3997,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ14">
         <v>1.29</v>
@@ -4331,7 +4337,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4743,7 +4749,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -5027,7 +5033,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ19">
         <v>0.71</v>
@@ -5567,7 +5573,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5979,7 +5985,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -6185,7 +6191,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6266,7 +6272,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ25">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AR25">
         <v>1.83</v>
@@ -6597,7 +6603,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6881,7 +6887,7 @@
         <v>2</v>
       </c>
       <c r="AP28">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ28">
         <v>2</v>
@@ -7009,7 +7015,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -7421,7 +7427,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7911,7 +7917,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ33">
         <v>0.9399999999999999</v>
@@ -8120,7 +8126,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ34">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AR34">
         <v>1.21</v>
@@ -8657,7 +8663,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -9069,7 +9075,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -9353,7 +9359,7 @@
         <v>2.25</v>
       </c>
       <c r="AP40">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ40">
         <v>1.81</v>
@@ -9687,7 +9693,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q42">
         <v>1.95</v>
@@ -10099,7 +10105,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10305,7 +10311,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10386,7 +10392,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ45">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AR45">
         <v>1.07</v>
@@ -10717,7 +10723,7 @@
         <v>81</v>
       </c>
       <c r="P47" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -10923,7 +10929,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11004,7 +11010,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ48">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AR48">
         <v>1.28</v>
@@ -11335,7 +11341,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q50">
         <v>6.1</v>
@@ -12159,7 +12165,7 @@
         <v>111</v>
       </c>
       <c r="P54" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12237,10 +12243,10 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ54">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AR54">
         <v>1.59</v>
@@ -12365,7 +12371,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q55">
         <v>2.1</v>
@@ -12571,7 +12577,7 @@
         <v>81</v>
       </c>
       <c r="P56" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12777,7 +12783,7 @@
         <v>115</v>
       </c>
       <c r="P57" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q57">
         <v>1.95</v>
@@ -13189,7 +13195,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13395,7 +13401,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q60">
         <v>3.6</v>
@@ -13601,7 +13607,7 @@
         <v>89</v>
       </c>
       <c r="P61" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13807,7 +13813,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -14013,7 +14019,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q63">
         <v>4.3</v>
@@ -14219,7 +14225,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14425,7 +14431,7 @@
         <v>120</v>
       </c>
       <c r="P65" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14506,7 +14512,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ65">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AR65">
         <v>1.42</v>
@@ -15121,7 +15127,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ68">
         <v>0.6899999999999999</v>
@@ -15455,7 +15461,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q70">
         <v>3.2</v>
@@ -15661,7 +15667,7 @@
         <v>114</v>
       </c>
       <c r="P71" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q71">
         <v>4.75</v>
@@ -16485,7 +16491,7 @@
         <v>125</v>
       </c>
       <c r="P75" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q75">
         <v>2.91</v>
@@ -16691,7 +16697,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -16772,7 +16778,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ76">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AR76">
         <v>1.07</v>
@@ -17103,7 +17109,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -17309,7 +17315,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -17721,7 +17727,7 @@
         <v>130</v>
       </c>
       <c r="P81" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17927,7 +17933,7 @@
         <v>131</v>
       </c>
       <c r="P82" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q82">
         <v>3.5</v>
@@ -18420,7 +18426,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ84">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AR84">
         <v>1.41</v>
@@ -18957,7 +18963,7 @@
         <v>134</v>
       </c>
       <c r="P87" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q87">
         <v>1.69</v>
@@ -19369,7 +19375,7 @@
         <v>101</v>
       </c>
       <c r="P89" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -19653,7 +19659,7 @@
         <v>0.13</v>
       </c>
       <c r="AP90">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ90">
         <v>0.31</v>
@@ -19781,7 +19787,7 @@
         <v>137</v>
       </c>
       <c r="P91" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19987,7 +19993,7 @@
         <v>138</v>
       </c>
       <c r="P92" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q92">
         <v>2.4</v>
@@ -20271,7 +20277,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP93">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ93">
         <v>0.71</v>
@@ -20811,7 +20817,7 @@
         <v>141</v>
       </c>
       <c r="P96" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21223,7 +21229,7 @@
         <v>143</v>
       </c>
       <c r="P98" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q98">
         <v>3.25</v>
@@ -21429,7 +21435,7 @@
         <v>81</v>
       </c>
       <c r="P99" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q99">
         <v>3.55</v>
@@ -21635,7 +21641,7 @@
         <v>144</v>
       </c>
       <c r="P100" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q100">
         <v>2.65</v>
@@ -21841,7 +21847,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -22047,7 +22053,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q102">
         <v>2.34</v>
@@ -22125,7 +22131,7 @@
         <v>1.5</v>
       </c>
       <c r="AP102">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ102">
         <v>1.29</v>
@@ -22334,7 +22340,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ103">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AR103">
         <v>1.45</v>
@@ -22871,7 +22877,7 @@
         <v>149</v>
       </c>
       <c r="P106" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -23077,7 +23083,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q107">
         <v>2.82</v>
@@ -23361,7 +23367,7 @@
         <v>1.1</v>
       </c>
       <c r="AP108">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ108">
         <v>0.71</v>
@@ -23489,7 +23495,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23901,7 +23907,7 @@
         <v>81</v>
       </c>
       <c r="P111" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q111">
         <v>5.2</v>
@@ -24394,7 +24400,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ113">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AR113">
         <v>1.82</v>
@@ -24519,7 +24525,7 @@
         <v>154</v>
       </c>
       <c r="P114" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q114">
         <v>3.8</v>
@@ -24725,7 +24731,7 @@
         <v>155</v>
       </c>
       <c r="P115" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -24931,7 +24937,7 @@
         <v>156</v>
       </c>
       <c r="P116" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q116">
         <v>5.5</v>
@@ -25549,7 +25555,7 @@
         <v>159</v>
       </c>
       <c r="P119" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q119">
         <v>3.75</v>
@@ -25833,7 +25839,7 @@
         <v>2.18</v>
       </c>
       <c r="AP120">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ120">
         <v>2</v>
@@ -25961,7 +25967,7 @@
         <v>160</v>
       </c>
       <c r="P121" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q121">
         <v>0</v>
@@ -26785,7 +26791,7 @@
         <v>164</v>
       </c>
       <c r="P125" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q125">
         <v>2.85</v>
@@ -27197,7 +27203,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q127">
         <v>6.5</v>
@@ -27403,7 +27409,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27609,7 +27615,7 @@
         <v>167</v>
       </c>
       <c r="P129" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -27687,7 +27693,7 @@
         <v>1.92</v>
       </c>
       <c r="AP129">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ129">
         <v>1.81</v>
@@ -27815,7 +27821,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q130">
         <v>1.8</v>
@@ -28308,7 +28314,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ132">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AR132">
         <v>1.42</v>
@@ -28845,7 +28851,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -29051,7 +29057,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29257,7 +29263,7 @@
         <v>81</v>
       </c>
       <c r="P137" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q137">
         <v>0</v>
@@ -29463,7 +29469,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q138">
         <v>3.4</v>
@@ -29544,7 +29550,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ138">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AR138">
         <v>1.64</v>
@@ -30081,7 +30087,7 @@
         <v>170</v>
       </c>
       <c r="P141" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q141">
         <v>2</v>
@@ -30493,7 +30499,7 @@
         <v>81</v>
       </c>
       <c r="P143" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q143">
         <v>2.45</v>
@@ -30699,7 +30705,7 @@
         <v>178</v>
       </c>
       <c r="P144" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q144">
         <v>9.5</v>
@@ -31317,7 +31323,7 @@
         <v>181</v>
       </c>
       <c r="P147" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q147">
         <v>3.6</v>
@@ -31523,7 +31529,7 @@
         <v>94</v>
       </c>
       <c r="P148" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31935,7 +31941,7 @@
         <v>183</v>
       </c>
       <c r="P150" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q150">
         <v>0</v>
@@ -32553,7 +32559,7 @@
         <v>186</v>
       </c>
       <c r="P153" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q153">
         <v>5.5</v>
@@ -32634,7 +32640,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ153">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AR153">
         <v>1.36</v>
@@ -32759,7 +32765,7 @@
         <v>187</v>
       </c>
       <c r="P154" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q154">
         <v>5</v>
@@ -32965,7 +32971,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q155">
         <v>0</v>
@@ -33249,7 +33255,7 @@
         <v>0.73</v>
       </c>
       <c r="AP156">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AQ156">
         <v>0.6899999999999999</v>
@@ -33377,7 +33383,7 @@
         <v>190</v>
       </c>
       <c r="P157" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33583,7 +33589,7 @@
         <v>191</v>
       </c>
       <c r="P158" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q158">
         <v>3.25</v>
@@ -33789,7 +33795,7 @@
         <v>192</v>
       </c>
       <c r="P159" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q159">
         <v>2.5</v>
@@ -34076,7 +34082,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ160">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AR160">
         <v>1.65</v>
@@ -34613,7 +34619,7 @@
         <v>194</v>
       </c>
       <c r="P163" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q163">
         <v>2.4</v>
@@ -34819,7 +34825,7 @@
         <v>81</v>
       </c>
       <c r="P164" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q164">
         <v>0</v>
@@ -34900,7 +34906,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ164">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AR164">
         <v>1.42</v>
@@ -35181,6 +35187,212 @@
         <v>0</v>
       </c>
       <c r="BP165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7483816</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45784.57291666666</v>
+      </c>
+      <c r="F166">
+        <v>29</v>
+      </c>
+      <c r="G166" t="s">
+        <v>73</v>
+      </c>
+      <c r="H166" t="s">
+        <v>74</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <v>2</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+      <c r="N166">
+        <v>2</v>
+      </c>
+      <c r="O166" t="s">
+        <v>196</v>
+      </c>
+      <c r="P166" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q166">
+        <v>2.88</v>
+      </c>
+      <c r="R166">
+        <v>2.25</v>
+      </c>
+      <c r="S166">
+        <v>3.1</v>
+      </c>
+      <c r="T166">
+        <v>1.33</v>
+      </c>
+      <c r="U166">
+        <v>3.25</v>
+      </c>
+      <c r="V166">
+        <v>2.63</v>
+      </c>
+      <c r="W166">
+        <v>1.44</v>
+      </c>
+      <c r="X166">
+        <v>6</v>
+      </c>
+      <c r="Y166">
+        <v>1.11</v>
+      </c>
+      <c r="Z166">
+        <v>2.34</v>
+      </c>
+      <c r="AA166">
+        <v>3.32</v>
+      </c>
+      <c r="AB166">
+        <v>2.56</v>
+      </c>
+      <c r="AC166">
+        <v>0</v>
+      </c>
+      <c r="AD166">
+        <v>0</v>
+      </c>
+      <c r="AE166">
+        <v>0</v>
+      </c>
+      <c r="AF166">
+        <v>0</v>
+      </c>
+      <c r="AG166">
+        <v>1.76</v>
+      </c>
+      <c r="AH166">
+        <v>1.94</v>
+      </c>
+      <c r="AI166">
+        <v>1.62</v>
+      </c>
+      <c r="AJ166">
+        <v>2.2</v>
+      </c>
+      <c r="AK166">
+        <v>0</v>
+      </c>
+      <c r="AL166">
+        <v>0</v>
+      </c>
+      <c r="AM166">
+        <v>0</v>
+      </c>
+      <c r="AN166">
+        <v>2.33</v>
+      </c>
+      <c r="AO166">
+        <v>1.63</v>
+      </c>
+      <c r="AP166">
+        <v>2.25</v>
+      </c>
+      <c r="AQ166">
+        <v>1.59</v>
+      </c>
+      <c r="AR166">
+        <v>1.96</v>
+      </c>
+      <c r="AS166">
+        <v>1.78</v>
+      </c>
+      <c r="AT166">
+        <v>3.74</v>
+      </c>
+      <c r="AU166">
+        <v>5</v>
+      </c>
+      <c r="AV166">
+        <v>8</v>
+      </c>
+      <c r="AW166">
+        <v>15</v>
+      </c>
+      <c r="AX166">
+        <v>6</v>
+      </c>
+      <c r="AY166">
+        <v>20</v>
+      </c>
+      <c r="AZ166">
+        <v>14</v>
+      </c>
+      <c r="BA166">
+        <v>7</v>
+      </c>
+      <c r="BB166">
+        <v>5</v>
+      </c>
+      <c r="BC166">
+        <v>12</v>
+      </c>
+      <c r="BD166">
+        <v>0</v>
+      </c>
+      <c r="BE166">
+        <v>0</v>
+      </c>
+      <c r="BF166">
+        <v>0</v>
+      </c>
+      <c r="BG166">
+        <v>0</v>
+      </c>
+      <c r="BH166">
+        <v>0</v>
+      </c>
+      <c r="BI166">
+        <v>0</v>
+      </c>
+      <c r="BJ166">
+        <v>0</v>
+      </c>
+      <c r="BK166">
+        <v>0</v>
+      </c>
+      <c r="BL166">
+        <v>0</v>
+      </c>
+      <c r="BM166">
+        <v>0</v>
+      </c>
+      <c r="BN166">
+        <v>0</v>
+      </c>
+      <c r="BO166">
+        <v>0</v>
+      </c>
+      <c r="BP166">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="277">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -607,6 +607,12 @@
     <t>['30']</t>
   </si>
   <si>
+    <t>['12', '32', '40', '45+2']</t>
+  </si>
+  <si>
+    <t>['9', '37']</t>
+  </si>
+  <si>
     <t>['83']</t>
   </si>
   <si>
@@ -833,6 +839,12 @@
   </si>
   <si>
     <t>['43']</t>
+  </si>
+  <si>
+    <t>['43', '48', '52']</t>
+  </si>
+  <si>
+    <t>['14']</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP166"/>
+  <dimension ref="A1:BP169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1740,7 +1752,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ3">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1943,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ4">
         <v>0.31</v>
@@ -2071,7 +2083,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -2355,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ6">
         <v>1.29</v>
@@ -2564,7 +2576,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ7">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2689,7 +2701,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2976,7 +2988,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3179,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ10">
         <v>0.9399999999999999</v>
@@ -3513,7 +3525,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3594,7 +3606,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ12">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3797,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ13">
         <v>1.59</v>
@@ -4337,7 +4349,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4624,7 +4636,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR17">
         <v>1.21</v>
@@ -4749,7 +4761,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4827,10 +4839,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ18">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR18">
         <v>2.23</v>
@@ -5239,10 +5251,10 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ20">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR20">
         <v>0.95</v>
@@ -5573,7 +5585,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5651,7 +5663,7 @@
         <v>0.5</v>
       </c>
       <c r="AP22">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ22">
         <v>1.29</v>
@@ -5985,7 +5997,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -6191,7 +6203,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6475,10 +6487,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ26">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR26">
         <v>1.62</v>
@@ -6603,7 +6615,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6684,7 +6696,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ27">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR27">
         <v>0.98</v>
@@ -6890,7 +6902,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ28">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR28">
         <v>1.74</v>
@@ -7015,7 +7027,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -7093,7 +7105,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ29">
         <v>0.9399999999999999</v>
@@ -7299,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ30">
         <v>0.31</v>
@@ -7427,7 +7439,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -8535,7 +8547,7 @@
         <v>1.2</v>
       </c>
       <c r="AP36">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ36">
         <v>0.9399999999999999</v>
@@ -8663,7 +8675,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -8744,7 +8756,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR37">
         <v>1.39</v>
@@ -8947,7 +8959,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ38">
         <v>0.71</v>
@@ -9075,7 +9087,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -9153,7 +9165,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ39">
         <v>0.31</v>
@@ -9362,7 +9374,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ40">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR40">
         <v>1.6</v>
@@ -9565,7 +9577,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ41">
         <v>1.59</v>
@@ -9693,7 +9705,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q42">
         <v>1.95</v>
@@ -10105,7 +10117,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10311,7 +10323,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10723,7 +10735,7 @@
         <v>81</v>
       </c>
       <c r="P47" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -10804,7 +10816,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ47">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR47">
         <v>1.05</v>
@@ -10929,7 +10941,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11007,7 +11019,7 @@
         <v>1.25</v>
       </c>
       <c r="AP48">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ48">
         <v>1.59</v>
@@ -11216,7 +11228,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ49">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR49">
         <v>1.31</v>
@@ -11341,7 +11353,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q50">
         <v>6.1</v>
@@ -11831,7 +11843,7 @@
         <v>0.2</v>
       </c>
       <c r="AP52">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ52">
         <v>0.71</v>
@@ -12165,7 +12177,7 @@
         <v>111</v>
       </c>
       <c r="P54" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12371,7 +12383,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q55">
         <v>2.1</v>
@@ -12452,7 +12464,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ55">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR55">
         <v>1.92</v>
@@ -12577,7 +12589,7 @@
         <v>81</v>
       </c>
       <c r="P56" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12658,7 +12670,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ56">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR56">
         <v>1.1</v>
@@ -12783,7 +12795,7 @@
         <v>115</v>
       </c>
       <c r="P57" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q57">
         <v>1.95</v>
@@ -12861,7 +12873,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ57">
         <v>0.71</v>
@@ -13070,7 +13082,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ58">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR58">
         <v>1.46</v>
@@ -13195,7 +13207,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13401,7 +13413,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q60">
         <v>3.6</v>
@@ -13479,7 +13491,7 @@
         <v>1.75</v>
       </c>
       <c r="AP60">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ60">
         <v>1.59</v>
@@ -13607,7 +13619,7 @@
         <v>89</v>
       </c>
       <c r="P61" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13688,7 +13700,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ61">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR61">
         <v>1.2</v>
@@ -13813,7 +13825,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -14019,7 +14031,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q63">
         <v>4.3</v>
@@ -14097,7 +14109,7 @@
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ63">
         <v>1.59</v>
@@ -14225,7 +14237,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14431,7 +14443,7 @@
         <v>120</v>
       </c>
       <c r="P65" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -15130,7 +15142,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ68">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR68">
         <v>1.5</v>
@@ -15333,7 +15345,7 @@
         <v>0.83</v>
       </c>
       <c r="AP69">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ69">
         <v>0.71</v>
@@ -15461,7 +15473,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q70">
         <v>3.2</v>
@@ -15539,10 +15551,10 @@
         <v>2.33</v>
       </c>
       <c r="AP70">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ70">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR70">
         <v>1.99</v>
@@ -15667,7 +15679,7 @@
         <v>114</v>
       </c>
       <c r="P71" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q71">
         <v>4.75</v>
@@ -15748,7 +15760,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ71">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR71">
         <v>1.47</v>
@@ -16491,7 +16503,7 @@
         <v>125</v>
       </c>
       <c r="P75" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q75">
         <v>2.91</v>
@@ -16697,7 +16709,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -16981,10 +16993,10 @@
         <v>2.14</v>
       </c>
       <c r="AP77">
+        <v>1.76</v>
+      </c>
+      <c r="AQ77">
         <v>1.88</v>
-      </c>
-      <c r="AQ77">
-        <v>1.81</v>
       </c>
       <c r="AR77">
         <v>2</v>
@@ -17109,7 +17121,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -17315,7 +17327,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -17393,10 +17405,10 @@
         <v>2.43</v>
       </c>
       <c r="AP79">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ79">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR79">
         <v>1.42</v>
@@ -17727,7 +17739,7 @@
         <v>130</v>
       </c>
       <c r="P81" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17933,7 +17945,7 @@
         <v>131</v>
       </c>
       <c r="P82" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q82">
         <v>3.5</v>
@@ -18632,7 +18644,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ85">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR85">
         <v>1.72</v>
@@ -18835,10 +18847,10 @@
         <v>0.75</v>
       </c>
       <c r="AP86">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ86">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR86">
         <v>1.46</v>
@@ -18963,7 +18975,7 @@
         <v>134</v>
       </c>
       <c r="P87" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q87">
         <v>1.69</v>
@@ -19041,7 +19053,7 @@
         <v>0.5</v>
       </c>
       <c r="AP87">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ87">
         <v>0.71</v>
@@ -19247,10 +19259,10 @@
         <v>2.5</v>
       </c>
       <c r="AP88">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ88">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR88">
         <v>1.51</v>
@@ -19375,7 +19387,7 @@
         <v>101</v>
       </c>
       <c r="P89" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -19787,7 +19799,7 @@
         <v>137</v>
       </c>
       <c r="P91" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19865,10 +19877,10 @@
         <v>1.88</v>
       </c>
       <c r="AP91">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ91">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR91">
         <v>1.34</v>
@@ -19993,7 +20005,7 @@
         <v>138</v>
       </c>
       <c r="P92" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q92">
         <v>2.4</v>
@@ -20071,7 +20083,7 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ92">
         <v>1.29</v>
@@ -20689,7 +20701,7 @@
         <v>0.11</v>
       </c>
       <c r="AP95">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ95">
         <v>0.31</v>
@@ -20817,7 +20829,7 @@
         <v>141</v>
       </c>
       <c r="P96" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -20898,7 +20910,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ96">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR96">
         <v>1.35</v>
@@ -21101,7 +21113,7 @@
         <v>1.1</v>
       </c>
       <c r="AP97">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ97">
         <v>0.9399999999999999</v>
@@ -21229,7 +21241,7 @@
         <v>143</v>
       </c>
       <c r="P98" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q98">
         <v>3.25</v>
@@ -21310,7 +21322,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ98">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR98">
         <v>1.44</v>
@@ -21435,7 +21447,7 @@
         <v>81</v>
       </c>
       <c r="P99" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q99">
         <v>3.55</v>
@@ -21641,7 +21653,7 @@
         <v>144</v>
       </c>
       <c r="P100" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q100">
         <v>2.65</v>
@@ -21719,7 +21731,7 @@
         <v>1.44</v>
       </c>
       <c r="AP100">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ100">
         <v>1.59</v>
@@ -21847,7 +21859,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -21928,7 +21940,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ101">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR101">
         <v>1.43</v>
@@ -22053,7 +22065,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q102">
         <v>2.34</v>
@@ -22337,7 +22349,7 @@
         <v>1.33</v>
       </c>
       <c r="AP103">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ103">
         <v>1.59</v>
@@ -22877,7 +22889,7 @@
         <v>149</v>
       </c>
       <c r="P106" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -23083,7 +23095,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q107">
         <v>2.82</v>
@@ -23161,10 +23173,10 @@
         <v>2.1</v>
       </c>
       <c r="AP107">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ107">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR107">
         <v>1.54</v>
@@ -23495,7 +23507,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23573,10 +23585,10 @@
         <v>0.7</v>
       </c>
       <c r="AP109">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ109">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR109">
         <v>2.1</v>
@@ -23907,7 +23919,7 @@
         <v>81</v>
       </c>
       <c r="P111" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q111">
         <v>5.2</v>
@@ -24525,7 +24537,7 @@
         <v>154</v>
       </c>
       <c r="P114" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q114">
         <v>3.8</v>
@@ -24603,7 +24615,7 @@
         <v>1.64</v>
       </c>
       <c r="AP114">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ114">
         <v>1.29</v>
@@ -24731,7 +24743,7 @@
         <v>155</v>
       </c>
       <c r="P115" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -24812,7 +24824,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ115">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR115">
         <v>1.09</v>
@@ -24937,7 +24949,7 @@
         <v>156</v>
       </c>
       <c r="P116" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q116">
         <v>5.5</v>
@@ -25018,7 +25030,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ116">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR116">
         <v>1.46</v>
@@ -25221,7 +25233,7 @@
         <v>0.25</v>
       </c>
       <c r="AP117">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ117">
         <v>0.31</v>
@@ -25427,10 +25439,10 @@
         <v>0.64</v>
       </c>
       <c r="AP118">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ118">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR118">
         <v>1.52</v>
@@ -25555,7 +25567,7 @@
         <v>159</v>
       </c>
       <c r="P119" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q119">
         <v>3.75</v>
@@ -25636,7 +25648,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ119">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR119">
         <v>1.44</v>
@@ -25842,7 +25854,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ120">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR120">
         <v>1.91</v>
@@ -25967,7 +25979,7 @@
         <v>160</v>
       </c>
       <c r="P121" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q121">
         <v>0</v>
@@ -26045,7 +26057,7 @@
         <v>1</v>
       </c>
       <c r="AP121">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ121">
         <v>0.9399999999999999</v>
@@ -26791,7 +26803,7 @@
         <v>164</v>
       </c>
       <c r="P125" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q125">
         <v>2.85</v>
@@ -27075,7 +27087,7 @@
         <v>1</v>
       </c>
       <c r="AP126">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ126">
         <v>0.9399999999999999</v>
@@ -27203,7 +27215,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q127">
         <v>6.5</v>
@@ -27284,7 +27296,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ127">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR127">
         <v>1.33</v>
@@ -27409,7 +27421,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27487,7 +27499,7 @@
         <v>0.62</v>
       </c>
       <c r="AP128">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ128">
         <v>0.71</v>
@@ -27615,7 +27627,7 @@
         <v>167</v>
       </c>
       <c r="P129" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -27696,7 +27708,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ129">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR129">
         <v>1.87</v>
@@ -27821,7 +27833,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q130">
         <v>1.8</v>
@@ -27899,7 +27911,7 @@
         <v>0.31</v>
       </c>
       <c r="AP130">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ130">
         <v>0.31</v>
@@ -28520,7 +28532,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ133">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR133">
         <v>1.12</v>
@@ -28851,7 +28863,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -29057,7 +29069,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29138,7 +29150,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ136">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR136">
         <v>1.53</v>
@@ -29263,7 +29275,7 @@
         <v>81</v>
       </c>
       <c r="P137" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q137">
         <v>0</v>
@@ -29344,7 +29356,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ137">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR137">
         <v>1.25</v>
@@ -29469,7 +29481,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q138">
         <v>3.4</v>
@@ -29547,7 +29559,7 @@
         <v>1.33</v>
       </c>
       <c r="AP138">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ138">
         <v>1.59</v>
@@ -30087,7 +30099,7 @@
         <v>170</v>
       </c>
       <c r="P141" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q141">
         <v>2</v>
@@ -30168,7 +30180,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ141">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR141">
         <v>1.82</v>
@@ -30499,7 +30511,7 @@
         <v>81</v>
       </c>
       <c r="P143" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q143">
         <v>2.45</v>
@@ -30577,7 +30589,7 @@
         <v>0.64</v>
       </c>
       <c r="AP143">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ143">
         <v>0.71</v>
@@ -30705,7 +30717,7 @@
         <v>178</v>
       </c>
       <c r="P144" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q144">
         <v>9.5</v>
@@ -30786,7 +30798,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ144">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR144">
         <v>1.54</v>
@@ -31195,7 +31207,7 @@
         <v>0.79</v>
       </c>
       <c r="AP146">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ146">
         <v>0.71</v>
@@ -31323,7 +31335,7 @@
         <v>181</v>
       </c>
       <c r="P147" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q147">
         <v>3.6</v>
@@ -31401,7 +31413,7 @@
         <v>1.46</v>
       </c>
       <c r="AP147">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ147">
         <v>1.59</v>
@@ -31529,7 +31541,7 @@
         <v>94</v>
       </c>
       <c r="P148" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31610,7 +31622,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ148">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR148">
         <v>1.44</v>
@@ -31941,7 +31953,7 @@
         <v>183</v>
       </c>
       <c r="P150" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q150">
         <v>0</v>
@@ -32559,7 +32571,7 @@
         <v>186</v>
       </c>
       <c r="P153" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q153">
         <v>5.5</v>
@@ -32765,7 +32777,7 @@
         <v>187</v>
       </c>
       <c r="P154" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q154">
         <v>5</v>
@@ -32843,7 +32855,7 @@
         <v>1.4</v>
       </c>
       <c r="AP154">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ154">
         <v>1.59</v>
@@ -32971,7 +32983,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q155">
         <v>0</v>
@@ -33258,7 +33270,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ156">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR156">
         <v>1.89</v>
@@ -33383,7 +33395,7 @@
         <v>190</v>
       </c>
       <c r="P157" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33464,7 +33476,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ157">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AR157">
         <v>1.57</v>
@@ -33589,7 +33601,7 @@
         <v>191</v>
       </c>
       <c r="P158" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q158">
         <v>3.25</v>
@@ -33667,10 +33679,10 @@
         <v>2.07</v>
       </c>
       <c r="AP158">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ158">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR158">
         <v>2.13</v>
@@ -33795,7 +33807,7 @@
         <v>192</v>
       </c>
       <c r="P159" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q159">
         <v>2.5</v>
@@ -33873,7 +33885,7 @@
         <v>0.73</v>
       </c>
       <c r="AP159">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ159">
         <v>0.71</v>
@@ -34619,7 +34631,7 @@
         <v>194</v>
       </c>
       <c r="P163" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q163">
         <v>2.4</v>
@@ -34825,7 +34837,7 @@
         <v>81</v>
       </c>
       <c r="P164" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q164">
         <v>0</v>
@@ -35237,7 +35249,7 @@
         <v>196</v>
       </c>
       <c r="P166" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -35393,6 +35405,624 @@
         <v>0</v>
       </c>
       <c r="BP166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7483837</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45787.41666666666</v>
+      </c>
+      <c r="F167">
+        <v>34</v>
+      </c>
+      <c r="G167" t="s">
+        <v>78</v>
+      </c>
+      <c r="H167" t="s">
+        <v>71</v>
+      </c>
+      <c r="I167">
+        <v>4</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>4</v>
+      </c>
+      <c r="L167">
+        <v>4</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>4</v>
+      </c>
+      <c r="O167" t="s">
+        <v>197</v>
+      </c>
+      <c r="P167" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q167">
+        <v>2.1</v>
+      </c>
+      <c r="R167">
+        <v>2.2</v>
+      </c>
+      <c r="S167">
+        <v>5</v>
+      </c>
+      <c r="T167">
+        <v>1.36</v>
+      </c>
+      <c r="U167">
+        <v>3</v>
+      </c>
+      <c r="V167">
+        <v>2.75</v>
+      </c>
+      <c r="W167">
+        <v>1.4</v>
+      </c>
+      <c r="X167">
+        <v>6.5</v>
+      </c>
+      <c r="Y167">
+        <v>1.1</v>
+      </c>
+      <c r="Z167">
+        <v>1.58</v>
+      </c>
+      <c r="AA167">
+        <v>3.63</v>
+      </c>
+      <c r="AB167">
+        <v>4.75</v>
+      </c>
+      <c r="AC167">
+        <v>0</v>
+      </c>
+      <c r="AD167">
+        <v>0</v>
+      </c>
+      <c r="AE167">
+        <v>0</v>
+      </c>
+      <c r="AF167">
+        <v>0</v>
+      </c>
+      <c r="AG167">
+        <v>1.88</v>
+      </c>
+      <c r="AH167">
+        <v>1.82</v>
+      </c>
+      <c r="AI167">
+        <v>1.91</v>
+      </c>
+      <c r="AJ167">
+        <v>1.8</v>
+      </c>
+      <c r="AK167">
+        <v>0</v>
+      </c>
+      <c r="AL167">
+        <v>0</v>
+      </c>
+      <c r="AM167">
+        <v>0</v>
+      </c>
+      <c r="AN167">
+        <v>1.75</v>
+      </c>
+      <c r="AO167">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP167">
+        <v>1.82</v>
+      </c>
+      <c r="AQ167">
+        <v>0.65</v>
+      </c>
+      <c r="AR167">
+        <v>1.68</v>
+      </c>
+      <c r="AS167">
+        <v>1.41</v>
+      </c>
+      <c r="AT167">
+        <v>3.09</v>
+      </c>
+      <c r="AU167">
+        <v>9</v>
+      </c>
+      <c r="AV167">
+        <v>2</v>
+      </c>
+      <c r="AW167">
+        <v>12</v>
+      </c>
+      <c r="AX167">
+        <v>7</v>
+      </c>
+      <c r="AY167">
+        <v>21</v>
+      </c>
+      <c r="AZ167">
+        <v>9</v>
+      </c>
+      <c r="BA167">
+        <v>3</v>
+      </c>
+      <c r="BB167">
+        <v>1</v>
+      </c>
+      <c r="BC167">
+        <v>4</v>
+      </c>
+      <c r="BD167">
+        <v>0</v>
+      </c>
+      <c r="BE167">
+        <v>0</v>
+      </c>
+      <c r="BF167">
+        <v>0</v>
+      </c>
+      <c r="BG167">
+        <v>0</v>
+      </c>
+      <c r="BH167">
+        <v>0</v>
+      </c>
+      <c r="BI167">
+        <v>0</v>
+      </c>
+      <c r="BJ167">
+        <v>0</v>
+      </c>
+      <c r="BK167">
+        <v>0</v>
+      </c>
+      <c r="BL167">
+        <v>0</v>
+      </c>
+      <c r="BM167">
+        <v>0</v>
+      </c>
+      <c r="BN167">
+        <v>0</v>
+      </c>
+      <c r="BO167">
+        <v>0</v>
+      </c>
+      <c r="BP167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7483840</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45787.52083333334</v>
+      </c>
+      <c r="F168">
+        <v>34</v>
+      </c>
+      <c r="G168" t="s">
+        <v>74</v>
+      </c>
+      <c r="H168" t="s">
+        <v>77</v>
+      </c>
+      <c r="I168">
+        <v>2</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168">
+        <v>3</v>
+      </c>
+      <c r="L168">
+        <v>2</v>
+      </c>
+      <c r="M168">
+        <v>3</v>
+      </c>
+      <c r="N168">
+        <v>5</v>
+      </c>
+      <c r="O168" t="s">
+        <v>198</v>
+      </c>
+      <c r="P168" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q168">
+        <v>2.25</v>
+      </c>
+      <c r="R168">
+        <v>2.25</v>
+      </c>
+      <c r="S168">
+        <v>4.5</v>
+      </c>
+      <c r="T168">
+        <v>1.33</v>
+      </c>
+      <c r="U168">
+        <v>3.25</v>
+      </c>
+      <c r="V168">
+        <v>2.63</v>
+      </c>
+      <c r="W168">
+        <v>1.44</v>
+      </c>
+      <c r="X168">
+        <v>6</v>
+      </c>
+      <c r="Y168">
+        <v>1.11</v>
+      </c>
+      <c r="Z168">
+        <v>1.68</v>
+      </c>
+      <c r="AA168">
+        <v>3.66</v>
+      </c>
+      <c r="AB168">
+        <v>4</v>
+      </c>
+      <c r="AC168">
+        <v>0</v>
+      </c>
+      <c r="AD168">
+        <v>0</v>
+      </c>
+      <c r="AE168">
+        <v>0</v>
+      </c>
+      <c r="AF168">
+        <v>0</v>
+      </c>
+      <c r="AG168">
+        <v>1.76</v>
+      </c>
+      <c r="AH168">
+        <v>1.94</v>
+      </c>
+      <c r="AI168">
+        <v>1.8</v>
+      </c>
+      <c r="AJ168">
+        <v>1.91</v>
+      </c>
+      <c r="AK168">
+        <v>0</v>
+      </c>
+      <c r="AL168">
+        <v>0</v>
+      </c>
+      <c r="AM168">
+        <v>0</v>
+      </c>
+      <c r="AN168">
+        <v>1.88</v>
+      </c>
+      <c r="AO168">
+        <v>1.81</v>
+      </c>
+      <c r="AP168">
+        <v>1.76</v>
+      </c>
+      <c r="AQ168">
+        <v>1.88</v>
+      </c>
+      <c r="AR168">
+        <v>2.15</v>
+      </c>
+      <c r="AS168">
+        <v>1.54</v>
+      </c>
+      <c r="AT168">
+        <v>3.69</v>
+      </c>
+      <c r="AU168">
+        <v>9</v>
+      </c>
+      <c r="AV168">
+        <v>7</v>
+      </c>
+      <c r="AW168">
+        <v>8</v>
+      </c>
+      <c r="AX168">
+        <v>8</v>
+      </c>
+      <c r="AY168">
+        <v>17</v>
+      </c>
+      <c r="AZ168">
+        <v>15</v>
+      </c>
+      <c r="BA168">
+        <v>14</v>
+      </c>
+      <c r="BB168">
+        <v>5</v>
+      </c>
+      <c r="BC168">
+        <v>19</v>
+      </c>
+      <c r="BD168">
+        <v>0</v>
+      </c>
+      <c r="BE168">
+        <v>0</v>
+      </c>
+      <c r="BF168">
+        <v>0</v>
+      </c>
+      <c r="BG168">
+        <v>0</v>
+      </c>
+      <c r="BH168">
+        <v>0</v>
+      </c>
+      <c r="BI168">
+        <v>0</v>
+      </c>
+      <c r="BJ168">
+        <v>0</v>
+      </c>
+      <c r="BK168">
+        <v>0</v>
+      </c>
+      <c r="BL168">
+        <v>0</v>
+      </c>
+      <c r="BM168">
+        <v>0</v>
+      </c>
+      <c r="BN168">
+        <v>0</v>
+      </c>
+      <c r="BO168">
+        <v>0</v>
+      </c>
+      <c r="BP168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7483838</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45787.63541666666</v>
+      </c>
+      <c r="F169">
+        <v>34</v>
+      </c>
+      <c r="G169" t="s">
+        <v>72</v>
+      </c>
+      <c r="H169" t="s">
+        <v>70</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>2</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="N169">
+        <v>2</v>
+      </c>
+      <c r="O169" t="s">
+        <v>90</v>
+      </c>
+      <c r="P169" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q169">
+        <v>5.5</v>
+      </c>
+      <c r="R169">
+        <v>2.25</v>
+      </c>
+      <c r="S169">
+        <v>2.1</v>
+      </c>
+      <c r="T169">
+        <v>1.36</v>
+      </c>
+      <c r="U169">
+        <v>3</v>
+      </c>
+      <c r="V169">
+        <v>2.75</v>
+      </c>
+      <c r="W169">
+        <v>1.4</v>
+      </c>
+      <c r="X169">
+        <v>6.5</v>
+      </c>
+      <c r="Y169">
+        <v>1.1</v>
+      </c>
+      <c r="Z169">
+        <v>5</v>
+      </c>
+      <c r="AA169">
+        <v>3.69</v>
+      </c>
+      <c r="AB169">
+        <v>1.54</v>
+      </c>
+      <c r="AC169">
+        <v>0</v>
+      </c>
+      <c r="AD169">
+        <v>0</v>
+      </c>
+      <c r="AE169">
+        <v>0</v>
+      </c>
+      <c r="AF169">
+        <v>0</v>
+      </c>
+      <c r="AG169">
+        <v>1.84</v>
+      </c>
+      <c r="AH169">
+        <v>1.86</v>
+      </c>
+      <c r="AI169">
+        <v>1.91</v>
+      </c>
+      <c r="AJ169">
+        <v>1.8</v>
+      </c>
+      <c r="AK169">
+        <v>0</v>
+      </c>
+      <c r="AL169">
+        <v>0</v>
+      </c>
+      <c r="AM169">
+        <v>0</v>
+      </c>
+      <c r="AN169">
+        <v>1.38</v>
+      </c>
+      <c r="AO169">
+        <v>2</v>
+      </c>
+      <c r="AP169">
+        <v>1.35</v>
+      </c>
+      <c r="AQ169">
+        <v>1.94</v>
+      </c>
+      <c r="AR169">
+        <v>1.55</v>
+      </c>
+      <c r="AS169">
+        <v>1.85</v>
+      </c>
+      <c r="AT169">
+        <v>3.4</v>
+      </c>
+      <c r="AU169">
+        <v>4</v>
+      </c>
+      <c r="AV169">
+        <v>7</v>
+      </c>
+      <c r="AW169">
+        <v>2</v>
+      </c>
+      <c r="AX169">
+        <v>11</v>
+      </c>
+      <c r="AY169">
+        <v>6</v>
+      </c>
+      <c r="AZ169">
+        <v>18</v>
+      </c>
+      <c r="BA169">
+        <v>1</v>
+      </c>
+      <c r="BB169">
+        <v>10</v>
+      </c>
+      <c r="BC169">
+        <v>11</v>
+      </c>
+      <c r="BD169">
+        <v>0</v>
+      </c>
+      <c r="BE169">
+        <v>0</v>
+      </c>
+      <c r="BF169">
+        <v>0</v>
+      </c>
+      <c r="BG169">
+        <v>0</v>
+      </c>
+      <c r="BH169">
+        <v>0</v>
+      </c>
+      <c r="BI169">
+        <v>0</v>
+      </c>
+      <c r="BJ169">
+        <v>0</v>
+      </c>
+      <c r="BK169">
+        <v>0</v>
+      </c>
+      <c r="BL169">
+        <v>0</v>
+      </c>
+      <c r="BM169">
+        <v>0</v>
+      </c>
+      <c r="BN169">
+        <v>0</v>
+      </c>
+      <c r="BO169">
+        <v>0</v>
+      </c>
+      <c r="BP169">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="279">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -613,6 +613,12 @@
     <t>['9', '37']</t>
   </si>
   <si>
+    <t>['15', '78']</t>
+  </si>
+  <si>
+    <t>['5', '6', '76']</t>
+  </si>
+  <si>
     <t>['83']</t>
   </si>
   <si>
@@ -1206,7 +1212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP169"/>
+  <dimension ref="A1:BP171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1546,7 +1552,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ2">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1958,7 +1964,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ4">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2083,7 +2089,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -2161,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ5">
         <v>0.71</v>
@@ -2701,7 +2707,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2779,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ8">
         <v>0.71</v>
@@ -3194,7 +3200,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ10">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3525,7 +3531,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -4015,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ14">
         <v>1.29</v>
@@ -4224,7 +4230,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ15">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR15">
         <v>1.3</v>
@@ -4349,7 +4355,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4430,7 +4436,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ16">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR16">
         <v>1.76</v>
@@ -4633,7 +4639,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ17">
         <v>1.94</v>
@@ -4761,7 +4767,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -5045,7 +5051,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ19">
         <v>0.71</v>
@@ -5585,7 +5591,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5872,7 +5878,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ23">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR23">
         <v>0.7</v>
@@ -5997,7 +6003,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -6203,7 +6209,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6615,7 +6621,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6693,7 +6699,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ27">
         <v>1.88</v>
@@ -6899,7 +6905,7 @@
         <v>2</v>
       </c>
       <c r="AP28">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ28">
         <v>1.94</v>
@@ -7027,7 +7033,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -7108,7 +7114,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ29">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR29">
         <v>2.04</v>
@@ -7314,7 +7320,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ30">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR30">
         <v>1.03</v>
@@ -7439,7 +7445,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7929,10 +7935,10 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ33">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR33">
         <v>1.63</v>
@@ -8550,7 +8556,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ36">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR36">
         <v>1.75</v>
@@ -8675,7 +8681,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -9087,7 +9093,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -9168,7 +9174,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ39">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR39">
         <v>2.18</v>
@@ -9371,7 +9377,7 @@
         <v>2.25</v>
       </c>
       <c r="AP40">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ40">
         <v>1.88</v>
@@ -9705,7 +9711,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q42">
         <v>1.95</v>
@@ -10117,7 +10123,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10323,7 +10329,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10401,7 +10407,7 @@
         <v>0.67</v>
       </c>
       <c r="AP45">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ45">
         <v>1.59</v>
@@ -10735,7 +10741,7 @@
         <v>81</v>
       </c>
       <c r="P47" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -10941,7 +10947,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11353,7 +11359,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q50">
         <v>6.1</v>
@@ -11431,7 +11437,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ50">
         <v>1.59</v>
@@ -11640,7 +11646,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ51">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR51">
         <v>1.32</v>
@@ -12177,7 +12183,7 @@
         <v>111</v>
       </c>
       <c r="P54" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12255,7 +12261,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ54">
         <v>1.59</v>
@@ -12383,7 +12389,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q55">
         <v>2.1</v>
@@ -12589,7 +12595,7 @@
         <v>81</v>
       </c>
       <c r="P56" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12795,7 +12801,7 @@
         <v>115</v>
       </c>
       <c r="P57" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q57">
         <v>1.95</v>
@@ -13207,7 +13213,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13288,7 +13294,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ59">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR59">
         <v>1.36</v>
@@ -13413,7 +13419,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q60">
         <v>3.6</v>
@@ -13619,7 +13625,7 @@
         <v>89</v>
       </c>
       <c r="P61" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13697,7 +13703,7 @@
         <v>0.6</v>
       </c>
       <c r="AP61">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ61">
         <v>0.65</v>
@@ -13825,7 +13831,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -13906,7 +13912,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ62">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR62">
         <v>1.13</v>
@@ -14031,7 +14037,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q63">
         <v>4.3</v>
@@ -14237,7 +14243,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14443,7 +14449,7 @@
         <v>120</v>
       </c>
       <c r="P65" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14933,10 +14939,10 @@
         <v>1.29</v>
       </c>
       <c r="AP67">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ67">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR67">
         <v>1.12</v>
@@ -15139,7 +15145,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ68">
         <v>0.65</v>
@@ -15473,7 +15479,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q70">
         <v>3.2</v>
@@ -15679,7 +15685,7 @@
         <v>114</v>
       </c>
       <c r="P71" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q71">
         <v>4.75</v>
@@ -16503,7 +16509,7 @@
         <v>125</v>
       </c>
       <c r="P75" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q75">
         <v>2.91</v>
@@ -16709,7 +16715,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -17121,7 +17127,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -17199,10 +17205,10 @@
         <v>0.14</v>
       </c>
       <c r="AP78">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ78">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR78">
         <v>1.13</v>
@@ -17327,7 +17333,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -17739,7 +17745,7 @@
         <v>130</v>
       </c>
       <c r="P81" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17817,7 +17823,7 @@
         <v>1.13</v>
       </c>
       <c r="AP81">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ81">
         <v>1.29</v>
@@ -17945,7 +17951,7 @@
         <v>131</v>
       </c>
       <c r="P82" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q82">
         <v>3.5</v>
@@ -18975,7 +18981,7 @@
         <v>134</v>
       </c>
       <c r="P87" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q87">
         <v>1.69</v>
@@ -19387,7 +19393,7 @@
         <v>101</v>
       </c>
       <c r="P89" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -19468,7 +19474,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ89">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR89">
         <v>1.41</v>
@@ -19671,10 +19677,10 @@
         <v>0.13</v>
       </c>
       <c r="AP90">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ90">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR90">
         <v>1.64</v>
@@ -19799,7 +19805,7 @@
         <v>137</v>
       </c>
       <c r="P91" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -20005,7 +20011,7 @@
         <v>138</v>
       </c>
       <c r="P92" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q92">
         <v>2.4</v>
@@ -20289,7 +20295,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP93">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ93">
         <v>0.71</v>
@@ -20498,7 +20504,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ94">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR94">
         <v>1.81</v>
@@ -20704,7 +20710,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ95">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR95">
         <v>1.41</v>
@@ -20829,7 +20835,7 @@
         <v>141</v>
       </c>
       <c r="P96" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21116,7 +21122,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ97">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR97">
         <v>1.44</v>
@@ -21241,7 +21247,7 @@
         <v>143</v>
       </c>
       <c r="P98" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q98">
         <v>3.25</v>
@@ -21447,7 +21453,7 @@
         <v>81</v>
       </c>
       <c r="P99" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q99">
         <v>3.55</v>
@@ -21525,7 +21531,7 @@
         <v>0.89</v>
       </c>
       <c r="AP99">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ99">
         <v>0.71</v>
@@ -21653,7 +21659,7 @@
         <v>144</v>
       </c>
       <c r="P100" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q100">
         <v>2.65</v>
@@ -21859,7 +21865,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -22065,7 +22071,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q102">
         <v>2.34</v>
@@ -22143,7 +22149,7 @@
         <v>1.5</v>
       </c>
       <c r="AP102">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ102">
         <v>1.29</v>
@@ -22558,7 +22564,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ104">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR104">
         <v>1.82</v>
@@ -22889,7 +22895,7 @@
         <v>149</v>
       </c>
       <c r="P106" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -22970,7 +22976,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ106">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR106">
         <v>1.46</v>
@@ -23095,7 +23101,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q107">
         <v>2.82</v>
@@ -23379,7 +23385,7 @@
         <v>1.1</v>
       </c>
       <c r="AP108">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ108">
         <v>0.71</v>
@@ -23507,7 +23513,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23919,7 +23925,7 @@
         <v>81</v>
       </c>
       <c r="P111" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q111">
         <v>5.2</v>
@@ -24206,7 +24212,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ112">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR112">
         <v>1.41</v>
@@ -24537,7 +24543,7 @@
         <v>154</v>
       </c>
       <c r="P114" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q114">
         <v>3.8</v>
@@ -24743,7 +24749,7 @@
         <v>155</v>
       </c>
       <c r="P115" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -24949,7 +24955,7 @@
         <v>156</v>
       </c>
       <c r="P116" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q116">
         <v>5.5</v>
@@ -25027,7 +25033,7 @@
         <v>2.4</v>
       </c>
       <c r="AP116">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ116">
         <v>1.94</v>
@@ -25236,7 +25242,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ117">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR117">
         <v>1.5</v>
@@ -25567,7 +25573,7 @@
         <v>159</v>
       </c>
       <c r="P119" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q119">
         <v>3.75</v>
@@ -25645,7 +25651,7 @@
         <v>1.83</v>
       </c>
       <c r="AP119">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ119">
         <v>1.88</v>
@@ -25851,7 +25857,7 @@
         <v>2.18</v>
       </c>
       <c r="AP120">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ120">
         <v>1.94</v>
@@ -25979,7 +25985,7 @@
         <v>160</v>
       </c>
       <c r="P121" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q121">
         <v>0</v>
@@ -26060,7 +26066,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ121">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR121">
         <v>2.13</v>
@@ -26803,7 +26809,7 @@
         <v>164</v>
       </c>
       <c r="P125" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q125">
         <v>2.85</v>
@@ -27090,7 +27096,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ126">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR126">
         <v>1.52</v>
@@ -27215,7 +27221,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q127">
         <v>6.5</v>
@@ -27421,7 +27427,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27627,7 +27633,7 @@
         <v>167</v>
       </c>
       <c r="P129" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -27705,7 +27711,7 @@
         <v>1.92</v>
       </c>
       <c r="AP129">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ129">
         <v>1.88</v>
@@ -27833,7 +27839,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q130">
         <v>1.8</v>
@@ -27914,7 +27920,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ130">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR130">
         <v>2.1</v>
@@ -28323,7 +28329,7 @@
         <v>1.18</v>
       </c>
       <c r="AP132">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ132">
         <v>1.59</v>
@@ -28863,7 +28869,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -29069,7 +29075,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29275,7 +29281,7 @@
         <v>81</v>
       </c>
       <c r="P137" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q137">
         <v>0</v>
@@ -29481,7 +29487,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q138">
         <v>3.4</v>
@@ -29765,7 +29771,7 @@
         <v>1.58</v>
       </c>
       <c r="AP139">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ139">
         <v>1.59</v>
@@ -29974,7 +29980,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ140">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR140">
         <v>1.3</v>
@@ -30099,7 +30105,7 @@
         <v>170</v>
       </c>
       <c r="P141" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q141">
         <v>2</v>
@@ -30511,7 +30517,7 @@
         <v>81</v>
       </c>
       <c r="P143" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q143">
         <v>2.45</v>
@@ -30717,7 +30723,7 @@
         <v>178</v>
       </c>
       <c r="P144" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q144">
         <v>9.5</v>
@@ -31004,7 +31010,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ145">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR145">
         <v>1.54</v>
@@ -31335,7 +31341,7 @@
         <v>181</v>
       </c>
       <c r="P147" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q147">
         <v>3.6</v>
@@ -31541,7 +31547,7 @@
         <v>94</v>
       </c>
       <c r="P148" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31619,7 +31625,7 @@
         <v>0.57</v>
       </c>
       <c r="AP148">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ148">
         <v>0.65</v>
@@ -31953,7 +31959,7 @@
         <v>183</v>
       </c>
       <c r="P150" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q150">
         <v>0</v>
@@ -32034,7 +32040,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ150">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR150">
         <v>1.31</v>
@@ -32571,7 +32577,7 @@
         <v>186</v>
       </c>
       <c r="P153" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q153">
         <v>5.5</v>
@@ -32777,7 +32783,7 @@
         <v>187</v>
       </c>
       <c r="P154" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q154">
         <v>5</v>
@@ -32983,7 +32989,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q155">
         <v>0</v>
@@ -33061,10 +33067,10 @@
         <v>0.93</v>
       </c>
       <c r="AP155">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AQ155">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AR155">
         <v>1.44</v>
@@ -33267,7 +33273,7 @@
         <v>0.73</v>
       </c>
       <c r="AP156">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ156">
         <v>0.65</v>
@@ -33395,7 +33401,7 @@
         <v>190</v>
       </c>
       <c r="P157" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33601,7 +33607,7 @@
         <v>191</v>
       </c>
       <c r="P158" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q158">
         <v>3.25</v>
@@ -33807,7 +33813,7 @@
         <v>192</v>
       </c>
       <c r="P159" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q159">
         <v>2.5</v>
@@ -34631,7 +34637,7 @@
         <v>194</v>
       </c>
       <c r="P163" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q163">
         <v>2.4</v>
@@ -34837,7 +34843,7 @@
         <v>81</v>
       </c>
       <c r="P164" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q164">
         <v>0</v>
@@ -35249,7 +35255,7 @@
         <v>196</v>
       </c>
       <c r="P166" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -35327,7 +35333,7 @@
         <v>1.63</v>
       </c>
       <c r="AP166">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ166">
         <v>1.59</v>
@@ -35661,7 +35667,7 @@
         <v>198</v>
       </c>
       <c r="P168" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q168">
         <v>2.25</v>
@@ -35867,7 +35873,7 @@
         <v>90</v>
       </c>
       <c r="P169" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q169">
         <v>5.5</v>
@@ -36023,6 +36029,418 @@
         <v>0</v>
       </c>
       <c r="BP169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7483841</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45788.41666666666</v>
+      </c>
+      <c r="F170">
+        <v>34</v>
+      </c>
+      <c r="G170" t="s">
+        <v>76</v>
+      </c>
+      <c r="H170" t="s">
+        <v>75</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170">
+        <v>2</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>2</v>
+      </c>
+      <c r="O170" t="s">
+        <v>199</v>
+      </c>
+      <c r="P170" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q170">
+        <v>3</v>
+      </c>
+      <c r="R170">
+        <v>2.1</v>
+      </c>
+      <c r="S170">
+        <v>3.4</v>
+      </c>
+      <c r="T170">
+        <v>1.4</v>
+      </c>
+      <c r="U170">
+        <v>2.75</v>
+      </c>
+      <c r="V170">
+        <v>2.75</v>
+      </c>
+      <c r="W170">
+        <v>1.4</v>
+      </c>
+      <c r="X170">
+        <v>7</v>
+      </c>
+      <c r="Y170">
+        <v>1.08</v>
+      </c>
+      <c r="Z170">
+        <v>2.33</v>
+      </c>
+      <c r="AA170">
+        <v>3.11</v>
+      </c>
+      <c r="AB170">
+        <v>2.71</v>
+      </c>
+      <c r="AC170">
+        <v>0</v>
+      </c>
+      <c r="AD170">
+        <v>0</v>
+      </c>
+      <c r="AE170">
+        <v>1.78</v>
+      </c>
+      <c r="AF170">
+        <v>2.01</v>
+      </c>
+      <c r="AG170">
+        <v>1.95</v>
+      </c>
+      <c r="AH170">
+        <v>1.75</v>
+      </c>
+      <c r="AI170">
+        <v>1.8</v>
+      </c>
+      <c r="AJ170">
+        <v>1.91</v>
+      </c>
+      <c r="AK170">
+        <v>0</v>
+      </c>
+      <c r="AL170">
+        <v>0</v>
+      </c>
+      <c r="AM170">
+        <v>0</v>
+      </c>
+      <c r="AN170">
+        <v>0.75</v>
+      </c>
+      <c r="AO170">
+        <v>0.31</v>
+      </c>
+      <c r="AP170">
+        <v>0.88</v>
+      </c>
+      <c r="AQ170">
+        <v>0.29</v>
+      </c>
+      <c r="AR170">
+        <v>1.45</v>
+      </c>
+      <c r="AS170">
+        <v>1.26</v>
+      </c>
+      <c r="AT170">
+        <v>2.71</v>
+      </c>
+      <c r="AU170">
+        <v>4</v>
+      </c>
+      <c r="AV170">
+        <v>2</v>
+      </c>
+      <c r="AW170">
+        <v>3</v>
+      </c>
+      <c r="AX170">
+        <v>11</v>
+      </c>
+      <c r="AY170">
+        <v>7</v>
+      </c>
+      <c r="AZ170">
+        <v>13</v>
+      </c>
+      <c r="BA170">
+        <v>4</v>
+      </c>
+      <c r="BB170">
+        <v>5</v>
+      </c>
+      <c r="BC170">
+        <v>9</v>
+      </c>
+      <c r="BD170">
+        <v>0</v>
+      </c>
+      <c r="BE170">
+        <v>0</v>
+      </c>
+      <c r="BF170">
+        <v>0</v>
+      </c>
+      <c r="BG170">
+        <v>0</v>
+      </c>
+      <c r="BH170">
+        <v>0</v>
+      </c>
+      <c r="BI170">
+        <v>0</v>
+      </c>
+      <c r="BJ170">
+        <v>0</v>
+      </c>
+      <c r="BK170">
+        <v>0</v>
+      </c>
+      <c r="BL170">
+        <v>0</v>
+      </c>
+      <c r="BM170">
+        <v>0</v>
+      </c>
+      <c r="BN170">
+        <v>0</v>
+      </c>
+      <c r="BO170">
+        <v>0</v>
+      </c>
+      <c r="BP170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7483839</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45788.52083333334</v>
+      </c>
+      <c r="F171">
+        <v>34</v>
+      </c>
+      <c r="G171" t="s">
+        <v>73</v>
+      </c>
+      <c r="H171" t="s">
+        <v>79</v>
+      </c>
+      <c r="I171">
+        <v>2</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>2</v>
+      </c>
+      <c r="L171">
+        <v>3</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+      <c r="N171">
+        <v>4</v>
+      </c>
+      <c r="O171" t="s">
+        <v>200</v>
+      </c>
+      <c r="P171" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q171">
+        <v>0</v>
+      </c>
+      <c r="R171">
+        <v>0</v>
+      </c>
+      <c r="S171">
+        <v>0</v>
+      </c>
+      <c r="T171">
+        <v>0</v>
+      </c>
+      <c r="U171">
+        <v>0</v>
+      </c>
+      <c r="V171">
+        <v>0</v>
+      </c>
+      <c r="W171">
+        <v>0</v>
+      </c>
+      <c r="X171">
+        <v>0</v>
+      </c>
+      <c r="Y171">
+        <v>0</v>
+      </c>
+      <c r="Z171">
+        <v>1.18</v>
+      </c>
+      <c r="AA171">
+        <v>5.6</v>
+      </c>
+      <c r="AB171">
+        <v>10</v>
+      </c>
+      <c r="AC171">
+        <v>0</v>
+      </c>
+      <c r="AD171">
+        <v>0</v>
+      </c>
+      <c r="AE171">
+        <v>0</v>
+      </c>
+      <c r="AF171">
+        <v>0</v>
+      </c>
+      <c r="AG171">
+        <v>1.61</v>
+      </c>
+      <c r="AH171">
+        <v>2.05</v>
+      </c>
+      <c r="AI171">
+        <v>0</v>
+      </c>
+      <c r="AJ171">
+        <v>0</v>
+      </c>
+      <c r="AK171">
+        <v>0</v>
+      </c>
+      <c r="AL171">
+        <v>0</v>
+      </c>
+      <c r="AM171">
+        <v>0</v>
+      </c>
+      <c r="AN171">
+        <v>2.25</v>
+      </c>
+      <c r="AO171">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP171">
+        <v>2.29</v>
+      </c>
+      <c r="AQ171">
+        <v>0.88</v>
+      </c>
+      <c r="AR171">
+        <v>1.98</v>
+      </c>
+      <c r="AS171">
+        <v>1.3</v>
+      </c>
+      <c r="AT171">
+        <v>3.28</v>
+      </c>
+      <c r="AU171">
+        <v>-1</v>
+      </c>
+      <c r="AV171">
+        <v>-1</v>
+      </c>
+      <c r="AW171">
+        <v>-1</v>
+      </c>
+      <c r="AX171">
+        <v>-1</v>
+      </c>
+      <c r="AY171">
+        <v>-1</v>
+      </c>
+      <c r="AZ171">
+        <v>-1</v>
+      </c>
+      <c r="BA171">
+        <v>-1</v>
+      </c>
+      <c r="BB171">
+        <v>-1</v>
+      </c>
+      <c r="BC171">
+        <v>-1</v>
+      </c>
+      <c r="BD171">
+        <v>0</v>
+      </c>
+      <c r="BE171">
+        <v>0</v>
+      </c>
+      <c r="BF171">
+        <v>0</v>
+      </c>
+      <c r="BG171">
+        <v>0</v>
+      </c>
+      <c r="BH171">
+        <v>0</v>
+      </c>
+      <c r="BI171">
+        <v>0</v>
+      </c>
+      <c r="BJ171">
+        <v>0</v>
+      </c>
+      <c r="BK171">
+        <v>0</v>
+      </c>
+      <c r="BL171">
+        <v>0</v>
+      </c>
+      <c r="BM171">
+        <v>0</v>
+      </c>
+      <c r="BN171">
+        <v>0</v>
+      </c>
+      <c r="BO171">
+        <v>0</v>
+      </c>
+      <c r="BP171">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
@@ -36378,31 +36378,31 @@
         <v>3.28</v>
       </c>
       <c r="AU171">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV171">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW171">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX171">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY171">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ171">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA171">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BB171">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC171">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BD171">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="280">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -619,6 +619,9 @@
     <t>['5', '6', '76']</t>
   </si>
   <si>
+    <t>['34', '70']</t>
+  </si>
+  <si>
     <t>['83']</t>
   </si>
   <si>
@@ -1212,7 +1215,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP171"/>
+  <dimension ref="A1:BP172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2089,7 +2092,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -2707,7 +2710,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2788,7 +2791,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ8">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3531,7 +3534,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3609,7 +3612,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ12">
         <v>1.88</v>
@@ -4355,7 +4358,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4767,7 +4770,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -5054,7 +5057,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ19">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR19">
         <v>1.75</v>
@@ -5463,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ21">
         <v>0.71</v>
@@ -5591,7 +5594,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -6003,7 +6006,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -6209,7 +6212,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6621,7 +6624,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -7033,7 +7036,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -7445,7 +7448,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -8350,7 +8353,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ35">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR35">
         <v>2.01</v>
@@ -8681,7 +8684,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -9093,7 +9096,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -9711,7 +9714,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q42">
         <v>1.95</v>
@@ -9998,7 +10001,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ43">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR43">
         <v>1.26</v>
@@ -10123,7 +10126,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10329,7 +10332,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10616,7 +10619,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ46">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR46">
         <v>1.5</v>
@@ -10741,7 +10744,7 @@
         <v>81</v>
       </c>
       <c r="P47" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -10819,7 +10822,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ47">
         <v>1.94</v>
@@ -10947,7 +10950,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11359,7 +11362,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q50">
         <v>6.1</v>
@@ -12055,7 +12058,7 @@
         <v>1.2</v>
       </c>
       <c r="AP53">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ53">
         <v>1.29</v>
@@ -12183,7 +12186,7 @@
         <v>111</v>
       </c>
       <c r="P54" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12389,7 +12392,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q55">
         <v>2.1</v>
@@ -12595,7 +12598,7 @@
         <v>81</v>
       </c>
       <c r="P56" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12673,7 +12676,7 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ56">
         <v>0.65</v>
@@ -12801,7 +12804,7 @@
         <v>115</v>
       </c>
       <c r="P57" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q57">
         <v>1.95</v>
@@ -12882,7 +12885,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ57">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR57">
         <v>2.09</v>
@@ -13213,7 +13216,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13419,7 +13422,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q60">
         <v>3.6</v>
@@ -13625,7 +13628,7 @@
         <v>89</v>
       </c>
       <c r="P61" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13831,7 +13834,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -13909,7 +13912,7 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ62">
         <v>0.29</v>
@@ -14037,7 +14040,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q63">
         <v>4.3</v>
@@ -14243,7 +14246,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14449,7 +14452,7 @@
         <v>120</v>
       </c>
       <c r="P65" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -15354,7 +15357,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ69">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR69">
         <v>1.38</v>
@@ -15479,7 +15482,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q70">
         <v>3.2</v>
@@ -15685,7 +15688,7 @@
         <v>114</v>
       </c>
       <c r="P71" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q71">
         <v>4.75</v>
@@ -16509,7 +16512,7 @@
         <v>125</v>
       </c>
       <c r="P75" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q75">
         <v>2.91</v>
@@ -16590,7 +16593,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ75">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR75">
         <v>1.44</v>
@@ -16715,7 +16718,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -16793,7 +16796,7 @@
         <v>1.14</v>
       </c>
       <c r="AP76">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ76">
         <v>1.59</v>
@@ -17127,7 +17130,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -17333,7 +17336,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -17617,7 +17620,7 @@
         <v>1.71</v>
       </c>
       <c r="AP80">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ80">
         <v>1.59</v>
@@ -17745,7 +17748,7 @@
         <v>130</v>
       </c>
       <c r="P81" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17951,7 +17954,7 @@
         <v>131</v>
       </c>
       <c r="P82" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q82">
         <v>3.5</v>
@@ -18235,10 +18238,10 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ83">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR83">
         <v>1.05</v>
@@ -18981,7 +18984,7 @@
         <v>134</v>
       </c>
       <c r="P87" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q87">
         <v>1.69</v>
@@ -19393,7 +19396,7 @@
         <v>101</v>
       </c>
       <c r="P89" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -19805,7 +19808,7 @@
         <v>137</v>
       </c>
       <c r="P91" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -20011,7 +20014,7 @@
         <v>138</v>
       </c>
       <c r="P92" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q92">
         <v>2.4</v>
@@ -20835,7 +20838,7 @@
         <v>141</v>
       </c>
       <c r="P96" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21247,7 +21250,7 @@
         <v>143</v>
       </c>
       <c r="P98" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q98">
         <v>3.25</v>
@@ -21453,7 +21456,7 @@
         <v>81</v>
       </c>
       <c r="P99" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q99">
         <v>3.55</v>
@@ -21534,7 +21537,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ99">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR99">
         <v>1.34</v>
@@ -21659,7 +21662,7 @@
         <v>144</v>
       </c>
       <c r="P100" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q100">
         <v>2.65</v>
@@ -21865,7 +21868,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -22071,7 +22074,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q102">
         <v>2.34</v>
@@ -22895,7 +22898,7 @@
         <v>149</v>
       </c>
       <c r="P106" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -23101,7 +23104,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q107">
         <v>2.82</v>
@@ -23388,7 +23391,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ108">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR108">
         <v>1.88</v>
@@ -23513,7 +23516,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23797,7 +23800,7 @@
         <v>0.45</v>
       </c>
       <c r="AP110">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ110">
         <v>0.71</v>
@@ -23925,7 +23928,7 @@
         <v>81</v>
       </c>
       <c r="P111" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q111">
         <v>5.2</v>
@@ -24543,7 +24546,7 @@
         <v>154</v>
       </c>
       <c r="P114" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q114">
         <v>3.8</v>
@@ -24749,7 +24752,7 @@
         <v>155</v>
       </c>
       <c r="P115" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -24827,7 +24830,7 @@
         <v>1.91</v>
       </c>
       <c r="AP115">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ115">
         <v>1.88</v>
@@ -24955,7 +24958,7 @@
         <v>156</v>
       </c>
       <c r="P116" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q116">
         <v>5.5</v>
@@ -25573,7 +25576,7 @@
         <v>159</v>
       </c>
       <c r="P119" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q119">
         <v>3.75</v>
@@ -25985,7 +25988,7 @@
         <v>160</v>
       </c>
       <c r="P121" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q121">
         <v>0</v>
@@ -26475,7 +26478,7 @@
         <v>1.73</v>
       </c>
       <c r="AP123">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ123">
         <v>1.59</v>
@@ -26684,7 +26687,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ124">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR124">
         <v>1.8</v>
@@ -26809,7 +26812,7 @@
         <v>164</v>
       </c>
       <c r="P125" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q125">
         <v>2.85</v>
@@ -27221,7 +27224,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q127">
         <v>6.5</v>
@@ -27427,7 +27430,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27633,7 +27636,7 @@
         <v>167</v>
       </c>
       <c r="P129" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -27839,7 +27842,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q130">
         <v>1.8</v>
@@ -28126,7 +28129,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ131">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR131">
         <v>1.5</v>
@@ -28535,7 +28538,7 @@
         <v>0.58</v>
       </c>
       <c r="AP133">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ133">
         <v>0.65</v>
@@ -28869,7 +28872,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -28950,7 +28953,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ135">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR135">
         <v>1.51</v>
@@ -29075,7 +29078,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29281,7 +29284,7 @@
         <v>81</v>
       </c>
       <c r="P137" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q137">
         <v>0</v>
@@ -29359,7 +29362,7 @@
         <v>2.08</v>
       </c>
       <c r="AP137">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ137">
         <v>1.94</v>
@@ -29487,7 +29490,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q138">
         <v>3.4</v>
@@ -30105,7 +30108,7 @@
         <v>170</v>
       </c>
       <c r="P141" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q141">
         <v>2</v>
@@ -30389,7 +30392,7 @@
         <v>1.36</v>
       </c>
       <c r="AP142">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ142">
         <v>1.29</v>
@@ -30517,7 +30520,7 @@
         <v>81</v>
       </c>
       <c r="P143" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q143">
         <v>2.45</v>
@@ -30723,7 +30726,7 @@
         <v>178</v>
       </c>
       <c r="P144" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q144">
         <v>9.5</v>
@@ -31216,7 +31219,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ146">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR146">
         <v>2.09</v>
@@ -31341,7 +31344,7 @@
         <v>181</v>
       </c>
       <c r="P147" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q147">
         <v>3.6</v>
@@ -31547,7 +31550,7 @@
         <v>94</v>
       </c>
       <c r="P148" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31959,7 +31962,7 @@
         <v>183</v>
       </c>
       <c r="P150" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q150">
         <v>0</v>
@@ -32037,7 +32040,7 @@
         <v>0.27</v>
       </c>
       <c r="AP150">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ150">
         <v>0.29</v>
@@ -32577,7 +32580,7 @@
         <v>186</v>
       </c>
       <c r="P153" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q153">
         <v>5.5</v>
@@ -32783,7 +32786,7 @@
         <v>187</v>
       </c>
       <c r="P154" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q154">
         <v>5</v>
@@ -32989,7 +32992,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q155">
         <v>0</v>
@@ -33401,7 +33404,7 @@
         <v>190</v>
       </c>
       <c r="P157" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33607,7 +33610,7 @@
         <v>191</v>
       </c>
       <c r="P158" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q158">
         <v>3.25</v>
@@ -33813,7 +33816,7 @@
         <v>192</v>
       </c>
       <c r="P159" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q159">
         <v>2.5</v>
@@ -33894,7 +33897,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ159">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR159">
         <v>1.63</v>
@@ -34512,7 +34515,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ162">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR162">
         <v>1.32</v>
@@ -34637,7 +34640,7 @@
         <v>194</v>
       </c>
       <c r="P163" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q163">
         <v>2.4</v>
@@ -34843,7 +34846,7 @@
         <v>81</v>
       </c>
       <c r="P164" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q164">
         <v>0</v>
@@ -34921,7 +34924,7 @@
         <v>1.53</v>
       </c>
       <c r="AP164">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AQ164">
         <v>1.59</v>
@@ -35255,7 +35258,7 @@
         <v>196</v>
       </c>
       <c r="P166" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -35667,7 +35670,7 @@
         <v>198</v>
       </c>
       <c r="P168" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q168">
         <v>2.25</v>
@@ -35873,7 +35876,7 @@
         <v>90</v>
       </c>
       <c r="P169" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q169">
         <v>5.5</v>
@@ -36285,7 +36288,7 @@
         <v>200</v>
       </c>
       <c r="P171" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q171">
         <v>0</v>
@@ -36441,6 +36444,212 @@
         <v>0</v>
       </c>
       <c r="BP171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7483845</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45794.52083333334</v>
+      </c>
+      <c r="F172">
+        <v>35</v>
+      </c>
+      <c r="G172" t="s">
+        <v>79</v>
+      </c>
+      <c r="H172" t="s">
+        <v>72</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="L172">
+        <v>2</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>2</v>
+      </c>
+      <c r="O172" t="s">
+        <v>201</v>
+      </c>
+      <c r="P172" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q172">
+        <v>0</v>
+      </c>
+      <c r="R172">
+        <v>0</v>
+      </c>
+      <c r="S172">
+        <v>0</v>
+      </c>
+      <c r="T172">
+        <v>0</v>
+      </c>
+      <c r="U172">
+        <v>0</v>
+      </c>
+      <c r="V172">
+        <v>0</v>
+      </c>
+      <c r="W172">
+        <v>0</v>
+      </c>
+      <c r="X172">
+        <v>0</v>
+      </c>
+      <c r="Y172">
+        <v>0</v>
+      </c>
+      <c r="Z172">
+        <v>2.39</v>
+      </c>
+      <c r="AA172">
+        <v>3.15</v>
+      </c>
+      <c r="AB172">
+        <v>2.6</v>
+      </c>
+      <c r="AC172">
+        <v>0</v>
+      </c>
+      <c r="AD172">
+        <v>0</v>
+      </c>
+      <c r="AE172">
+        <v>0</v>
+      </c>
+      <c r="AF172">
+        <v>0</v>
+      </c>
+      <c r="AG172">
+        <v>1.95</v>
+      </c>
+      <c r="AH172">
+        <v>1.75</v>
+      </c>
+      <c r="AI172">
+        <v>0</v>
+      </c>
+      <c r="AJ172">
+        <v>0</v>
+      </c>
+      <c r="AK172">
+        <v>0</v>
+      </c>
+      <c r="AL172">
+        <v>0</v>
+      </c>
+      <c r="AM172">
+        <v>0</v>
+      </c>
+      <c r="AN172">
+        <v>1.29</v>
+      </c>
+      <c r="AO172">
+        <v>0.71</v>
+      </c>
+      <c r="AP172">
+        <v>1.39</v>
+      </c>
+      <c r="AQ172">
+        <v>0.67</v>
+      </c>
+      <c r="AR172">
+        <v>1.38</v>
+      </c>
+      <c r="AS172">
+        <v>1.26</v>
+      </c>
+      <c r="AT172">
+        <v>2.64</v>
+      </c>
+      <c r="AU172">
+        <v>-1</v>
+      </c>
+      <c r="AV172">
+        <v>-1</v>
+      </c>
+      <c r="AW172">
+        <v>-1</v>
+      </c>
+      <c r="AX172">
+        <v>-1</v>
+      </c>
+      <c r="AY172">
+        <v>-1</v>
+      </c>
+      <c r="AZ172">
+        <v>-1</v>
+      </c>
+      <c r="BA172">
+        <v>-1</v>
+      </c>
+      <c r="BB172">
+        <v>-1</v>
+      </c>
+      <c r="BC172">
+        <v>-1</v>
+      </c>
+      <c r="BD172">
+        <v>0</v>
+      </c>
+      <c r="BE172">
+        <v>0</v>
+      </c>
+      <c r="BF172">
+        <v>0</v>
+      </c>
+      <c r="BG172">
+        <v>0</v>
+      </c>
+      <c r="BH172">
+        <v>0</v>
+      </c>
+      <c r="BI172">
+        <v>0</v>
+      </c>
+      <c r="BJ172">
+        <v>0</v>
+      </c>
+      <c r="BK172">
+        <v>0</v>
+      </c>
+      <c r="BL172">
+        <v>0</v>
+      </c>
+      <c r="BM172">
+        <v>0</v>
+      </c>
+      <c r="BN172">
+        <v>0</v>
+      </c>
+      <c r="BO172">
+        <v>0</v>
+      </c>
+      <c r="BP172">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="283">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -622,6 +622,9 @@
     <t>['34', '70']</t>
   </si>
   <si>
+    <t>['50', '60']</t>
+  </si>
+  <si>
     <t>['83']</t>
   </si>
   <si>
@@ -854,6 +857,12 @@
   </si>
   <si>
     <t>['14']</t>
+  </si>
+  <si>
+    <t>['3', '74']</t>
+  </si>
+  <si>
+    <t>['14', '16', '29', '30', '54', '77']</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP172"/>
+  <dimension ref="A1:BP174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2092,7 +2101,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -2379,7 +2388,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ6">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2582,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ7">
         <v>0.65</v>
@@ -2710,7 +2719,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2788,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ8">
         <v>0.67</v>
@@ -3534,7 +3543,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3821,7 +3830,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ13">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR13">
         <v>1.72</v>
@@ -4027,7 +4036,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ14">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR14">
         <v>1.88</v>
@@ -4358,7 +4367,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4436,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ16">
         <v>0.88</v>
@@ -4642,7 +4651,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ17">
         <v>1.94</v>
@@ -4770,7 +4779,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -5594,7 +5603,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5675,7 +5684,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ22">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR22">
         <v>1.24</v>
@@ -6006,7 +6015,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -6212,7 +6221,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6293,7 +6302,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ25">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR25">
         <v>1.83</v>
@@ -6624,7 +6633,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6702,7 +6711,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ27">
         <v>1.88</v>
@@ -7036,7 +7045,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -7448,7 +7457,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7526,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ31">
         <v>0.71</v>
@@ -7735,7 +7744,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ32">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR32">
         <v>1.34</v>
@@ -8147,7 +8156,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ34">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR34">
         <v>1.21</v>
@@ -8684,7 +8693,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -9096,7 +9105,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -9714,7 +9723,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q42">
         <v>1.95</v>
@@ -9795,7 +9804,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ42">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR42">
         <v>2.18</v>
@@ -10126,7 +10135,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10204,7 +10213,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ44">
         <v>1.59</v>
@@ -10332,7 +10341,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10410,10 +10419,10 @@
         <v>0.67</v>
       </c>
       <c r="AP45">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ45">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR45">
         <v>1.07</v>
@@ -10616,7 +10625,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ46">
         <v>0.67</v>
@@ -10744,7 +10753,7 @@
         <v>81</v>
       </c>
       <c r="P47" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -10950,7 +10959,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11031,7 +11040,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ48">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR48">
         <v>1.28</v>
@@ -11362,7 +11371,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q50">
         <v>6.1</v>
@@ -11440,7 +11449,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ50">
         <v>1.59</v>
@@ -12061,7 +12070,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ53">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR53">
         <v>1.07</v>
@@ -12186,7 +12195,7 @@
         <v>111</v>
       </c>
       <c r="P54" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12267,7 +12276,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ54">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR54">
         <v>1.59</v>
@@ -12392,7 +12401,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q55">
         <v>2.1</v>
@@ -12598,7 +12607,7 @@
         <v>81</v>
       </c>
       <c r="P56" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12804,7 +12813,7 @@
         <v>115</v>
       </c>
       <c r="P57" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q57">
         <v>1.95</v>
@@ -13088,7 +13097,7 @@
         <v>2.2</v>
       </c>
       <c r="AP58">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ58">
         <v>1.94</v>
@@ -13216,7 +13225,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13422,7 +13431,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q60">
         <v>3.6</v>
@@ -13628,7 +13637,7 @@
         <v>89</v>
       </c>
       <c r="P61" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13706,7 +13715,7 @@
         <v>0.6</v>
       </c>
       <c r="AP61">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ61">
         <v>0.65</v>
@@ -13834,7 +13843,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -14040,7 +14049,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q63">
         <v>4.3</v>
@@ -14246,7 +14255,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14327,7 +14336,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ64">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR64">
         <v>1.37</v>
@@ -14452,7 +14461,7 @@
         <v>120</v>
       </c>
       <c r="P65" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14533,7 +14542,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ65">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR65">
         <v>1.42</v>
@@ -14942,7 +14951,7 @@
         <v>1.29</v>
       </c>
       <c r="AP67">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ67">
         <v>0.88</v>
@@ -15482,7 +15491,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q70">
         <v>3.2</v>
@@ -15688,7 +15697,7 @@
         <v>114</v>
       </c>
       <c r="P71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q71">
         <v>4.75</v>
@@ -15766,7 +15775,7 @@
         <v>2</v>
       </c>
       <c r="AP71">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ71">
         <v>1.88</v>
@@ -16178,10 +16187,10 @@
         <v>0.86</v>
       </c>
       <c r="AP73">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ73">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR73">
         <v>1.53</v>
@@ -16512,7 +16521,7 @@
         <v>125</v>
       </c>
       <c r="P75" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q75">
         <v>2.91</v>
@@ -16718,7 +16727,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -16799,7 +16808,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ76">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR76">
         <v>1.07</v>
@@ -17130,7 +17139,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -17208,7 +17217,7 @@
         <v>0.14</v>
       </c>
       <c r="AP78">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ78">
         <v>0.29</v>
@@ -17336,7 +17345,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -17748,7 +17757,7 @@
         <v>130</v>
       </c>
       <c r="P81" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17826,10 +17835,10 @@
         <v>1.13</v>
       </c>
       <c r="AP81">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ81">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR81">
         <v>1.21</v>
@@ -17954,7 +17963,7 @@
         <v>131</v>
       </c>
       <c r="P82" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q82">
         <v>3.5</v>
@@ -18444,10 +18453,10 @@
         <v>1.38</v>
       </c>
       <c r="AP84">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ84">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR84">
         <v>1.41</v>
@@ -18984,7 +18993,7 @@
         <v>134</v>
       </c>
       <c r="P87" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q87">
         <v>1.69</v>
@@ -19396,7 +19405,7 @@
         <v>101</v>
       </c>
       <c r="P89" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -19808,7 +19817,7 @@
         <v>137</v>
       </c>
       <c r="P91" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -20014,7 +20023,7 @@
         <v>138</v>
       </c>
       <c r="P92" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q92">
         <v>2.4</v>
@@ -20095,7 +20104,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ92">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR92">
         <v>2.06</v>
@@ -20838,7 +20847,7 @@
         <v>141</v>
       </c>
       <c r="P96" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21250,7 +21259,7 @@
         <v>143</v>
       </c>
       <c r="P98" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q98">
         <v>3.25</v>
@@ -21328,7 +21337,7 @@
         <v>0.78</v>
       </c>
       <c r="AP98">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ98">
         <v>0.65</v>
@@ -21456,7 +21465,7 @@
         <v>81</v>
       </c>
       <c r="P99" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q99">
         <v>3.55</v>
@@ -21534,7 +21543,7 @@
         <v>0.89</v>
       </c>
       <c r="AP99">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ99">
         <v>0.67</v>
@@ -21662,7 +21671,7 @@
         <v>144</v>
       </c>
       <c r="P100" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q100">
         <v>2.65</v>
@@ -21868,7 +21877,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -22074,7 +22083,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q102">
         <v>2.34</v>
@@ -22155,7 +22164,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ102">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR102">
         <v>1.84</v>
@@ -22361,7 +22370,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ103">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR103">
         <v>1.45</v>
@@ -22898,7 +22907,7 @@
         <v>149</v>
       </c>
       <c r="P106" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -22976,7 +22985,7 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ106">
         <v>0.88</v>
@@ -23104,7 +23113,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q107">
         <v>2.82</v>
@@ -23516,7 +23525,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23928,7 +23937,7 @@
         <v>81</v>
       </c>
       <c r="P111" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q111">
         <v>5.2</v>
@@ -24421,7 +24430,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ113">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR113">
         <v>1.82</v>
@@ -24546,7 +24555,7 @@
         <v>154</v>
       </c>
       <c r="P114" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q114">
         <v>3.8</v>
@@ -24627,7 +24636,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ114">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR114">
         <v>1.48</v>
@@ -24752,7 +24761,7 @@
         <v>155</v>
       </c>
       <c r="P115" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -24958,7 +24967,7 @@
         <v>156</v>
       </c>
       <c r="P116" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q116">
         <v>5.5</v>
@@ -25036,7 +25045,7 @@
         <v>2.4</v>
       </c>
       <c r="AP116">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ116">
         <v>1.94</v>
@@ -25576,7 +25585,7 @@
         <v>159</v>
       </c>
       <c r="P119" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q119">
         <v>3.75</v>
@@ -25654,7 +25663,7 @@
         <v>1.83</v>
       </c>
       <c r="AP119">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ119">
         <v>1.88</v>
@@ -25988,7 +25997,7 @@
         <v>160</v>
       </c>
       <c r="P121" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q121">
         <v>0</v>
@@ -26275,7 +26284,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ122">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR122">
         <v>1.32</v>
@@ -26812,7 +26821,7 @@
         <v>164</v>
       </c>
       <c r="P125" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q125">
         <v>2.85</v>
@@ -26890,7 +26899,7 @@
         <v>0.67</v>
       </c>
       <c r="AP125">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ125">
         <v>0.71</v>
@@ -27224,7 +27233,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q127">
         <v>6.5</v>
@@ -27430,7 +27439,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27636,7 +27645,7 @@
         <v>167</v>
       </c>
       <c r="P129" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -27842,7 +27851,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q130">
         <v>1.8</v>
@@ -28332,10 +28341,10 @@
         <v>1.18</v>
       </c>
       <c r="AP132">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ132">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR132">
         <v>1.42</v>
@@ -28747,7 +28756,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ134">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR134">
         <v>1.81</v>
@@ -28872,7 +28881,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -28950,7 +28959,7 @@
         <v>0.85</v>
       </c>
       <c r="AP135">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ135">
         <v>0.67</v>
@@ -29078,7 +29087,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29284,7 +29293,7 @@
         <v>81</v>
       </c>
       <c r="P137" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q137">
         <v>0</v>
@@ -29490,7 +29499,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q138">
         <v>3.4</v>
@@ -29571,7 +29580,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ138">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR138">
         <v>1.64</v>
@@ -29774,7 +29783,7 @@
         <v>1.58</v>
       </c>
       <c r="AP139">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ139">
         <v>1.59</v>
@@ -30108,7 +30117,7 @@
         <v>170</v>
       </c>
       <c r="P141" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q141">
         <v>2</v>
@@ -30395,7 +30404,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ142">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR142">
         <v>1.23</v>
@@ -30520,7 +30529,7 @@
         <v>81</v>
       </c>
       <c r="P143" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q143">
         <v>2.45</v>
@@ -30726,7 +30735,7 @@
         <v>178</v>
       </c>
       <c r="P144" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q144">
         <v>9.5</v>
@@ -30804,7 +30813,7 @@
         <v>2.14</v>
       </c>
       <c r="AP144">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ144">
         <v>1.94</v>
@@ -31344,7 +31353,7 @@
         <v>181</v>
       </c>
       <c r="P147" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q147">
         <v>3.6</v>
@@ -31550,7 +31559,7 @@
         <v>94</v>
       </c>
       <c r="P148" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31628,7 +31637,7 @@
         <v>0.57</v>
       </c>
       <c r="AP148">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ148">
         <v>0.65</v>
@@ -31834,7 +31843,7 @@
         <v>1.43</v>
       </c>
       <c r="AP149">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ149">
         <v>1.59</v>
@@ -31962,7 +31971,7 @@
         <v>183</v>
       </c>
       <c r="P150" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q150">
         <v>0</v>
@@ -32249,7 +32258,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ151">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR151">
         <v>1.63</v>
@@ -32580,7 +32589,7 @@
         <v>186</v>
       </c>
       <c r="P153" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q153">
         <v>5.5</v>
@@ -32661,7 +32670,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ153">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR153">
         <v>1.36</v>
@@ -32786,7 +32795,7 @@
         <v>187</v>
       </c>
       <c r="P154" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q154">
         <v>5</v>
@@ -32992,7 +33001,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q155">
         <v>0</v>
@@ -33070,7 +33079,7 @@
         <v>0.93</v>
       </c>
       <c r="AP155">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ155">
         <v>0.88</v>
@@ -33404,7 +33413,7 @@
         <v>190</v>
       </c>
       <c r="P157" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33482,7 +33491,7 @@
         <v>1.73</v>
       </c>
       <c r="AP157">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ157">
         <v>1.88</v>
@@ -33610,7 +33619,7 @@
         <v>191</v>
       </c>
       <c r="P158" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q158">
         <v>3.25</v>
@@ -33816,7 +33825,7 @@
         <v>192</v>
       </c>
       <c r="P159" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q159">
         <v>2.5</v>
@@ -34103,7 +34112,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ160">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR160">
         <v>1.65</v>
@@ -34306,10 +34315,10 @@
         <v>1.19</v>
       </c>
       <c r="AP161">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ161">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AR161">
         <v>1.52</v>
@@ -34640,7 +34649,7 @@
         <v>194</v>
       </c>
       <c r="P163" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q163">
         <v>2.4</v>
@@ -34846,7 +34855,7 @@
         <v>81</v>
       </c>
       <c r="P164" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q164">
         <v>0</v>
@@ -34927,7 +34936,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ164">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR164">
         <v>1.42</v>
@@ -35258,7 +35267,7 @@
         <v>196</v>
       </c>
       <c r="P166" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -35339,7 +35348,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ166">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AR166">
         <v>1.96</v>
@@ -35670,7 +35679,7 @@
         <v>198</v>
       </c>
       <c r="P168" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q168">
         <v>2.25</v>
@@ -35876,7 +35885,7 @@
         <v>90</v>
       </c>
       <c r="P169" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q169">
         <v>5.5</v>
@@ -36160,7 +36169,7 @@
         <v>0.31</v>
       </c>
       <c r="AP170">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ170">
         <v>0.29</v>
@@ -36288,7 +36297,7 @@
         <v>200</v>
       </c>
       <c r="P171" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q171">
         <v>0</v>
@@ -36651,6 +36660,418 @@
       </c>
       <c r="BP172">
         <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7483842</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45795.41666666666</v>
+      </c>
+      <c r="F173">
+        <v>35</v>
+      </c>
+      <c r="G173" t="s">
+        <v>76</v>
+      </c>
+      <c r="H173" t="s">
+        <v>78</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>2</v>
+      </c>
+      <c r="M173">
+        <v>2</v>
+      </c>
+      <c r="N173">
+        <v>4</v>
+      </c>
+      <c r="O173" t="s">
+        <v>202</v>
+      </c>
+      <c r="P173" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q173">
+        <v>4.2</v>
+      </c>
+      <c r="R173">
+        <v>2.06</v>
+      </c>
+      <c r="S173">
+        <v>2.54</v>
+      </c>
+      <c r="T173">
+        <v>1.38</v>
+      </c>
+      <c r="U173">
+        <v>2.8</v>
+      </c>
+      <c r="V173">
+        <v>2.89</v>
+      </c>
+      <c r="W173">
+        <v>1.36</v>
+      </c>
+      <c r="X173">
+        <v>7.3</v>
+      </c>
+      <c r="Y173">
+        <v>1.07</v>
+      </c>
+      <c r="Z173">
+        <v>3</v>
+      </c>
+      <c r="AA173">
+        <v>3.23</v>
+      </c>
+      <c r="AB173">
+        <v>2.09</v>
+      </c>
+      <c r="AC173">
+        <v>1.01</v>
+      </c>
+      <c r="AD173">
+        <v>9</v>
+      </c>
+      <c r="AE173">
+        <v>1.25</v>
+      </c>
+      <c r="AF173">
+        <v>3.28</v>
+      </c>
+      <c r="AG173">
+        <v>1.94</v>
+      </c>
+      <c r="AH173">
+        <v>1.76</v>
+      </c>
+      <c r="AI173">
+        <v>1.77</v>
+      </c>
+      <c r="AJ173">
+        <v>1.89</v>
+      </c>
+      <c r="AK173">
+        <v>1.76</v>
+      </c>
+      <c r="AL173">
+        <v>1.26</v>
+      </c>
+      <c r="AM173">
+        <v>1.24</v>
+      </c>
+      <c r="AN173">
+        <v>0.88</v>
+      </c>
+      <c r="AO173">
+        <v>1.29</v>
+      </c>
+      <c r="AP173">
+        <v>0.89</v>
+      </c>
+      <c r="AQ173">
+        <v>1.28</v>
+      </c>
+      <c r="AR173">
+        <v>1.43</v>
+      </c>
+      <c r="AS173">
+        <v>1.52</v>
+      </c>
+      <c r="AT173">
+        <v>2.95</v>
+      </c>
+      <c r="AU173">
+        <v>7</v>
+      </c>
+      <c r="AV173">
+        <v>6</v>
+      </c>
+      <c r="AW173">
+        <v>11</v>
+      </c>
+      <c r="AX173">
+        <v>5</v>
+      </c>
+      <c r="AY173">
+        <v>18</v>
+      </c>
+      <c r="AZ173">
+        <v>11</v>
+      </c>
+      <c r="BA173">
+        <v>4</v>
+      </c>
+      <c r="BB173">
+        <v>6</v>
+      </c>
+      <c r="BC173">
+        <v>10</v>
+      </c>
+      <c r="BD173">
+        <v>2.48</v>
+      </c>
+      <c r="BE173">
+        <v>6.3</v>
+      </c>
+      <c r="BF173">
+        <v>1.8</v>
+      </c>
+      <c r="BG173">
+        <v>1.24</v>
+      </c>
+      <c r="BH173">
+        <v>3.34</v>
+      </c>
+      <c r="BI173">
+        <v>1.46</v>
+      </c>
+      <c r="BJ173">
+        <v>2.38</v>
+      </c>
+      <c r="BK173">
+        <v>1.83</v>
+      </c>
+      <c r="BL173">
+        <v>1.83</v>
+      </c>
+      <c r="BM173">
+        <v>2.33</v>
+      </c>
+      <c r="BN173">
+        <v>1.48</v>
+      </c>
+      <c r="BO173">
+        <v>3.14</v>
+      </c>
+      <c r="BP173">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7483843</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45795.52083333334</v>
+      </c>
+      <c r="F174">
+        <v>35</v>
+      </c>
+      <c r="G174" t="s">
+        <v>75</v>
+      </c>
+      <c r="H174" t="s">
+        <v>74</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>4</v>
+      </c>
+      <c r="K174">
+        <v>4</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>6</v>
+      </c>
+      <c r="N174">
+        <v>7</v>
+      </c>
+      <c r="O174" t="s">
+        <v>100</v>
+      </c>
+      <c r="P174" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q174">
+        <v>5.7</v>
+      </c>
+      <c r="R174">
+        <v>2.57</v>
+      </c>
+      <c r="S174">
+        <v>1.81</v>
+      </c>
+      <c r="T174">
+        <v>1.21</v>
+      </c>
+      <c r="U174">
+        <v>4.1</v>
+      </c>
+      <c r="V174">
+        <v>2.14</v>
+      </c>
+      <c r="W174">
+        <v>1.66</v>
+      </c>
+      <c r="X174">
+        <v>4.6</v>
+      </c>
+      <c r="Y174">
+        <v>1.17</v>
+      </c>
+      <c r="Z174">
+        <v>5.3</v>
+      </c>
+      <c r="AA174">
+        <v>4.2</v>
+      </c>
+      <c r="AB174">
+        <v>1.44</v>
+      </c>
+      <c r="AC174">
+        <v>1.01</v>
+      </c>
+      <c r="AD174">
+        <v>17</v>
+      </c>
+      <c r="AE174">
+        <v>1.09</v>
+      </c>
+      <c r="AF174">
+        <v>5.3</v>
+      </c>
+      <c r="AG174">
+        <v>1.42</v>
+      </c>
+      <c r="AH174">
+        <v>2.65</v>
+      </c>
+      <c r="AI174">
+        <v>1.6</v>
+      </c>
+      <c r="AJ174">
+        <v>2.14</v>
+      </c>
+      <c r="AK174">
+        <v>2.75</v>
+      </c>
+      <c r="AL174">
+        <v>1.14</v>
+      </c>
+      <c r="AM174">
+        <v>1.07</v>
+      </c>
+      <c r="AN174">
+        <v>1.18</v>
+      </c>
+      <c r="AO174">
+        <v>1.59</v>
+      </c>
+      <c r="AP174">
+        <v>1.11</v>
+      </c>
+      <c r="AQ174">
+        <v>1.67</v>
+      </c>
+      <c r="AR174">
+        <v>1.54</v>
+      </c>
+      <c r="AS174">
+        <v>1.79</v>
+      </c>
+      <c r="AT174">
+        <v>3.33</v>
+      </c>
+      <c r="AU174">
+        <v>-1</v>
+      </c>
+      <c r="AV174">
+        <v>-1</v>
+      </c>
+      <c r="AW174">
+        <v>-1</v>
+      </c>
+      <c r="AX174">
+        <v>-1</v>
+      </c>
+      <c r="AY174">
+        <v>-1</v>
+      </c>
+      <c r="AZ174">
+        <v>-1</v>
+      </c>
+      <c r="BA174">
+        <v>-1</v>
+      </c>
+      <c r="BB174">
+        <v>-1</v>
+      </c>
+      <c r="BC174">
+        <v>-1</v>
+      </c>
+      <c r="BD174">
+        <v>5.35</v>
+      </c>
+      <c r="BE174">
+        <v>11.25</v>
+      </c>
+      <c r="BF174">
+        <v>1.19</v>
+      </c>
+      <c r="BG174">
+        <v>0</v>
+      </c>
+      <c r="BH174">
+        <v>0</v>
+      </c>
+      <c r="BI174">
+        <v>1.34</v>
+      </c>
+      <c r="BJ174">
+        <v>2.78</v>
+      </c>
+      <c r="BK174">
+        <v>1.61</v>
+      </c>
+      <c r="BL174">
+        <v>2.07</v>
+      </c>
+      <c r="BM174">
+        <v>2.03</v>
+      </c>
+      <c r="BN174">
+        <v>1.67</v>
+      </c>
+      <c r="BO174">
+        <v>2.62</v>
+      </c>
+      <c r="BP174">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="284">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -617,6 +617,9 @@
   </si>
   <si>
     <t>['5', '6', '76']</t>
+  </si>
+  <si>
+    <t>['15', '28', '61', '72', '84']</t>
   </si>
   <si>
     <t>['34', '70']</t>
@@ -1224,7 +1227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP174"/>
+  <dimension ref="A1:BP176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1561,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ2">
         <v>0.88</v>
@@ -2101,7 +2104,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -2594,7 +2597,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ7">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2719,7 +2722,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -3003,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ9">
         <v>1.94</v>
@@ -3543,7 +3546,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -4239,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ15">
         <v>0.29</v>
@@ -4367,7 +4370,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4779,7 +4782,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4860,7 +4863,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ18">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR18">
         <v>2.23</v>
@@ -5603,7 +5606,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5887,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ23">
         <v>0.29</v>
@@ -6015,7 +6018,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -6096,7 +6099,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ24">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR24">
         <v>1.24</v>
@@ -6221,7 +6224,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6299,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ25">
         <v>1.67</v>
@@ -6508,7 +6511,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ26">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR26">
         <v>1.62</v>
@@ -6633,7 +6636,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -7045,7 +7048,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -7457,7 +7460,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -8153,7 +8156,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ34">
         <v>1.67</v>
@@ -8359,7 +8362,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ35">
         <v>0.67</v>
@@ -8693,7 +8696,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -9105,7 +9108,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -9598,7 +9601,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ41">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR41">
         <v>2.19</v>
@@ -9723,7 +9726,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q42">
         <v>1.95</v>
@@ -9801,7 +9804,7 @@
         <v>1.25</v>
       </c>
       <c r="AP42">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ42">
         <v>1.28</v>
@@ -10007,7 +10010,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ43">
         <v>0.67</v>
@@ -10135,7 +10138,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10216,7 +10219,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ44">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR44">
         <v>1.49</v>
@@ -10341,7 +10344,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10753,7 +10756,7 @@
         <v>81</v>
       </c>
       <c r="P47" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -10959,7 +10962,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11243,10 +11246,10 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ49">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR49">
         <v>1.31</v>
@@ -11371,7 +11374,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q50">
         <v>6.1</v>
@@ -11452,7 +11455,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ50">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR50">
         <v>1.16</v>
@@ -12195,7 +12198,7 @@
         <v>111</v>
       </c>
       <c r="P54" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12401,7 +12404,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q55">
         <v>2.1</v>
@@ -12479,7 +12482,7 @@
         <v>1.8</v>
       </c>
       <c r="AP55">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ55">
         <v>1.88</v>
@@ -12607,7 +12610,7 @@
         <v>81</v>
       </c>
       <c r="P56" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12688,7 +12691,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ56">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR56">
         <v>1.1</v>
@@ -12813,7 +12816,7 @@
         <v>115</v>
       </c>
       <c r="P57" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q57">
         <v>1.95</v>
@@ -13225,7 +13228,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13303,7 +13306,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ59">
         <v>0.88</v>
@@ -13431,7 +13434,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q60">
         <v>3.6</v>
@@ -13512,7 +13515,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ60">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR60">
         <v>1.4</v>
@@ -13637,7 +13640,7 @@
         <v>89</v>
       </c>
       <c r="P61" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13718,7 +13721,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ61">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR61">
         <v>1.2</v>
@@ -13843,7 +13846,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -14049,7 +14052,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q63">
         <v>4.3</v>
@@ -14130,7 +14133,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ63">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR63">
         <v>1.5</v>
@@ -14255,7 +14258,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14333,7 +14336,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ64">
         <v>1.28</v>
@@ -14461,7 +14464,7 @@
         <v>120</v>
       </c>
       <c r="P65" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14745,7 +14748,7 @@
         <v>0.67</v>
       </c>
       <c r="AP66">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ66">
         <v>0.71</v>
@@ -15160,7 +15163,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ68">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR68">
         <v>1.5</v>
@@ -15491,7 +15494,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q70">
         <v>3.2</v>
@@ -15697,7 +15700,7 @@
         <v>114</v>
       </c>
       <c r="P71" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q71">
         <v>4.75</v>
@@ -15981,7 +15984,7 @@
         <v>0.57</v>
       </c>
       <c r="AP72">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ72">
         <v>0.71</v>
@@ -16393,10 +16396,10 @@
         <v>1.83</v>
       </c>
       <c r="AP74">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ74">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR74">
         <v>1.87</v>
@@ -16521,7 +16524,7 @@
         <v>125</v>
       </c>
       <c r="P75" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q75">
         <v>2.91</v>
@@ -16727,7 +16730,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -17139,7 +17142,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -17345,7 +17348,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -17632,7 +17635,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ80">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR80">
         <v>1.04</v>
@@ -17757,7 +17760,7 @@
         <v>130</v>
       </c>
       <c r="P81" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17963,7 +17966,7 @@
         <v>131</v>
       </c>
       <c r="P82" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q82">
         <v>3.5</v>
@@ -18041,10 +18044,10 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ82">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR82">
         <v>1.46</v>
@@ -18659,10 +18662,10 @@
         <v>0.86</v>
       </c>
       <c r="AP85">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ85">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR85">
         <v>1.72</v>
@@ -18868,7 +18871,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ86">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR86">
         <v>1.46</v>
@@ -18993,7 +18996,7 @@
         <v>134</v>
       </c>
       <c r="P87" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q87">
         <v>1.69</v>
@@ -19405,7 +19408,7 @@
         <v>101</v>
       </c>
       <c r="P89" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -19817,7 +19820,7 @@
         <v>137</v>
       </c>
       <c r="P91" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -20023,7 +20026,7 @@
         <v>138</v>
       </c>
       <c r="P92" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q92">
         <v>2.4</v>
@@ -20513,7 +20516,7 @@
         <v>1.22</v>
       </c>
       <c r="AP94">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ94">
         <v>0.88</v>
@@ -20847,7 +20850,7 @@
         <v>141</v>
       </c>
       <c r="P96" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21259,7 +21262,7 @@
         <v>143</v>
       </c>
       <c r="P98" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q98">
         <v>3.25</v>
@@ -21340,7 +21343,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ98">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR98">
         <v>1.44</v>
@@ -21465,7 +21468,7 @@
         <v>81</v>
       </c>
       <c r="P99" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q99">
         <v>3.55</v>
@@ -21671,7 +21674,7 @@
         <v>144</v>
       </c>
       <c r="P100" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q100">
         <v>2.65</v>
@@ -21752,7 +21755,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ100">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR100">
         <v>2.09</v>
@@ -21877,7 +21880,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q101">
         <v>4.33</v>
@@ -21955,7 +21958,7 @@
         <v>2.33</v>
       </c>
       <c r="AP101">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ101">
         <v>1.94</v>
@@ -22083,7 +22086,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q102">
         <v>2.34</v>
@@ -22573,7 +22576,7 @@
         <v>0.2</v>
       </c>
       <c r="AP104">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ104">
         <v>0.29</v>
@@ -22907,7 +22910,7 @@
         <v>149</v>
       </c>
       <c r="P106" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q106">
         <v>0</v>
@@ -23113,7 +23116,7 @@
         <v>150</v>
       </c>
       <c r="P107" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q107">
         <v>2.82</v>
@@ -23525,7 +23528,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q109">
         <v>2.2</v>
@@ -23606,7 +23609,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ109">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR109">
         <v>2.1</v>
@@ -23937,7 +23940,7 @@
         <v>81</v>
       </c>
       <c r="P111" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q111">
         <v>5.2</v>
@@ -24018,7 +24021,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ111">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR111">
         <v>1.34</v>
@@ -24221,7 +24224,7 @@
         <v>0.18</v>
       </c>
       <c r="AP112">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ112">
         <v>0.29</v>
@@ -24427,7 +24430,7 @@
         <v>1.3</v>
       </c>
       <c r="AP113">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ113">
         <v>1.67</v>
@@ -24555,7 +24558,7 @@
         <v>154</v>
       </c>
       <c r="P114" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q114">
         <v>3.8</v>
@@ -24761,7 +24764,7 @@
         <v>155</v>
       </c>
       <c r="P115" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q115">
         <v>0</v>
@@ -24967,7 +24970,7 @@
         <v>156</v>
       </c>
       <c r="P116" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q116">
         <v>5.5</v>
@@ -25460,7 +25463,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ118">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR118">
         <v>1.52</v>
@@ -25585,7 +25588,7 @@
         <v>159</v>
       </c>
       <c r="P119" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q119">
         <v>3.75</v>
@@ -25997,7 +26000,7 @@
         <v>160</v>
       </c>
       <c r="P121" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q121">
         <v>0</v>
@@ -26490,7 +26493,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ123">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR123">
         <v>1.1</v>
@@ -26693,7 +26696,7 @@
         <v>1</v>
       </c>
       <c r="AP124">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ124">
         <v>0.67</v>
@@ -26821,7 +26824,7 @@
         <v>164</v>
       </c>
       <c r="P125" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q125">
         <v>2.85</v>
@@ -27233,7 +27236,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q127">
         <v>6.5</v>
@@ -27439,7 +27442,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27645,7 +27648,7 @@
         <v>167</v>
       </c>
       <c r="P129" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q129">
         <v>2.2</v>
@@ -27851,7 +27854,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q130">
         <v>1.8</v>
@@ -28135,7 +28138,7 @@
         <v>0.92</v>
       </c>
       <c r="AP131">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ131">
         <v>0.67</v>
@@ -28550,7 +28553,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ133">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR133">
         <v>1.12</v>
@@ -28753,7 +28756,7 @@
         <v>1.46</v>
       </c>
       <c r="AP134">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ134">
         <v>1.28</v>
@@ -28881,7 +28884,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -29087,7 +29090,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q136">
         <v>2.25</v>
@@ -29165,10 +29168,10 @@
         <v>0.62</v>
       </c>
       <c r="AP136">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ136">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR136">
         <v>1.53</v>
@@ -29293,7 +29296,7 @@
         <v>81</v>
       </c>
       <c r="P137" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q137">
         <v>0</v>
@@ -29499,7 +29502,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q138">
         <v>3.4</v>
@@ -29786,7 +29789,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ139">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR139">
         <v>1.37</v>
@@ -30117,7 +30120,7 @@
         <v>170</v>
       </c>
       <c r="P141" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q141">
         <v>2</v>
@@ -30195,7 +30198,7 @@
         <v>1.79</v>
       </c>
       <c r="AP141">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ141">
         <v>1.88</v>
@@ -30529,7 +30532,7 @@
         <v>81</v>
       </c>
       <c r="P143" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q143">
         <v>2.45</v>
@@ -30735,7 +30738,7 @@
         <v>178</v>
       </c>
       <c r="P144" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q144">
         <v>9.5</v>
@@ -31019,7 +31022,7 @@
         <v>0.93</v>
       </c>
       <c r="AP145">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ145">
         <v>0.88</v>
@@ -31353,7 +31356,7 @@
         <v>181</v>
       </c>
       <c r="P147" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q147">
         <v>3.6</v>
@@ -31434,7 +31437,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ147">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR147">
         <v>1.64</v>
@@ -31559,7 +31562,7 @@
         <v>94</v>
       </c>
       <c r="P148" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q148">
         <v>3.1</v>
@@ -31640,7 +31643,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ148">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR148">
         <v>1.44</v>
@@ -31846,7 +31849,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ149">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR149">
         <v>1.5</v>
@@ -31971,7 +31974,7 @@
         <v>183</v>
       </c>
       <c r="P150" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q150">
         <v>0</v>
@@ -32255,7 +32258,7 @@
         <v>1.27</v>
       </c>
       <c r="AP151">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ151">
         <v>1.28</v>
@@ -32461,7 +32464,7 @@
         <v>0.8</v>
       </c>
       <c r="AP152">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ152">
         <v>0.71</v>
@@ -32589,7 +32592,7 @@
         <v>186</v>
       </c>
       <c r="P153" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q153">
         <v>5.5</v>
@@ -32795,7 +32798,7 @@
         <v>187</v>
       </c>
       <c r="P154" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q154">
         <v>5</v>
@@ -32876,7 +32879,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ154">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR154">
         <v>1.56</v>
@@ -33001,7 +33004,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q155">
         <v>0</v>
@@ -33288,7 +33291,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ156">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR156">
         <v>1.89</v>
@@ -33413,7 +33416,7 @@
         <v>190</v>
       </c>
       <c r="P157" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33619,7 +33622,7 @@
         <v>191</v>
       </c>
       <c r="P158" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q158">
         <v>3.25</v>
@@ -33825,7 +33828,7 @@
         <v>192</v>
       </c>
       <c r="P159" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q159">
         <v>2.5</v>
@@ -34109,7 +34112,7 @@
         <v>1.57</v>
       </c>
       <c r="AP160">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ160">
         <v>1.67</v>
@@ -34649,7 +34652,7 @@
         <v>194</v>
       </c>
       <c r="P163" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q163">
         <v>2.4</v>
@@ -34727,10 +34730,10 @@
         <v>1.5</v>
       </c>
       <c r="AP163">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ163">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AR163">
         <v>1.84</v>
@@ -34855,7 +34858,7 @@
         <v>81</v>
       </c>
       <c r="P164" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q164">
         <v>0</v>
@@ -35139,7 +35142,7 @@
         <v>0.75</v>
       </c>
       <c r="AP165">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ165">
         <v>0.71</v>
@@ -35267,7 +35270,7 @@
         <v>196</v>
       </c>
       <c r="P166" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q166">
         <v>2.88</v>
@@ -35554,7 +35557,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ167">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR167">
         <v>1.68</v>
@@ -35679,7 +35682,7 @@
         <v>198</v>
       </c>
       <c r="P168" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q168">
         <v>2.25</v>
@@ -35885,7 +35888,7 @@
         <v>90</v>
       </c>
       <c r="P169" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q169">
         <v>5.5</v>
@@ -36297,7 +36300,7 @@
         <v>200</v>
       </c>
       <c r="P171" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q171">
         <v>0</v>
@@ -36461,7 +36464,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>7483845</v>
+        <v>7483846</v>
       </c>
       <c r="C172" t="s">
         <v>68</v>
@@ -36470,34 +36473,34 @@
         <v>69</v>
       </c>
       <c r="E172" s="2">
-        <v>45794.52083333334</v>
+        <v>45794.41666666666</v>
       </c>
       <c r="F172">
         <v>35</v>
       </c>
       <c r="G172" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H172" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J172">
         <v>0</v>
       </c>
       <c r="K172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L172">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M172">
         <v>0</v>
       </c>
       <c r="N172">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O172" t="s">
         <v>201</v>
@@ -36506,160 +36509,160 @@
         <v>81</v>
       </c>
       <c r="Q172">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R172">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="S172">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="T172">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U172">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="V172">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="W172">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="X172">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="Y172">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="Z172">
-        <v>2.39</v>
+        <v>1.29</v>
       </c>
       <c r="AA172">
-        <v>3.15</v>
+        <v>4.75</v>
       </c>
       <c r="AB172">
-        <v>2.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC172">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AD172">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE172">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF172">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AG172">
+        <v>1.57</v>
+      </c>
+      <c r="AH172">
+        <v>2.15</v>
+      </c>
+      <c r="AI172">
+        <v>1.9</v>
+      </c>
+      <c r="AJ172">
+        <v>1.75</v>
+      </c>
+      <c r="AK172">
+        <v>1.04</v>
+      </c>
+      <c r="AL172">
+        <v>1.11</v>
+      </c>
+      <c r="AM172">
+        <v>3.1</v>
+      </c>
+      <c r="AN172">
+        <v>2.18</v>
+      </c>
+      <c r="AO172">
+        <v>0.65</v>
+      </c>
+      <c r="AP172">
+        <v>2.22</v>
+      </c>
+      <c r="AQ172">
+        <v>0.61</v>
+      </c>
+      <c r="AR172">
+        <v>1.82</v>
+      </c>
+      <c r="AS172">
+        <v>1.38</v>
+      </c>
+      <c r="AT172">
+        <v>3.2</v>
+      </c>
+      <c r="AU172">
+        <v>9</v>
+      </c>
+      <c r="AV172">
+        <v>3</v>
+      </c>
+      <c r="AW172">
+        <v>12</v>
+      </c>
+      <c r="AX172">
+        <v>3</v>
+      </c>
+      <c r="AY172">
+        <v>21</v>
+      </c>
+      <c r="AZ172">
+        <v>6</v>
+      </c>
+      <c r="BA172">
+        <v>6</v>
+      </c>
+      <c r="BB172">
+        <v>1</v>
+      </c>
+      <c r="BC172">
+        <v>7</v>
+      </c>
+      <c r="BD172">
+        <v>1.06</v>
+      </c>
+      <c r="BE172">
+        <v>14.5</v>
+      </c>
+      <c r="BF172">
+        <v>9.6</v>
+      </c>
+      <c r="BG172">
+        <v>1.21</v>
+      </c>
+      <c r="BH172">
+        <v>3.58</v>
+      </c>
+      <c r="BI172">
+        <v>1.4</v>
+      </c>
+      <c r="BJ172">
+        <v>2.56</v>
+      </c>
+      <c r="BK172">
+        <v>1.72</v>
+      </c>
+      <c r="BL172">
         <v>1.95</v>
       </c>
-      <c r="AH172">
-        <v>1.75</v>
-      </c>
-      <c r="AI172">
-        <v>0</v>
-      </c>
-      <c r="AJ172">
-        <v>0</v>
-      </c>
-      <c r="AK172">
-        <v>0</v>
-      </c>
-      <c r="AL172">
-        <v>0</v>
-      </c>
-      <c r="AM172">
-        <v>0</v>
-      </c>
-      <c r="AN172">
-        <v>1.29</v>
-      </c>
-      <c r="AO172">
-        <v>0.71</v>
-      </c>
-      <c r="AP172">
-        <v>1.39</v>
-      </c>
-      <c r="AQ172">
-        <v>0.67</v>
-      </c>
-      <c r="AR172">
-        <v>1.38</v>
-      </c>
-      <c r="AS172">
-        <v>1.26</v>
-      </c>
-      <c r="AT172">
-        <v>2.64</v>
-      </c>
-      <c r="AU172">
-        <v>-1</v>
-      </c>
-      <c r="AV172">
-        <v>-1</v>
-      </c>
-      <c r="AW172">
-        <v>-1</v>
-      </c>
-      <c r="AX172">
-        <v>-1</v>
-      </c>
-      <c r="AY172">
-        <v>-1</v>
-      </c>
-      <c r="AZ172">
-        <v>-1</v>
-      </c>
-      <c r="BA172">
-        <v>-1</v>
-      </c>
-      <c r="BB172">
-        <v>-1</v>
-      </c>
-      <c r="BC172">
-        <v>-1</v>
-      </c>
-      <c r="BD172">
-        <v>0</v>
-      </c>
-      <c r="BE172">
-        <v>0</v>
-      </c>
-      <c r="BF172">
-        <v>0</v>
-      </c>
-      <c r="BG172">
-        <v>0</v>
-      </c>
-      <c r="BH172">
-        <v>0</v>
-      </c>
-      <c r="BI172">
-        <v>0</v>
-      </c>
-      <c r="BJ172">
-        <v>0</v>
-      </c>
-      <c r="BK172">
-        <v>0</v>
-      </c>
-      <c r="BL172">
-        <v>0</v>
-      </c>
       <c r="BM172">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="BN172">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="BO172">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="BP172">
-        <v>0</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="173" spans="1:68">
@@ -36667,7 +36670,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>7483842</v>
+        <v>7483845</v>
       </c>
       <c r="C173" t="s">
         <v>68</v>
@@ -36676,22 +36679,22 @@
         <v>69</v>
       </c>
       <c r="E173" s="2">
-        <v>45795.41666666666</v>
+        <v>45794.52083333334</v>
       </c>
       <c r="F173">
         <v>35</v>
       </c>
       <c r="G173" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H173" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K173">
         <v>1</v>
@@ -36700,172 +36703,172 @@
         <v>2</v>
       </c>
       <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
         <v>2</v>
-      </c>
-      <c r="N173">
-        <v>4</v>
       </c>
       <c r="O173" t="s">
         <v>202</v>
       </c>
       <c r="P173" t="s">
-        <v>281</v>
+        <v>81</v>
       </c>
       <c r="Q173">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="R173">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="S173">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="T173">
+        <v>0</v>
+      </c>
+      <c r="U173">
+        <v>0</v>
+      </c>
+      <c r="V173">
+        <v>0</v>
+      </c>
+      <c r="W173">
+        <v>0</v>
+      </c>
+      <c r="X173">
+        <v>0</v>
+      </c>
+      <c r="Y173">
+        <v>0</v>
+      </c>
+      <c r="Z173">
+        <v>2.39</v>
+      </c>
+      <c r="AA173">
+        <v>3.15</v>
+      </c>
+      <c r="AB173">
+        <v>2.6</v>
+      </c>
+      <c r="AC173">
+        <v>0</v>
+      </c>
+      <c r="AD173">
+        <v>0</v>
+      </c>
+      <c r="AE173">
+        <v>0</v>
+      </c>
+      <c r="AF173">
+        <v>0</v>
+      </c>
+      <c r="AG173">
+        <v>1.95</v>
+      </c>
+      <c r="AH173">
+        <v>1.75</v>
+      </c>
+      <c r="AI173">
+        <v>0</v>
+      </c>
+      <c r="AJ173">
+        <v>0</v>
+      </c>
+      <c r="AK173">
+        <v>0</v>
+      </c>
+      <c r="AL173">
+        <v>0</v>
+      </c>
+      <c r="AM173">
+        <v>0</v>
+      </c>
+      <c r="AN173">
+        <v>1.29</v>
+      </c>
+      <c r="AO173">
+        <v>0.71</v>
+      </c>
+      <c r="AP173">
+        <v>1.39</v>
+      </c>
+      <c r="AQ173">
+        <v>0.67</v>
+      </c>
+      <c r="AR173">
         <v>1.38</v>
       </c>
-      <c r="U173">
-        <v>2.8</v>
-      </c>
-      <c r="V173">
-        <v>2.89</v>
-      </c>
-      <c r="W173">
-        <v>1.36</v>
-      </c>
-      <c r="X173">
-        <v>7.3</v>
-      </c>
-      <c r="Y173">
-        <v>1.07</v>
-      </c>
-      <c r="Z173">
-        <v>3</v>
-      </c>
-      <c r="AA173">
-        <v>3.23</v>
-      </c>
-      <c r="AB173">
-        <v>2.09</v>
-      </c>
-      <c r="AC173">
-        <v>1.01</v>
-      </c>
-      <c r="AD173">
-        <v>9</v>
-      </c>
-      <c r="AE173">
-        <v>1.25</v>
-      </c>
-      <c r="AF173">
-        <v>3.28</v>
-      </c>
-      <c r="AG173">
-        <v>1.94</v>
-      </c>
-      <c r="AH173">
-        <v>1.76</v>
-      </c>
-      <c r="AI173">
-        <v>1.77</v>
-      </c>
-      <c r="AJ173">
-        <v>1.89</v>
-      </c>
-      <c r="AK173">
-        <v>1.76</v>
-      </c>
-      <c r="AL173">
+      <c r="AS173">
         <v>1.26</v>
       </c>
-      <c r="AM173">
-        <v>1.24</v>
-      </c>
-      <c r="AN173">
-        <v>0.88</v>
-      </c>
-      <c r="AO173">
-        <v>1.29</v>
-      </c>
-      <c r="AP173">
-        <v>0.89</v>
-      </c>
-      <c r="AQ173">
-        <v>1.28</v>
-      </c>
-      <c r="AR173">
-        <v>1.43</v>
-      </c>
-      <c r="AS173">
-        <v>1.52</v>
-      </c>
       <c r="AT173">
-        <v>2.95</v>
+        <v>2.64</v>
       </c>
       <c r="AU173">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV173">
+        <v>5</v>
+      </c>
+      <c r="AW173">
         <v>6</v>
-      </c>
-      <c r="AW173">
-        <v>11</v>
       </c>
       <c r="AX173">
         <v>5</v>
       </c>
       <c r="AY173">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AZ173">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA173">
+        <v>2</v>
+      </c>
+      <c r="BB173">
         <v>4</v>
       </c>
-      <c r="BB173">
+      <c r="BC173">
         <v>6</v>
       </c>
-      <c r="BC173">
-        <v>10</v>
-      </c>
       <c r="BD173">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="BE173">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="BF173">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="BG173">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="BH173">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="BI173">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="BJ173">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="BK173">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="BL173">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="BM173">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="BN173">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="BO173">
-        <v>3.14</v>
+        <v>0</v>
       </c>
       <c r="BP173">
-        <v>1.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:68">
@@ -36873,7 +36876,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>7483843</v>
+        <v>7483842</v>
       </c>
       <c r="C174" t="s">
         <v>68</v>
@@ -36882,196 +36885,608 @@
         <v>69</v>
       </c>
       <c r="E174" s="2">
-        <v>45795.52083333334</v>
+        <v>45795.41666666666</v>
       </c>
       <c r="F174">
         <v>35</v>
       </c>
       <c r="G174" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H174" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I174">
         <v>0</v>
       </c>
       <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>2</v>
+      </c>
+      <c r="M174">
+        <v>2</v>
+      </c>
+      <c r="N174">
         <v>4</v>
       </c>
-      <c r="K174">
-        <v>4</v>
-      </c>
-      <c r="L174">
-        <v>1</v>
-      </c>
-      <c r="M174">
-        <v>6</v>
-      </c>
-      <c r="N174">
-        <v>7</v>
-      </c>
       <c r="O174" t="s">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="P174" t="s">
         <v>282</v>
       </c>
       <c r="Q174">
-        <v>5.7</v>
+        <v>4.2</v>
       </c>
       <c r="R174">
-        <v>2.57</v>
+        <v>2.06</v>
       </c>
       <c r="S174">
-        <v>1.81</v>
+        <v>2.54</v>
       </c>
       <c r="T174">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="U174">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="V174">
-        <v>2.14</v>
+        <v>2.89</v>
       </c>
       <c r="W174">
-        <v>1.66</v>
+        <v>1.36</v>
       </c>
       <c r="X174">
-        <v>4.6</v>
+        <v>7.3</v>
       </c>
       <c r="Y174">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
       <c r="Z174">
-        <v>5.3</v>
+        <v>3</v>
       </c>
       <c r="AA174">
-        <v>4.2</v>
+        <v>3.23</v>
       </c>
       <c r="AB174">
-        <v>1.44</v>
+        <v>2.09</v>
       </c>
       <c r="AC174">
         <v>1.01</v>
       </c>
       <c r="AD174">
+        <v>9</v>
+      </c>
+      <c r="AE174">
+        <v>1.25</v>
+      </c>
+      <c r="AF174">
+        <v>3.28</v>
+      </c>
+      <c r="AG174">
+        <v>1.94</v>
+      </c>
+      <c r="AH174">
+        <v>1.76</v>
+      </c>
+      <c r="AI174">
+        <v>1.77</v>
+      </c>
+      <c r="AJ174">
+        <v>1.89</v>
+      </c>
+      <c r="AK174">
+        <v>1.76</v>
+      </c>
+      <c r="AL174">
+        <v>1.26</v>
+      </c>
+      <c r="AM174">
+        <v>1.24</v>
+      </c>
+      <c r="AN174">
+        <v>0.88</v>
+      </c>
+      <c r="AO174">
+        <v>1.29</v>
+      </c>
+      <c r="AP174">
+        <v>0.89</v>
+      </c>
+      <c r="AQ174">
+        <v>1.28</v>
+      </c>
+      <c r="AR174">
+        <v>1.43</v>
+      </c>
+      <c r="AS174">
+        <v>1.52</v>
+      </c>
+      <c r="AT174">
+        <v>2.95</v>
+      </c>
+      <c r="AU174">
+        <v>7</v>
+      </c>
+      <c r="AV174">
+        <v>6</v>
+      </c>
+      <c r="AW174">
+        <v>11</v>
+      </c>
+      <c r="AX174">
+        <v>5</v>
+      </c>
+      <c r="AY174">
+        <v>18</v>
+      </c>
+      <c r="AZ174">
+        <v>11</v>
+      </c>
+      <c r="BA174">
+        <v>4</v>
+      </c>
+      <c r="BB174">
+        <v>6</v>
+      </c>
+      <c r="BC174">
+        <v>10</v>
+      </c>
+      <c r="BD174">
+        <v>2.48</v>
+      </c>
+      <c r="BE174">
+        <v>6.3</v>
+      </c>
+      <c r="BF174">
+        <v>1.8</v>
+      </c>
+      <c r="BG174">
+        <v>1.24</v>
+      </c>
+      <c r="BH174">
+        <v>3.34</v>
+      </c>
+      <c r="BI174">
+        <v>1.46</v>
+      </c>
+      <c r="BJ174">
+        <v>2.38</v>
+      </c>
+      <c r="BK174">
+        <v>1.83</v>
+      </c>
+      <c r="BL174">
+        <v>1.83</v>
+      </c>
+      <c r="BM174">
+        <v>2.33</v>
+      </c>
+      <c r="BN174">
+        <v>1.48</v>
+      </c>
+      <c r="BO174">
+        <v>3.14</v>
+      </c>
+      <c r="BP174">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7483843</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45795.52083333334</v>
+      </c>
+      <c r="F175">
+        <v>35</v>
+      </c>
+      <c r="G175" t="s">
+        <v>75</v>
+      </c>
+      <c r="H175" t="s">
+        <v>74</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>4</v>
+      </c>
+      <c r="K175">
+        <v>4</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175">
+        <v>6</v>
+      </c>
+      <c r="N175">
+        <v>7</v>
+      </c>
+      <c r="O175" t="s">
+        <v>100</v>
+      </c>
+      <c r="P175" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q175">
+        <v>5.7</v>
+      </c>
+      <c r="R175">
+        <v>2.57</v>
+      </c>
+      <c r="S175">
+        <v>1.81</v>
+      </c>
+      <c r="T175">
+        <v>1.21</v>
+      </c>
+      <c r="U175">
+        <v>4.1</v>
+      </c>
+      <c r="V175">
+        <v>2.14</v>
+      </c>
+      <c r="W175">
+        <v>1.66</v>
+      </c>
+      <c r="X175">
+        <v>4.6</v>
+      </c>
+      <c r="Y175">
+        <v>1.17</v>
+      </c>
+      <c r="Z175">
+        <v>5.3</v>
+      </c>
+      <c r="AA175">
+        <v>4.2</v>
+      </c>
+      <c r="AB175">
+        <v>1.44</v>
+      </c>
+      <c r="AC175">
+        <v>1.01</v>
+      </c>
+      <c r="AD175">
         <v>17</v>
       </c>
-      <c r="AE174">
+      <c r="AE175">
         <v>1.09</v>
       </c>
-      <c r="AF174">
+      <c r="AF175">
         <v>5.3</v>
       </c>
-      <c r="AG174">
+      <c r="AG175">
         <v>1.42</v>
       </c>
-      <c r="AH174">
+      <c r="AH175">
         <v>2.65</v>
       </c>
-      <c r="AI174">
+      <c r="AI175">
         <v>1.6</v>
       </c>
-      <c r="AJ174">
+      <c r="AJ175">
         <v>2.14</v>
       </c>
-      <c r="AK174">
+      <c r="AK175">
         <v>2.75</v>
       </c>
-      <c r="AL174">
+      <c r="AL175">
         <v>1.14</v>
       </c>
-      <c r="AM174">
+      <c r="AM175">
         <v>1.07</v>
       </c>
-      <c r="AN174">
+      <c r="AN175">
         <v>1.18</v>
       </c>
-      <c r="AO174">
+      <c r="AO175">
         <v>1.59</v>
       </c>
-      <c r="AP174">
+      <c r="AP175">
         <v>1.11</v>
       </c>
-      <c r="AQ174">
+      <c r="AQ175">
         <v>1.67</v>
       </c>
-      <c r="AR174">
+      <c r="AR175">
         <v>1.54</v>
       </c>
-      <c r="AS174">
+      <c r="AS175">
         <v>1.79</v>
       </c>
-      <c r="AT174">
+      <c r="AT175">
         <v>3.33</v>
       </c>
-      <c r="AU174">
-        <v>-1</v>
-      </c>
-      <c r="AV174">
-        <v>-1</v>
-      </c>
-      <c r="AW174">
-        <v>-1</v>
-      </c>
-      <c r="AX174">
-        <v>-1</v>
-      </c>
-      <c r="AY174">
-        <v>-1</v>
-      </c>
-      <c r="AZ174">
-        <v>-1</v>
-      </c>
-      <c r="BA174">
-        <v>-1</v>
-      </c>
-      <c r="BB174">
-        <v>-1</v>
-      </c>
-      <c r="BC174">
-        <v>-1</v>
-      </c>
-      <c r="BD174">
+      <c r="AU175">
+        <v>2</v>
+      </c>
+      <c r="AV175">
+        <v>12</v>
+      </c>
+      <c r="AW175">
+        <v>4</v>
+      </c>
+      <c r="AX175">
+        <v>2</v>
+      </c>
+      <c r="AY175">
+        <v>6</v>
+      </c>
+      <c r="AZ175">
+        <v>14</v>
+      </c>
+      <c r="BA175">
+        <v>1</v>
+      </c>
+      <c r="BB175">
+        <v>5</v>
+      </c>
+      <c r="BC175">
+        <v>6</v>
+      </c>
+      <c r="BD175">
         <v>5.35</v>
       </c>
-      <c r="BE174">
+      <c r="BE175">
         <v>11.25</v>
       </c>
-      <c r="BF174">
+      <c r="BF175">
         <v>1.19</v>
       </c>
-      <c r="BG174">
-        <v>0</v>
-      </c>
-      <c r="BH174">
-        <v>0</v>
-      </c>
-      <c r="BI174">
+      <c r="BG175">
+        <v>0</v>
+      </c>
+      <c r="BH175">
+        <v>0</v>
+      </c>
+      <c r="BI175">
         <v>1.34</v>
       </c>
-      <c r="BJ174">
+      <c r="BJ175">
         <v>2.78</v>
       </c>
-      <c r="BK174">
+      <c r="BK175">
         <v>1.61</v>
       </c>
-      <c r="BL174">
+      <c r="BL175">
         <v>2.07</v>
       </c>
-      <c r="BM174">
+      <c r="BM175">
         <v>2.03</v>
       </c>
-      <c r="BN174">
+      <c r="BN175">
         <v>1.67</v>
       </c>
-      <c r="BO174">
+      <c r="BO175">
         <v>2.62</v>
       </c>
-      <c r="BP174">
+      <c r="BP175">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7483844</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45795.63541666666</v>
+      </c>
+      <c r="F176">
+        <v>35</v>
+      </c>
+      <c r="G176" t="s">
+        <v>77</v>
+      </c>
+      <c r="H176" t="s">
+        <v>73</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="N176">
+        <v>2</v>
+      </c>
+      <c r="O176" t="s">
+        <v>174</v>
+      </c>
+      <c r="P176" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q176">
+        <v>3.36</v>
+      </c>
+      <c r="R176">
+        <v>2.2</v>
+      </c>
+      <c r="S176">
+        <v>2.74</v>
+      </c>
+      <c r="T176">
+        <v>1.32</v>
+      </c>
+      <c r="U176">
+        <v>3.1</v>
+      </c>
+      <c r="V176">
+        <v>2.49</v>
+      </c>
+      <c r="W176">
+        <v>1.47</v>
+      </c>
+      <c r="X176">
+        <v>6</v>
+      </c>
+      <c r="Y176">
+        <v>1.11</v>
+      </c>
+      <c r="Z176">
+        <v>2.56</v>
+      </c>
+      <c r="AA176">
+        <v>3.5</v>
+      </c>
+      <c r="AB176">
+        <v>2.26</v>
+      </c>
+      <c r="AC176">
+        <v>1</v>
+      </c>
+      <c r="AD176">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE176">
+        <v>1.19</v>
+      </c>
+      <c r="AF176">
+        <v>3.8</v>
+      </c>
+      <c r="AG176">
+        <v>1.67</v>
+      </c>
+      <c r="AH176">
+        <v>2</v>
+      </c>
+      <c r="AI176">
+        <v>1.57</v>
+      </c>
+      <c r="AJ176">
+        <v>2.19</v>
+      </c>
+      <c r="AK176">
+        <v>1.56</v>
+      </c>
+      <c r="AL176">
+        <v>1.25</v>
+      </c>
+      <c r="AM176">
+        <v>1.37</v>
+      </c>
+      <c r="AN176">
+        <v>1.76</v>
+      </c>
+      <c r="AO176">
+        <v>1.59</v>
+      </c>
+      <c r="AP176">
+        <v>1.72</v>
+      </c>
+      <c r="AQ176">
+        <v>1.56</v>
+      </c>
+      <c r="AR176">
+        <v>1.66</v>
+      </c>
+      <c r="AS176">
+        <v>1.73</v>
+      </c>
+      <c r="AT176">
+        <v>3.39</v>
+      </c>
+      <c r="AU176">
+        <v>5</v>
+      </c>
+      <c r="AV176">
+        <v>4</v>
+      </c>
+      <c r="AW176">
+        <v>5</v>
+      </c>
+      <c r="AX176">
+        <v>3</v>
+      </c>
+      <c r="AY176">
+        <v>10</v>
+      </c>
+      <c r="AZ176">
+        <v>7</v>
+      </c>
+      <c r="BA176">
+        <v>2</v>
+      </c>
+      <c r="BB176">
+        <v>4</v>
+      </c>
+      <c r="BC176">
+        <v>6</v>
+      </c>
+      <c r="BD176">
+        <v>2.19</v>
+      </c>
+      <c r="BE176">
+        <v>6.2</v>
+      </c>
+      <c r="BF176">
+        <v>2</v>
+      </c>
+      <c r="BG176">
+        <v>1.26</v>
+      </c>
+      <c r="BH176">
+        <v>3.22</v>
+      </c>
+      <c r="BI176">
+        <v>1.5</v>
+      </c>
+      <c r="BJ176">
+        <v>2.28</v>
+      </c>
+      <c r="BK176">
+        <v>1.88</v>
+      </c>
+      <c r="BL176">
+        <v>1.78</v>
+      </c>
+      <c r="BM176">
+        <v>2.43</v>
+      </c>
+      <c r="BN176">
+        <v>1.44</v>
+      </c>
+      <c r="BO176">
+        <v>3.28</v>
+      </c>
+      <c r="BP176">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Slovenia PrvaLiga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="285">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -628,6 +628,9 @@
     <t>['50', '60']</t>
   </si>
   <si>
+    <t>['36']</t>
+  </si>
+  <si>
     <t>['83']</t>
   </si>
   <si>
@@ -731,9 +734,6 @@
   </si>
   <si>
     <t>['3', '40', '45']</t>
-  </si>
-  <si>
-    <t>['36']</t>
   </si>
   <si>
     <t>['8', '53']</t>
@@ -866,6 +866,9 @@
   </si>
   <si>
     <t>['14', '16', '29', '30', '54', '77']</t>
+  </si>
+  <si>
+    <t>['16', '28', '50']</t>
   </si>
 </sst>
 </file>
@@ -1227,7 +1230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP176"/>
+  <dimension ref="A1:BP181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1567,7 +1570,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ2">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1770,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1976,10 +1979,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ4">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2104,7 +2107,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q5">
         <v>1.83</v>
@@ -2182,10 +2185,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AQ5">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2388,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ6">
         <v>1.28</v>
@@ -2722,7 +2725,7 @@
         <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -3009,7 +3012,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ9">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3212,10 +3215,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ10">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3418,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ11">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR11">
         <v>1.27</v>
@@ -3546,7 +3549,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3627,7 +3630,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ12">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3830,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ13">
         <v>1.67</v>
@@ -4036,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AQ14">
         <v>1.28</v>
@@ -4245,7 +4248,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ15">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="AR15">
         <v>1.3</v>
@@ -4370,7 +4373,7 @@
         <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4451,7 +4454,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ16">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>1.76</v>
@@ -4657,7 +4660,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ17">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AR17">
         <v>1.21</v>
@@ -4782,7 +4785,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4860,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ18">
         <v>0.61</v>
@@ -5066,7 +5069,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AQ19">
         <v>0.67</v>
@@ -5272,10 +5275,10 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ20">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR20">
         <v>0.95</v>
@@ -5481,7 +5484,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ21">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR21">
         <v>1.05</v>
@@ -5606,7 +5609,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5684,7 +5687,7 @@
         <v>0.5</v>
       </c>
       <c r="AP22">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ22">
         <v>1.28</v>
@@ -5893,7 +5896,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ23">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="AR23">
         <v>0.7</v>
@@ -6018,7 +6021,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q24">
         <v>4.6</v>
@@ -6096,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ24">
         <v>1.56</v>
@@ -6224,7 +6227,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q25">
         <v>2.2</v>
@@ -6508,7 +6511,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ26">
         <v>0.61</v>
@@ -6636,7 +6639,7 @@
         <v>81</v>
       </c>
       <c r="P27" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q27">
         <v>4.06</v>
@@ -6717,7 +6720,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ27">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR27">
         <v>0.98</v>
@@ -6920,10 +6923,10 @@
         <v>2</v>
       </c>
       <c r="AP28">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AQ28">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AR28">
         <v>1.74</v>
@@ -7048,7 +7051,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -7126,10 +7129,10 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ29">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <v>2.04</v>
@@ -7332,10 +7335,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ30">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="AR30">
         <v>1.03</v>
@@ -7460,7 +7463,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q31">
         <v>3.4</v>
@@ -7541,7 +7544,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ31">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR31">
         <v>1.26</v>
@@ -7744,7 +7747,7 @@
         <v>1.33</v>
       </c>
       <c r="AP32">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ32">
         <v>1.28</v>
@@ -7950,10 +7953,10 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AQ33">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR33">
         <v>1.63</v>
@@ -8568,10 +8571,10 @@
         <v>1.2</v>
       </c>
       <c r="AP36">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ36">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>1.75</v>
@@ -8696,7 +8699,7 @@
         <v>81</v>
       </c>
       <c r="P37" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q37">
         <v>5.5</v>
@@ -8774,10 +8777,10 @@
         <v>1.67</v>
       </c>
       <c r="AP37">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ37">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AR37">
         <v>1.39</v>
@@ -8980,10 +8983,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ38">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR38">
         <v>1.19</v>
@@ -9108,7 +9111,7 @@
         <v>108</v>
       </c>
       <c r="P39" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q39">
         <v>1.8</v>
@@ -9186,10 +9189,10 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ39">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="AR39">
         <v>2.18</v>
@@ -9392,10 +9395,10 @@
         <v>2.25</v>
       </c>
       <c r="AP40">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AQ40">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR40">
         <v>1.6</v>
@@ -9598,7 +9601,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ41">
         <v>1.56</v>
@@ -9726,7 +9729,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q42">
         <v>1.95</v>
@@ -10138,7 +10141,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -10344,7 +10347,7 @@
         <v>81</v>
       </c>
       <c r="P45" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10756,7 +10759,7 @@
         <v>81</v>
       </c>
       <c r="P47" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -10837,7 +10840,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ47">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AR47">
         <v>1.05</v>
@@ -10962,7 +10965,7 @@
         <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q48">
         <v>3.75</v>
@@ -11040,7 +11043,7 @@
         <v>1.25</v>
       </c>
       <c r="AP48">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ48">
         <v>1.67</v>
@@ -11374,7 +11377,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q50">
         <v>6.1</v>
@@ -11658,10 +11661,10 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ51">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="AR51">
         <v>1.32</v>
@@ -11864,10 +11867,10 @@
         <v>0.2</v>
       </c>
       <c r="AP52">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ52">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR52">
         <v>1.58</v>
@@ -12198,7 +12201,7 @@
         <v>111</v>
       </c>
       <c r="P54" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12276,7 +12279,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AQ54">
         <v>1.67</v>
@@ -12404,7 +12407,7 @@
         <v>81</v>
       </c>
       <c r="P55" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q55">
         <v>2.1</v>
@@ -12485,7 +12488,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ55">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR55">
         <v>1.92</v>
@@ -12610,7 +12613,7 @@
         <v>81</v>
       </c>
       <c r="P56" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12816,7 +12819,7 @@
         <v>115</v>
       </c>
       <c r="P57" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q57">
         <v>1.95</v>
@@ -12894,7 +12897,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ57">
         <v>0.67</v>
@@ -13103,7 +13106,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ58">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AR58">
         <v>1.46</v>
@@ -13228,7 +13231,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -13309,7 +13312,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ59">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR59">
         <v>1.36</v>
@@ -13434,7 +13437,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q60">
         <v>3.6</v>
@@ -13512,7 +13515,7 @@
         <v>1.75</v>
       </c>
       <c r="AP60">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ60">
         <v>1.56</v>
@@ -13640,7 +13643,7 @@
         <v>89</v>
       </c>
       <c r="P61" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13846,7 +13849,7 @@
         <v>117</v>
       </c>
       <c r="P62" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -13927,7 +13930,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ62">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="AR62">
         <v>1.13</v>
@@ -14052,7 +14055,7 @@
         <v>118</v>
       </c>
       <c r="P63" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q63">
         <v>4.3</v>
@@ -14130,7 +14133,7 @@
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ63">
         <v>1.56</v>
@@ -14258,7 +14261,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -14464,7 +14467,7 @@
         <v>120</v>
       </c>
       <c r="P65" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14542,7 +14545,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ65">
         <v>1.67</v>
@@ -14751,7 +14754,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ66">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR66">
         <v>1.87</v>
@@ -14957,7 +14960,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ67">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR67">
         <v>1.12</v>
@@ -15160,7 +15163,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AQ68">
         <v>0.61</v>
@@ -15366,7 +15369,7 @@
         <v>0.83</v>
       </c>
       <c r="AP69">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ69">
         <v>0.67</v>
@@ -15494,7 +15497,7 @@
         <v>81</v>
       </c>
       <c r="P70" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q70">
         <v>3.2</v>
@@ -15572,10 +15575,10 @@
         <v>2.33</v>
       </c>
       <c r="AP70">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ70">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AR70">
         <v>1.99</v>
@@ -15700,7 +15703,7 @@
         <v>114</v>
       </c>
       <c r="P71" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q71">
         <v>4.75</v>
@@ -15781,7 +15784,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ71">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR71">
         <v>1.47</v>
@@ -15987,7 +15990,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ72">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR72">
         <v>1.36</v>
@@ -16524,7 +16527,7 @@
         <v>125</v>
       </c>
       <c r="P75" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q75">
         <v>2.91</v>
@@ -16602,7 +16605,7 @@
         <v>0.71</v>
       </c>
       <c r="AP75">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ75">
         <v>0.67</v>
@@ -16730,7 +16733,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -17014,10 +17017,10 @@
         <v>2.14</v>
       </c>
       <c r="AP77">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ77">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR77">
         <v>2</v>
@@ -17142,7 +17145,7 @@
         <v>128</v>
       </c>
       <c r="P78" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -17223,7 +17226,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ78">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="AR78">
         <v>1.13</v>
@@ -17348,7 +17351,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -17426,10 +17429,10 @@
         <v>2.43</v>
       </c>
       <c r="AP79">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ79">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AR79">
         <v>1.42</v>
@@ -17760,7 +17763,7 @@
         <v>130</v>
       </c>
       <c r="P81" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17966,7 +17969,7 @@
         <v>131</v>
       </c>
       <c r="P82" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="Q82">
         <v>3.5</v>
@@ -18868,7 +18871,7 @@
         <v>0.75</v>
       </c>
       <c r="AP86">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ86">
         <v>0.61</v>
@@ -19074,10 +19077,10 @@
         <v>0.5</v>
       </c>
       <c r="AP87">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ87">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR87">
         <v>1.97</v>
@@ -19280,10 +19283,10 @@
         <v>2.5</v>
       </c>
       <c r="AP88">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ88">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AR88">
         <v>1.51</v>
@@ -19486,10 +19489,10 @@
         <v>1.25</v>
       </c>
       <c r="AP89">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ89">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR89">
         <v>1.41</v>
@@ -19692,10 +19695,10 @@
         <v>0.13</v>
       </c>
       <c r="AP90">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AQ90">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="AR90">
         <v>1.64</v>
@@ -19898,10 +19901,10 @@
         <v>1.88</v>
       </c>
       <c r="AP91">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ91">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR91">
         <v>1.34</v>
@@ -20104,7 +20107,7 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ92">
         <v>1.28</v>
@@ -20310,10 +20313,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP93">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AQ93">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR93">
         <v>1.71</v>
@@ -20519,7 +20522,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ94">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR94">
         <v>1.81</v>
@@ -20722,10 +20725,10 @@
         <v>0.11</v>
       </c>
       <c r="AP95">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ95">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="AR95">
         <v>1.41</v>
@@ -20928,10 +20931,10 @@
         <v>2</v>
       </c>
       <c r="AP96">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ96">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR96">
         <v>1.35</v>
@@ -21134,10 +21137,10 @@
         <v>1.1</v>
       </c>
       <c r="AP97">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ97">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR97">
         <v>1.44</v>
@@ -21752,7 +21755,7 @@
         <v>1.44</v>
       </c>
       <c r="AP100">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ100">
         <v>1.56</v>
@@ -21961,7 +21964,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ101">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AR101">
         <v>1.43</v>
@@ -22164,7 +22167,7 @@
         <v>1.5</v>
       </c>
       <c r="AP102">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AQ102">
         <v>1.28</v>
@@ -22370,7 +22373,7 @@
         <v>1.33</v>
       </c>
       <c r="AP103">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ103">
         <v>1.67</v>
@@ -22579,7 +22582,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ104">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="AR104">
         <v>1.82</v>
@@ -22782,10 +22785,10 @@
         <v>0.5</v>
       </c>
       <c r="AP105">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ105">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR105">
         <v>1.39</v>
@@ -22991,7 +22994,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ106">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR106">
         <v>1.46</v>
@@ -23194,10 +23197,10 @@
         <v>2.1</v>
       </c>
       <c r="AP107">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ107">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR107">
         <v>1.54</v>
@@ -23400,7 +23403,7 @@
         <v>1.1</v>
       </c>
       <c r="AP108">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AQ108">
         <v>0.67</v>
@@ -23606,7 +23609,7 @@
         <v>0.7</v>
       </c>
       <c r="AP109">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ109">
         <v>0.61</v>
@@ -23815,7 +23818,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ110">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR110">
         <v>1.09</v>
@@ -24018,7 +24021,7 @@
         <v>1.6</v>
       </c>
       <c r="AP111">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ111">
         <v>1.56</v>
@@ -24227,7 +24230,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ112">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="AR112">
         <v>1.41</v>
@@ -24636,7 +24639,7 @@
         <v>1.64</v>
       </c>
       <c r="AP114">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ114">
         <v>1.28</v>
@@ -24845,7 +24848,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ115">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR115">
         <v>1.09</v>
@@ -25051,7 +25054,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ116">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AR116">
         <v>1.46</v>
@@ -25254,10 +25257,10 @@
         <v>0.25</v>
       </c>
       <c r="AP117">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ117">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="AR117">
         <v>1.5</v>
@@ -25460,7 +25463,7 @@
         <v>0.64</v>
       </c>
       <c r="AP118">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ118">
         <v>0.61</v>
@@ -25669,7 +25672,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ119">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR119">
         <v>1.44</v>
@@ -25872,10 +25875,10 @@
         <v>2.18</v>
       </c>
       <c r="AP120">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AQ120">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AR120">
         <v>1.91</v>
@@ -26078,10 +26081,10 @@
         <v>1</v>
       </c>
       <c r="AP121">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ121">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR121">
         <v>2.13</v>
@@ -26284,7 +26287,7 @@
         <v>1.58</v>
       </c>
       <c r="AP122">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ122">
         <v>1.28</v>
@@ -26905,7 +26908,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ125">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR125">
         <v>1.44</v>
@@ -27108,10 +27111,10 @@
         <v>1</v>
       </c>
       <c r="AP126">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ126">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR126">
         <v>1.52</v>
@@ -27314,10 +27317,10 @@
         <v>2</v>
       </c>
       <c r="AP127">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ127">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AR127">
         <v>1.33</v>
@@ -27520,10 +27523,10 @@
         <v>0.62</v>
       </c>
       <c r="AP128">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ128">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR128">
         <v>1.54</v>
@@ -27726,10 +27729,10 @@
         <v>1.92</v>
       </c>
       <c r="AP129">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AQ129">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR129">
         <v>1.87</v>
@@ -27932,10 +27935,10 @@
         <v>0.31</v>
       </c>
       <c r="AP130">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ130">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="AR130">
         <v>2.1</v>
@@ -29377,7 +29380,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ137">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AR137">
         <v>1.25</v>
@@ -29580,7 +29583,7 @@
         <v>1.33</v>
       </c>
       <c r="AP138">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ138">
         <v>1.67</v>
@@ -29992,10 +29995,10 @@
         <v>0.29</v>
       </c>
       <c r="AP140">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ140">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="AR140">
         <v>1.3</v>
@@ -30120,7 +30123,7 @@
         <v>170</v>
       </c>
       <c r="P141" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q141">
         <v>2</v>
@@ -30201,7 +30204,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ141">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR141">
         <v>1.82</v>
@@ -30610,10 +30613,10 @@
         <v>0.64</v>
       </c>
       <c r="AP143">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ143">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR143">
         <v>1.51</v>
@@ -30819,7 +30822,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ144">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AR144">
         <v>1.54</v>
@@ -31025,7 +31028,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ145">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR145">
         <v>1.54</v>
@@ -31228,7 +31231,7 @@
         <v>0.79</v>
       </c>
       <c r="AP146">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ146">
         <v>0.67</v>
@@ -31434,7 +31437,7 @@
         <v>1.46</v>
       </c>
       <c r="AP147">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ147">
         <v>1.56</v>
@@ -32055,7 +32058,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ150">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="AR150">
         <v>1.31</v>
@@ -32467,7 +32470,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ152">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR152">
         <v>1.81</v>
@@ -32670,7 +32673,7 @@
         <v>1.46</v>
       </c>
       <c r="AP153">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ153">
         <v>1.67</v>
@@ -32876,7 +32879,7 @@
         <v>1.4</v>
       </c>
       <c r="AP154">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ154">
         <v>1.56</v>
@@ -33004,7 +33007,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="Q155">
         <v>0</v>
@@ -33085,7 +33088,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ155">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR155">
         <v>1.44</v>
@@ -33288,7 +33291,7 @@
         <v>0.73</v>
       </c>
       <c r="AP156">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AQ156">
         <v>0.61</v>
@@ -33497,7 +33500,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ157">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR157">
         <v>1.57</v>
@@ -33700,10 +33703,10 @@
         <v>2.07</v>
       </c>
       <c r="AP158">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ158">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AR158">
         <v>2.13</v>
@@ -33906,7 +33909,7 @@
         <v>0.73</v>
       </c>
       <c r="AP159">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ159">
         <v>0.67</v>
@@ -34524,7 +34527,7 @@
         <v>0.75</v>
       </c>
       <c r="AP162">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AQ162">
         <v>0.67</v>
@@ -35145,7 +35148,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ165">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AR165">
         <v>1.61</v>
@@ -35348,7 +35351,7 @@
         <v>1.63</v>
       </c>
       <c r="AP166">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AQ166">
         <v>1.67</v>
@@ -35554,7 +35557,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP167">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ167">
         <v>0.61</v>
@@ -35760,10 +35763,10 @@
         <v>1.81</v>
       </c>
       <c r="AP168">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ168">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AR168">
         <v>2.15</v>
@@ -35966,10 +35969,10 @@
         <v>2</v>
       </c>
       <c r="AP169">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AQ169">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AR169">
         <v>1.55</v>
@@ -36175,7 +36178,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ170">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="AR170">
         <v>1.45</v>
@@ -36378,10 +36381,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP171">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AQ171">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR171">
         <v>1.98</v>
@@ -37487,6 +37490,1036 @@
       </c>
       <c r="BP176">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7483848</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45800.52083333334</v>
+      </c>
+      <c r="F177">
+        <v>36</v>
+      </c>
+      <c r="G177" t="s">
+        <v>71</v>
+      </c>
+      <c r="H177" t="s">
+        <v>79</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+      <c r="N177">
+        <v>1</v>
+      </c>
+      <c r="O177" t="s">
+        <v>81</v>
+      </c>
+      <c r="P177" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q177">
+        <v>0</v>
+      </c>
+      <c r="R177">
+        <v>0</v>
+      </c>
+      <c r="S177">
+        <v>0</v>
+      </c>
+      <c r="T177">
+        <v>0</v>
+      </c>
+      <c r="U177">
+        <v>0</v>
+      </c>
+      <c r="V177">
+        <v>0</v>
+      </c>
+      <c r="W177">
+        <v>0</v>
+      </c>
+      <c r="X177">
+        <v>0</v>
+      </c>
+      <c r="Y177">
+        <v>0</v>
+      </c>
+      <c r="Z177">
+        <v>2.14</v>
+      </c>
+      <c r="AA177">
+        <v>3.38</v>
+      </c>
+      <c r="AB177">
+        <v>2.81</v>
+      </c>
+      <c r="AC177">
+        <v>0</v>
+      </c>
+      <c r="AD177">
+        <v>0</v>
+      </c>
+      <c r="AE177">
+        <v>0</v>
+      </c>
+      <c r="AF177">
+        <v>0</v>
+      </c>
+      <c r="AG177">
+        <v>1.77</v>
+      </c>
+      <c r="AH177">
+        <v>1.93</v>
+      </c>
+      <c r="AI177">
+        <v>0</v>
+      </c>
+      <c r="AJ177">
+        <v>0</v>
+      </c>
+      <c r="AK177">
+        <v>0</v>
+      </c>
+      <c r="AL177">
+        <v>0</v>
+      </c>
+      <c r="AM177">
+        <v>0</v>
+      </c>
+      <c r="AN177">
+        <v>1.41</v>
+      </c>
+      <c r="AO177">
+        <v>0.88</v>
+      </c>
+      <c r="AP177">
+        <v>1.33</v>
+      </c>
+      <c r="AQ177">
+        <v>1</v>
+      </c>
+      <c r="AR177">
+        <v>1.32</v>
+      </c>
+      <c r="AS177">
+        <v>1.3</v>
+      </c>
+      <c r="AT177">
+        <v>2.62</v>
+      </c>
+      <c r="AU177">
+        <v>9</v>
+      </c>
+      <c r="AV177">
+        <v>7</v>
+      </c>
+      <c r="AW177">
+        <v>6</v>
+      </c>
+      <c r="AX177">
+        <v>4</v>
+      </c>
+      <c r="AY177">
+        <v>15</v>
+      </c>
+      <c r="AZ177">
+        <v>11</v>
+      </c>
+      <c r="BA177">
+        <v>7</v>
+      </c>
+      <c r="BB177">
+        <v>1</v>
+      </c>
+      <c r="BC177">
+        <v>8</v>
+      </c>
+      <c r="BD177">
+        <v>0</v>
+      </c>
+      <c r="BE177">
+        <v>0</v>
+      </c>
+      <c r="BF177">
+        <v>0</v>
+      </c>
+      <c r="BG177">
+        <v>0</v>
+      </c>
+      <c r="BH177">
+        <v>0</v>
+      </c>
+      <c r="BI177">
+        <v>0</v>
+      </c>
+      <c r="BJ177">
+        <v>0</v>
+      </c>
+      <c r="BK177">
+        <v>0</v>
+      </c>
+      <c r="BL177">
+        <v>0</v>
+      </c>
+      <c r="BM177">
+        <v>0</v>
+      </c>
+      <c r="BN177">
+        <v>0</v>
+      </c>
+      <c r="BO177">
+        <v>0</v>
+      </c>
+      <c r="BP177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7483847</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45801.41666666666</v>
+      </c>
+      <c r="F178">
+        <v>36</v>
+      </c>
+      <c r="G178" t="s">
+        <v>78</v>
+      </c>
+      <c r="H178" t="s">
+        <v>70</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>0</v>
+      </c>
+      <c r="O178" t="s">
+        <v>81</v>
+      </c>
+      <c r="P178" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q178">
+        <v>4.8</v>
+      </c>
+      <c r="R178">
+        <v>2.07</v>
+      </c>
+      <c r="S178">
+        <v>2.35</v>
+      </c>
+      <c r="T178">
+        <v>1.41</v>
+      </c>
+      <c r="U178">
+        <v>2.69</v>
+      </c>
+      <c r="V178">
+        <v>2.93</v>
+      </c>
+      <c r="W178">
+        <v>1.35</v>
+      </c>
+      <c r="X178">
+        <v>7.7</v>
+      </c>
+      <c r="Y178">
+        <v>1.06</v>
+      </c>
+      <c r="Z178">
+        <v>4.3</v>
+      </c>
+      <c r="AA178">
+        <v>3.45</v>
+      </c>
+      <c r="AB178">
+        <v>1.8</v>
+      </c>
+      <c r="AC178">
+        <v>1.02</v>
+      </c>
+      <c r="AD178">
+        <v>8</v>
+      </c>
+      <c r="AE178">
+        <v>1.3</v>
+      </c>
+      <c r="AF178">
+        <v>2.97</v>
+      </c>
+      <c r="AG178">
+        <v>1.91</v>
+      </c>
+      <c r="AH178">
+        <v>1.73</v>
+      </c>
+      <c r="AI178">
+        <v>1.87</v>
+      </c>
+      <c r="AJ178">
+        <v>1.79</v>
+      </c>
+      <c r="AK178">
+        <v>1.89</v>
+      </c>
+      <c r="AL178">
+        <v>1.26</v>
+      </c>
+      <c r="AM178">
+        <v>1.18</v>
+      </c>
+      <c r="AN178">
+        <v>1.82</v>
+      </c>
+      <c r="AO178">
+        <v>1.94</v>
+      </c>
+      <c r="AP178">
+        <v>1.78</v>
+      </c>
+      <c r="AQ178">
+        <v>1.89</v>
+      </c>
+      <c r="AR178">
+        <v>1.72</v>
+      </c>
+      <c r="AS178">
+        <v>1.88</v>
+      </c>
+      <c r="AT178">
+        <v>3.6</v>
+      </c>
+      <c r="AU178">
+        <v>7</v>
+      </c>
+      <c r="AV178">
+        <v>6</v>
+      </c>
+      <c r="AW178">
+        <v>8</v>
+      </c>
+      <c r="AX178">
+        <v>3</v>
+      </c>
+      <c r="AY178">
+        <v>15</v>
+      </c>
+      <c r="AZ178">
+        <v>9</v>
+      </c>
+      <c r="BA178">
+        <v>3</v>
+      </c>
+      <c r="BB178">
+        <v>1</v>
+      </c>
+      <c r="BC178">
+        <v>4</v>
+      </c>
+      <c r="BD178">
+        <v>0</v>
+      </c>
+      <c r="BE178">
+        <v>0</v>
+      </c>
+      <c r="BF178">
+        <v>0</v>
+      </c>
+      <c r="BG178">
+        <v>0</v>
+      </c>
+      <c r="BH178">
+        <v>0</v>
+      </c>
+      <c r="BI178">
+        <v>0</v>
+      </c>
+      <c r="BJ178">
+        <v>0</v>
+      </c>
+      <c r="BK178">
+        <v>0</v>
+      </c>
+      <c r="BL178">
+        <v>0</v>
+      </c>
+      <c r="BM178">
+        <v>0</v>
+      </c>
+      <c r="BN178">
+        <v>0</v>
+      </c>
+      <c r="BO178">
+        <v>0</v>
+      </c>
+      <c r="BP178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7483850</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45802.41666666666</v>
+      </c>
+      <c r="F179">
+        <v>36</v>
+      </c>
+      <c r="G179" t="s">
+        <v>73</v>
+      </c>
+      <c r="H179" t="s">
+        <v>75</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+      <c r="N179">
+        <v>1</v>
+      </c>
+      <c r="O179" t="s">
+        <v>81</v>
+      </c>
+      <c r="P179" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q179">
+        <v>1.66</v>
+      </c>
+      <c r="R179">
+        <v>2.83</v>
+      </c>
+      <c r="S179">
+        <v>6.15</v>
+      </c>
+      <c r="T179">
+        <v>1.18</v>
+      </c>
+      <c r="U179">
+        <v>4.5</v>
+      </c>
+      <c r="V179">
+        <v>2</v>
+      </c>
+      <c r="W179">
+        <v>1.76</v>
+      </c>
+      <c r="X179">
+        <v>4.1</v>
+      </c>
+      <c r="Y179">
+        <v>1.21</v>
+      </c>
+      <c r="Z179">
+        <v>1.23</v>
+      </c>
+      <c r="AA179">
+        <v>5.5</v>
+      </c>
+      <c r="AB179">
+        <v>8</v>
+      </c>
+      <c r="AC179">
+        <v>1.01</v>
+      </c>
+      <c r="AD179">
+        <v>17</v>
+      </c>
+      <c r="AE179">
+        <v>1.06</v>
+      </c>
+      <c r="AF179">
+        <v>6.05</v>
+      </c>
+      <c r="AG179">
+        <v>1.34</v>
+      </c>
+      <c r="AH179">
+        <v>2.99</v>
+      </c>
+      <c r="AI179">
+        <v>1.71</v>
+      </c>
+      <c r="AJ179">
+        <v>1.97</v>
+      </c>
+      <c r="AK179">
+        <v>1.05</v>
+      </c>
+      <c r="AL179">
+        <v>1.08</v>
+      </c>
+      <c r="AM179">
+        <v>3.32</v>
+      </c>
+      <c r="AN179">
+        <v>2.29</v>
+      </c>
+      <c r="AO179">
+        <v>0.29</v>
+      </c>
+      <c r="AP179">
+        <v>2.17</v>
+      </c>
+      <c r="AQ179">
+        <v>0.44</v>
+      </c>
+      <c r="AR179">
+        <v>1.98</v>
+      </c>
+      <c r="AS179">
+        <v>1.28</v>
+      </c>
+      <c r="AT179">
+        <v>3.26</v>
+      </c>
+      <c r="AU179">
+        <v>3</v>
+      </c>
+      <c r="AV179">
+        <v>4</v>
+      </c>
+      <c r="AW179">
+        <v>13</v>
+      </c>
+      <c r="AX179">
+        <v>7</v>
+      </c>
+      <c r="AY179">
+        <v>16</v>
+      </c>
+      <c r="AZ179">
+        <v>11</v>
+      </c>
+      <c r="BA179">
+        <v>9</v>
+      </c>
+      <c r="BB179">
+        <v>5</v>
+      </c>
+      <c r="BC179">
+        <v>14</v>
+      </c>
+      <c r="BD179">
+        <v>0</v>
+      </c>
+      <c r="BE179">
+        <v>0</v>
+      </c>
+      <c r="BF179">
+        <v>0</v>
+      </c>
+      <c r="BG179">
+        <v>0</v>
+      </c>
+      <c r="BH179">
+        <v>0</v>
+      </c>
+      <c r="BI179">
+        <v>0</v>
+      </c>
+      <c r="BJ179">
+        <v>0</v>
+      </c>
+      <c r="BK179">
+        <v>0</v>
+      </c>
+      <c r="BL179">
+        <v>0</v>
+      </c>
+      <c r="BM179">
+        <v>0</v>
+      </c>
+      <c r="BN179">
+        <v>0</v>
+      </c>
+      <c r="BO179">
+        <v>0</v>
+      </c>
+      <c r="BP179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7483851</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45802.41666666666</v>
+      </c>
+      <c r="F180">
+        <v>36</v>
+      </c>
+      <c r="G180" t="s">
+        <v>74</v>
+      </c>
+      <c r="H180" t="s">
+        <v>76</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+      <c r="N180">
+        <v>2</v>
+      </c>
+      <c r="O180" t="s">
+        <v>175</v>
+      </c>
+      <c r="P180" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q180">
+        <v>1.73</v>
+      </c>
+      <c r="R180">
+        <v>2.66</v>
+      </c>
+      <c r="S180">
+        <v>6.15</v>
+      </c>
+      <c r="T180">
+        <v>1.17</v>
+      </c>
+      <c r="U180">
+        <v>4.7</v>
+      </c>
+      <c r="V180">
+        <v>2.02</v>
+      </c>
+      <c r="W180">
+        <v>1.74</v>
+      </c>
+      <c r="X180">
+        <v>4</v>
+      </c>
+      <c r="Y180">
+        <v>1.22</v>
+      </c>
+      <c r="Z180">
+        <v>1.33</v>
+      </c>
+      <c r="AA180">
+        <v>5</v>
+      </c>
+      <c r="AB180">
+        <v>6</v>
+      </c>
+      <c r="AC180">
+        <v>1.01</v>
+      </c>
+      <c r="AD180">
+        <v>23</v>
+      </c>
+      <c r="AE180">
+        <v>1.06</v>
+      </c>
+      <c r="AF180">
+        <v>6.25</v>
+      </c>
+      <c r="AG180">
+        <v>1.26</v>
+      </c>
+      <c r="AH180">
+        <v>3.48</v>
+      </c>
+      <c r="AI180">
+        <v>1.56</v>
+      </c>
+      <c r="AJ180">
+        <v>2.21</v>
+      </c>
+      <c r="AK180">
+        <v>1.05</v>
+      </c>
+      <c r="AL180">
+        <v>1.12</v>
+      </c>
+      <c r="AM180">
+        <v>3.02</v>
+      </c>
+      <c r="AN180">
+        <v>1.76</v>
+      </c>
+      <c r="AO180">
+        <v>0.71</v>
+      </c>
+      <c r="AP180">
+        <v>1.72</v>
+      </c>
+      <c r="AQ180">
+        <v>0.72</v>
+      </c>
+      <c r="AR180">
+        <v>2.17</v>
+      </c>
+      <c r="AS180">
+        <v>1.22</v>
+      </c>
+      <c r="AT180">
+        <v>3.39</v>
+      </c>
+      <c r="AU180">
+        <v>12</v>
+      </c>
+      <c r="AV180">
+        <v>3</v>
+      </c>
+      <c r="AW180">
+        <v>12</v>
+      </c>
+      <c r="AX180">
+        <v>1</v>
+      </c>
+      <c r="AY180">
+        <v>24</v>
+      </c>
+      <c r="AZ180">
+        <v>4</v>
+      </c>
+      <c r="BA180">
+        <v>9</v>
+      </c>
+      <c r="BB180">
+        <v>1</v>
+      </c>
+      <c r="BC180">
+        <v>10</v>
+      </c>
+      <c r="BD180">
+        <v>0</v>
+      </c>
+      <c r="BE180">
+        <v>0</v>
+      </c>
+      <c r="BF180">
+        <v>0</v>
+      </c>
+      <c r="BG180">
+        <v>0</v>
+      </c>
+      <c r="BH180">
+        <v>0</v>
+      </c>
+      <c r="BI180">
+        <v>0</v>
+      </c>
+      <c r="BJ180">
+        <v>0</v>
+      </c>
+      <c r="BK180">
+        <v>0</v>
+      </c>
+      <c r="BL180">
+        <v>0</v>
+      </c>
+      <c r="BM180">
+        <v>0</v>
+      </c>
+      <c r="BN180">
+        <v>0</v>
+      </c>
+      <c r="BO180">
+        <v>0</v>
+      </c>
+      <c r="BP180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7483849</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45802.52083333334</v>
+      </c>
+      <c r="F181">
+        <v>36</v>
+      </c>
+      <c r="G181" t="s">
+        <v>72</v>
+      </c>
+      <c r="H181" t="s">
+        <v>77</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <v>2</v>
+      </c>
+      <c r="K181">
+        <v>3</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+      <c r="M181">
+        <v>3</v>
+      </c>
+      <c r="N181">
+        <v>4</v>
+      </c>
+      <c r="O181" t="s">
+        <v>204</v>
+      </c>
+      <c r="P181" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q181">
+        <v>4.25</v>
+      </c>
+      <c r="R181">
+        <v>2.21</v>
+      </c>
+      <c r="S181">
+        <v>2.33</v>
+      </c>
+      <c r="T181">
+        <v>1.32</v>
+      </c>
+      <c r="U181">
+        <v>3.1</v>
+      </c>
+      <c r="V181">
+        <v>2.49</v>
+      </c>
+      <c r="W181">
+        <v>1.47</v>
+      </c>
+      <c r="X181">
+        <v>5.9</v>
+      </c>
+      <c r="Y181">
+        <v>1.11</v>
+      </c>
+      <c r="Z181">
+        <v>3.59</v>
+      </c>
+      <c r="AA181">
+        <v>3.61</v>
+      </c>
+      <c r="AB181">
+        <v>1.77</v>
+      </c>
+      <c r="AC181">
+        <v>1.01</v>
+      </c>
+      <c r="AD181">
+        <v>11</v>
+      </c>
+      <c r="AE181">
+        <v>1.18</v>
+      </c>
+      <c r="AF181">
+        <v>3.9</v>
+      </c>
+      <c r="AG181">
+        <v>1.67</v>
+      </c>
+      <c r="AH181">
+        <v>2</v>
+      </c>
+      <c r="AI181">
+        <v>1.62</v>
+      </c>
+      <c r="AJ181">
+        <v>2.11</v>
+      </c>
+      <c r="AK181">
+        <v>1.87</v>
+      </c>
+      <c r="AL181">
+        <v>1.23</v>
+      </c>
+      <c r="AM181">
+        <v>1.22</v>
+      </c>
+      <c r="AN181">
+        <v>1.35</v>
+      </c>
+      <c r="AO181">
+        <v>1.88</v>
+      </c>
+      <c r="AP181">
+        <v>1.28</v>
+      </c>
+      <c r="AQ181">
+        <v>1.94</v>
+      </c>
+      <c r="AR181">
+        <v>1.51</v>
+      </c>
+      <c r="AS181">
+        <v>1.55</v>
+      </c>
+      <c r="AT181">
+        <v>3.06</v>
+      </c>
+      <c r="AU181">
+        <v>7</v>
+      </c>
+      <c r="AV181">
+        <v>6</v>
+      </c>
+      <c r="AW181">
+        <v>8</v>
+      </c>
+      <c r="AX181">
+        <v>8</v>
+      </c>
+      <c r="AY181">
+        <v>15</v>
+      </c>
+      <c r="AZ181">
+        <v>14</v>
+      </c>
+      <c r="BA181">
+        <v>5</v>
+      </c>
+      <c r="BB181">
+        <v>2</v>
+      </c>
+      <c r="BC181">
+        <v>7</v>
+      </c>
+      <c r="BD181">
+        <v>0</v>
+      </c>
+      <c r="BE181">
+        <v>0</v>
+      </c>
+      <c r="BF181">
+        <v>0</v>
+      </c>
+      <c r="BG181">
+        <v>0</v>
+      </c>
+      <c r="BH181">
+        <v>0</v>
+      </c>
+      <c r="BI181">
+        <v>0</v>
+      </c>
+      <c r="BJ181">
+        <v>0</v>
+      </c>
+      <c r="BK181">
+        <v>0</v>
+      </c>
+      <c r="BL181">
+        <v>0</v>
+      </c>
+      <c r="BM181">
+        <v>0</v>
+      </c>
+      <c r="BN181">
+        <v>0</v>
+      </c>
+      <c r="BO181">
+        <v>0</v>
+      </c>
+      <c r="BP181">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
